--- a/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/additive/ranking_test4/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/additive/ranking_test4/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.499</v>
+        <v>0.613</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.744</v>
+        <v>16.407</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.795</v>
+        <v>0.595</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.787</v>
+        <v>16.995</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.615</v>
+        <v>0.865</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.987</v>
+        <v>10.06</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>11.95039437346231</v>
+        <v>6.236378312838255</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>12.01607275067498</v>
+        <v>9.067829379018661</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>12.03949713982595</v>
+        <v>16.20831988284581</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>11.93800450711643</v>
+        <v>-3.778806423418054</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>12.00522637375795</v>
+        <v>8.081086223954596</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>12.03113255982256</v>
+        <v>13.73248789684648</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>11.97903350673393</v>
+        <v>-1.511765499972867</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>12.03326279751994</v>
+        <v>17.5224760420936</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>12.0540561564312</v>
+        <v>24.37176262601437</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>12.04038730523766</v>
+        <v>9.751380837400227</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>12.09050137197812</v>
+        <v>13.72515187050993</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>12.11774582579157</v>
+        <v>19.74430148019192</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>11.94510194824838</v>
+        <v>3.49491084056951</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>12.06201410356915</v>
+        <v>2.702430087766722</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>12.1051564043215</v>
+        <v>17.31059312560209</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>11.95131622268655</v>
+        <v>7.772817963887803</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>12.04545445026633</v>
+        <v>17.42744032037209</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>12.0807873728354</v>
+        <v>25.01045411207455</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>11.92758361198632</v>
+        <v>-7.502135734784453</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>12.02486651746786</v>
+        <v>3.175782276288992</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>12.06395762292778</v>
+        <v>12.08220212937078</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>11.98692185754641</v>
+        <v>-9.233366519110518</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>12.06540882830874</v>
+        <v>13.07526352906947</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>11.98431944215539</v>
+        <v>8.078575545000113</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>12.05942275877761</v>
+        <v>18.23663067651423</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>12.08353373922484</v>
+        <v>21.7676396171953</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>11.98172659687324</v>
+        <v>-2.939066520004285</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>12.05894683633406</v>
+        <v>22.62797575272424</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>12.08556597731953</v>
+        <v>25.03892134794004</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>12.02489539797967</v>
+        <v>3.764246256633648</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>12.08722943860398</v>
+        <v>35.06423471933804</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>12.10858261148249</v>
+        <v>38.875461838595</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>12.11035175626344</v>
+        <v>35.50676705405694</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>12.16906761615678</v>
+        <v>38.27212407712226</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>12.19704144180285</v>
+        <v>41.66101144461881</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>12.00818877139088</v>
+        <v>11.13605250710437</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>12.14191891041669</v>
+        <v>28.75070402745867</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>12.18633466894023</v>
+        <v>37.07483381705397</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>12.00709393400163</v>
+        <v>7.322128889583787</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>12.11425149923486</v>
+        <v>27.75923197531399</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>12.15091465533849</v>
+        <v>31.80179263793235</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>11.99665103404388</v>
+        <v>-3.763561317875258</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>12.10779501189151</v>
+        <v>25.70746545624871</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>12.14830038521442</v>
+        <v>31.9024178792603</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>12.14836045733637</v>
+        <v>39.82079793440749</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>11.98554761751446</v>
+        <v>0.04210679026273922</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>12.05949628337023</v>
+        <v>12.30530970437593</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>12.08302280489893</v>
+        <v>17.381989827684</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>11.98545887652782</v>
+        <v>-7.148128113751152</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>12.06157638445625</v>
+        <v>21.33570835234485</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>12.08754715993912</v>
+        <v>25.96950763830062</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>12.0273898490628</v>
+        <v>0.9726357254191527</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>12.08884168791528</v>
+        <v>34.82903987246162</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>12.10967555315681</v>
+        <v>40.60662916384125</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>12.1125904821053</v>
+        <v>31.56594784743667</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>12.170699493929</v>
+        <v>34.68186419211143</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>12.19809339003525</v>
+        <v>41.12537335525518</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>12.01320722675108</v>
+        <v>1.416005739806138</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>12.1448991611198</v>
+        <v>24.05743730569066</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>12.18823549460222</v>
+        <v>34.84351960808999</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>12.01016236706697</v>
+        <v>1.278634935528011</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>12.11556919449614</v>
+        <v>24.50341968769792</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>12.15134111586613</v>
+        <v>30.87045190991398</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>12.00339174710048</v>
+        <v>-8.007207048864856</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>12.11281956443517</v>
+        <v>25.37675896426778</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>12.15233644157827</v>
+        <v>34.88226800362685</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>12.06347578207204</v>
+        <v>-2.266917706260443</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>12.1518218134602</v>
+        <v>40.30196816545308</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>11.97037037037687</v>
+        <v>-2.110710117842302</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>12.03003726227097</v>
+        <v>8.356433394641144</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>12.05100187880058</v>
+        <v>17.65814667526228</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>11.96360537989215</v>
+        <v>-2.426147955038608</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>12.02478369927574</v>
+        <v>19.85266013036771</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>12.04796474987398</v>
+        <v>28.92095760051753</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>11.99913919829719</v>
+        <v>2.558693454700013</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>12.04850364999071</v>
+        <v>30.99314724040515</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>12.06711100548056</v>
+        <v>40.85901848776784</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>12.05991873078226</v>
+        <v>18.15759068226054</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>12.10584280235532</v>
+        <v>25.80242244542292</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>12.13033703385162</v>
+        <v>36.46996484112616</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>11.975044871123</v>
+        <v>3.85657413638139</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>12.08127810104048</v>
+        <v>17.77982324903078</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>12.1198851034436</v>
+        <v>36.55912006145223</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>11.97889871949153</v>
+        <v>1.721626475510874</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>12.0642871761518</v>
+        <v>21.36221477708605</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>12.09590560686325</v>
+        <v>32.32562965183513</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>11.96361544800734</v>
+        <v>-3.870324760036695</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>12.05198465465792</v>
+        <v>20.07929203522978</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>12.08696028923857</v>
+        <v>34.12562428849027</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>12.01496871636529</v>
+        <v>-2.90327909205039</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>12.08627822996647</v>
+        <v>31.4199554768144</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>12.09685297791618</v>
+        <v>23.08535447050556</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>12.08089885775688</v>
+        <v>12.29825006529961</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>12.15710000510746</v>
+        <v>20.45062365544488</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>12.199592102449</v>
+        <v>32.53222107083176</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>11.95624804384229</v>
+        <v>-3.172404090125518</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>12.12367722189365</v>
+        <v>9.353136702494169</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>12.18907383532171</v>
+        <v>20.57314606792698</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>11.97009782097931</v>
+        <v>5.59883811991083</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>12.07735237994453</v>
+        <v>13.84661814874287</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>12.1158765967518</v>
+        <v>26.91230218774832</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>11.95007734336112</v>
+        <v>-11.00082043004773</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>12.06194191802818</v>
+        <v>2.505084240563399</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>12.10464925648123</v>
+        <v>16.22090150770835</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>12.01822185755848</v>
+        <v>-9.952954133152595</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>12.10852847470187</v>
+        <v>14.50419875562621</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>12.14288850584347</v>
+        <v>30.60995877643007</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>12.14012290601087</v>
+        <v>21.08275642690436</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>12.23125311663723</v>
+        <v>34.16023461909513</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>12.278526899416</v>
+        <v>49.72381623445757</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>12.00974775255613</v>
+        <v>-5.148142402560289</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>12.20067794499622</v>
+        <v>13.12762651312712</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>12.2723170049684</v>
+        <v>31.35312798924459</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>12.18093002732025</v>
+        <v>47.18808593244337</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>12.18785067679184</v>
+        <v>45.28088024344829</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>12.27614106092741</v>
+        <v>50.45015402103477</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>12.32020614358914</v>
+        <v>59.72947216187948</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>12.05423669184528</v>
+        <v>10.34000468739773</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>12.24488025383939</v>
+        <v>47.96328178344751</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>12.31277186630414</v>
+        <v>53.49417228848043</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>12.0432475712761</v>
+        <v>12.50167441013532</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>12.16475437122758</v>
+        <v>32.24854951286893</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>12.20473535940255</v>
+        <v>39.33970190281367</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>12.03860914615421</v>
+        <v>-0.1749162146254335</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>12.16570205080901</v>
+        <v>33.30576611033272</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>12.20996890057178</v>
+        <v>41.37226851829398</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>12.10918086565585</v>
+        <v>7.172776201744561</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>12.21183129638032</v>
+        <v>49.44293866023436</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>12.24743316457915</v>
+        <v>60.13986649295214</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>12.27279713753267</v>
+        <v>68.33086128235291</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>12.37739288960776</v>
+        <v>73.61196362249839</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>12.42645880998931</v>
+        <v>83.62263277878995</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>12.13306269030791</v>
+        <v>21.0455984673474</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>12.34941755780584</v>
+        <v>64.926863654779</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>12.42381254256877</v>
+        <v>74.01103145705753</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>12.18359756801189</v>
+        <v>50.57103469849864</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>12.19237808095431</v>
+        <v>39.6459581309654</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>12.27955237864849</v>
+        <v>45.00714071373458</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>12.3226730640018</v>
+        <v>58.58031802281322</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>12.06241231863534</v>
+        <v>0.3949733295283053</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>12.2499659440209</v>
+        <v>44.33947926523486</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>12.04963242459648</v>
+        <v>5.686625294553942</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>12.16903715886147</v>
+        <v>30.09765529948412</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>12.2080248498976</v>
+        <v>38.42150863966033</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>12.04899855798055</v>
+        <v>-5.028778032561597</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>12.17398450384375</v>
+        <v>34.58040291098717</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>12.21714741155299</v>
+        <v>44.6457737849824</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>12.11715917718466</v>
+        <v>3.647485776973404</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>12.21811833958364</v>
+        <v>51.28252880674924</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>12.25283333637376</v>
+        <v>63.65121803328923</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>12.2806307324807</v>
+        <v>65.18652676401507</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>12.38370410261042</v>
+        <v>71.81316360535365</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>12.43167891956446</v>
+        <v>84.42955726763034</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>12.14470723717407</v>
+        <v>12.20311198493369</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>12.35734313460194</v>
+        <v>65.17950954039901</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>12.42988442374636</v>
+        <v>76.49391725932784</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>12.11441361818805</v>
+        <v>45.95128309786173</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>12.10737223660294</v>
+        <v>21.60614029570673</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>12.17692922922497</v>
+        <v>34.09303834286493</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>12.21509758705227</v>
+        <v>52.8666823661265</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>11.99635261185757</v>
+        <v>-0.574186455099003</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>12.14825083667351</v>
+        <v>30.8464623954404</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>12.20676552185425</v>
+        <v>48.25917538115937</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>12.00180775588904</v>
+        <v>5.638813108873968</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>12.09894239841532</v>
+        <v>26.75828840283171</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>12.13339069656153</v>
+        <v>41.6235334811536</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>11.99050125467132</v>
+        <v>-0.7146994744113826</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>12.09192854848613</v>
+        <v>29.58954319899781</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>12.13011117405476</v>
+        <v>46.38151599302538</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>12.04931481315209</v>
+        <v>3.665743525001723</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>12.13120948287272</v>
+        <v>43.23393231154457</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>12.16193079380083</v>
+        <v>62.00729440178147</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>12.16817253990124</v>
+        <v>43.21873878229403</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>12.25109199849779</v>
+        <v>62.54835973696741</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>12.29350816931741</v>
+        <v>82.50170587706211</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>12.05204200102667</v>
+        <v>7.080056712443813</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>12.22498730439267</v>
+        <v>48.69462242078946</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>12.28903829920463</v>
+        <v>70.54666477530532</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>11.99618725178221</v>
+        <v>29.35618272651489</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>12.08831580272208</v>
+        <v>50.21113136379329</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>12.11728418426433</v>
+        <v>56.9846389817536</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>11.98184234678956</v>
+        <v>17.62428646534033</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>12.0764722379084</v>
+        <v>51.05151540233442</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>12.10836059600404</v>
+        <v>55.42543305017331</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>12.03678988668464</v>
+        <v>32.70805917399591</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>12.11315024732872</v>
+        <v>71.45046197806917</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>12.13872260942319</v>
+        <v>77.29679537287137</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>12.13411491140862</v>
+        <v>52.29118943736644</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>12.20519667264331</v>
+        <v>70.92228571200759</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>12.23764843284799</v>
+        <v>74.05593972031011</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>12.00078675231395</v>
+        <v>22.2699037664591</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>12.16518456368806</v>
+        <v>48.78739129623017</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>12.21853942013042</v>
+        <v>60.8570611959868</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>12.01194849920876</v>
+        <v>23.18060779601013</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>12.14366455522207</v>
+        <v>51.13179455776029</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>12.18798530867424</v>
+        <v>55.98212191292235</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>11.98294635462201</v>
+        <v>0.1545544178583285</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>12.11946291318063</v>
+        <v>33.17051902701621</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>12.1683016565028</v>
+        <v>38.79212384770261</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>12.06286898227459</v>
+        <v>14.04409246713116</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>12.17303648642283</v>
+        <v>56.56537900240983</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>12.04292001159766</v>
+        <v>30.15746426449878</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>12.14810234393776</v>
+        <v>57.27670123576841</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>12.17776504370036</v>
+        <v>60.20077853450131</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>12.04162704770983</v>
+        <v>20.38428235863203</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>12.15012288513608</v>
+        <v>66.06462327299784</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>12.18270515599096</v>
+        <v>66.53513444884265</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>12.09972326972663</v>
+        <v>39.82873702424151</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>12.18732434913986</v>
+        <v>89.49234686679208</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>12.21343490862612</v>
+        <v>91.81060212568286</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>12.22990338757386</v>
+        <v>79.12016247148162</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>12.31293504950166</v>
+        <v>96.93870397538467</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>12.34601241223713</v>
+        <v>97.42914654243191</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>12.08692158279207</v>
+        <v>31.80927397844612</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>12.27464152276532</v>
+        <v>74.70618430809576</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>12.32928666318385</v>
+        <v>79.89940688230372</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>12.08826173767488</v>
+        <v>22.75950056284667</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>12.23799130319014</v>
+        <v>60.35658074786955</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>12.28381175133162</v>
+        <v>61.70979440443492</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>12.0769784743208</v>
+        <v>5.784525109385811</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>12.23269500555181</v>
+        <v>55.91596501431223</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>12.28310080621727</v>
+        <v>58.52511861660003</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>12.1608483825554</v>
+        <v>26.69664246550064</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>12.28657797106984</v>
+        <v>84.52660039461375</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>12.04138331310108</v>
+        <v>19.62631772862188</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>12.14490950478481</v>
+        <v>47.9219321528354</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>12.17385897418199</v>
+        <v>52.22618980036714</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>12.04329070014093</v>
+        <v>14.72911372007503</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>12.1501886544281</v>
+        <v>62.19998906479179</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>12.18198411543105</v>
+        <v>64.58045089542851</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>12.09981691815655</v>
+        <v>34.70951727533084</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>12.18613845004321</v>
+        <v>85.90439216686576</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>12.21161957715541</v>
+        <v>89.94039702993456</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>12.22889305420231</v>
+        <v>73.27923046172808</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>12.31100961336421</v>
+        <v>90.72811913181565</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>12.34343157040917</v>
+        <v>93.97787172344988</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>12.0898029729056</v>
+        <v>20.4735443558017</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>12.27458559121668</v>
+        <v>66.90606509900425</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>12.32791326000931</v>
+        <v>74.12908255596147</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>12.08838818497111</v>
+        <v>15.49766247510871</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>12.23562420559847</v>
+        <v>54.89099336985273</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>12.28033736106403</v>
+        <v>58.4821347008016</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>12.08183375464853</v>
+        <v>1.630755062035924</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>12.23508770517042</v>
+        <v>54.44293283824152</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>12.28427128468757</v>
+        <v>60.1207430892155</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>12.1632501787269</v>
+        <v>22.9414069204834</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>12.28700551771722</v>
+        <v>83.06709432944993</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>12.01520158131779</v>
+        <v>18.47711389693492</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>12.09884891176734</v>
+        <v>46.45376921378493</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>12.12478182078978</v>
+        <v>55.1180557214392</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>12.00808074334535</v>
+        <v>17.52484564548963</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>12.09414179161863</v>
+        <v>60.77513120435032</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>12.12268321441655</v>
+        <v>67.97982045291371</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>12.05574871335978</v>
+        <v>34.4199828914189</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>12.1252087240083</v>
+        <v>82.00405797889559</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>12.14809883292755</v>
+        <v>90.3981409689919</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>12.15038466688963</v>
+        <v>59.12343020548103</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>12.2154496495924</v>
+        <v>81.02890435238059</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>12.24465899577113</v>
+        <v>88.12535535572786</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>12.03162429866451</v>
+        <v>20.56673750462759</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>12.18091017139972</v>
+        <v>61.01741583692297</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>12.22866763070306</v>
+        <v>76.38207030677745</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>12.03925414364694</v>
+        <v>14.52442161045587</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>12.15866900928727</v>
+        <v>51.79250711067944</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>12.19833761392479</v>
+        <v>59.67672884718452</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>12.02118983822174</v>
+        <v>2.53727020406145</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>12.14512495803759</v>
+        <v>48.01969725228832</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>12.18883061295513</v>
+        <v>58.10210105949334</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>12.09046814991365</v>
+        <v>18.26603590458466</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>12.19050132474047</v>
+        <v>72.052414073259</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>12.2122998918345</v>
+        <v>63.77401714315564</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>12.2086834051766</v>
+        <v>47.37073712609705</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>12.31617592503365</v>
+        <v>71.13672563346825</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>12.36799008275488</v>
+        <v>74.31334112384297</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>12.0348142690895</v>
+        <v>17.15574249378698</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>12.26960032928472</v>
+        <v>57.18416523983159</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>12.35164597506535</v>
+        <v>64.65870369357336</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>12.04339931792506</v>
+        <v>12.98829688020965</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>12.19318390324505</v>
+        <v>41.01827441983876</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>12.24181554917528</v>
+        <v>47.59371601249701</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>12.01945611860078</v>
+        <v>-9.774003466680831</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>12.1760689795197</v>
+        <v>27.16932783779489</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>12.22978592777774</v>
+        <v>33.12130378851634</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>12.11130594073826</v>
+        <v>5.597673203386158</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>12.23776393438941</v>
+        <v>51.12360626240999</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>12.28096109221286</v>
+        <v>60.52790503945759</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>12.29679557120386</v>
+        <v>45.5739446765858</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>12.42484009604174</v>
+        <v>71.79303810654471</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>12.48306113585952</v>
+        <v>75.45339663614749</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>12.11525632329352</v>
+        <v>4.865326242677348</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>12.38244622226426</v>
+        <v>53.00836614969928</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>12.47291930512402</v>
+        <v>61.55545637542924</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>12.32708353827295</v>
+        <v>88.91290950241353</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>12.35467974155882</v>
+        <v>82.62505915809477</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>12.47894130109826</v>
+        <v>103.6670297497835</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>12.53241949404254</v>
+        <v>104.4265713108523</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>12.16828164609402</v>
+        <v>33.95799224970325</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>12.43522402373585</v>
+        <v>96.87495094584358</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>12.52009153976218</v>
+        <v>98.46972575733849</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>12.14369708205015</v>
+        <v>16.09564382169028</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>12.31318937056289</v>
+        <v>54.22213207592453</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>12.36348806515764</v>
+        <v>54.03477151781512</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>12.14032772180126</v>
+        <v>-0.678051524351126</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>12.31801993211183</v>
+        <v>54.27307070527261</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>12.3734957497609</v>
+        <v>53.38618317355755</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>12.23582155159077</v>
+        <v>20.52130959132455</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>12.37936735988342</v>
+        <v>82.07864098502856</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>12.42396038206816</v>
+        <v>85.06375877148885</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>12.47826296295006</v>
+        <v>88.27491054530492</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>12.62496602557739</v>
+        <v>107.0988138300009</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>12.68513981941998</v>
+        <v>104.2501082884638</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>12.28367229316429</v>
+        <v>28.67086439998948</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>12.58605768858495</v>
+        <v>99.8746890227246</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>12.67969821614875</v>
+        <v>97.78188542251294</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>12.32653028958991</v>
+        <v>90.172083568386</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>12.35568602173123</v>
+        <v>76.49365901131111</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>12.47831175550394</v>
+        <v>96.84530057094105</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>12.53067782363741</v>
+        <v>101.6860323923373</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>12.17437928370179</v>
+        <v>23.46707620224849</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>12.43690275528835</v>
+        <v>91.10077622778303</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>12.51971428869306</v>
+        <v>96.20798272352309</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>12.14813145582611</v>
+        <v>7.880769291631971</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>12.31464609043392</v>
+        <v>49.70865927674706</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>12.36369822872184</v>
+        <v>50.50372316000399</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>12.14994218658426</v>
+        <v>-4.921409666958958</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>12.3246329781307</v>
+        <v>54.96099305110871</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>12.37872929037354</v>
+        <v>55.66538102684629</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>12.24229600088457</v>
+        <v>16.61744682432252</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>12.38343122382689</v>
+        <v>82.46221044930243</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>12.42691664447002</v>
+        <v>86.78186476476006</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>12.48351001439273</v>
+        <v>85.03593484861841</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>12.62801777734137</v>
+        <v>104.4125327432517</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>12.68688115359811</v>
+        <v>103.7459403046874</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>12.29422974961484</v>
+        <v>19.77851304861664</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>12.59132844508849</v>
+        <v>98.51325520543523</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>12.68264147966449</v>
+        <v>98.06324946410192</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>12.22564024081028</v>
+        <v>83.2346030409455</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>12.23167391302544</v>
+        <v>55.49042571654119</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>12.3297110143454</v>
+        <v>82.89549229800625</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>12.37629059824413</v>
+        <v>91.81383357386932</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>12.07681828083867</v>
+        <v>18.04381076921947</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>12.28971011949277</v>
+        <v>75.90921005770851</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>12.36313496323247</v>
+        <v>88.58732336150339</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>12.07565200671923</v>
+        <v>9.767808338509745</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>12.2112478994662</v>
+        <v>50.18538585064374</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>12.2547374527629</v>
+        <v>57.80698344468341</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>12.06300768201338</v>
+        <v>-0.2400686818887365</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>12.20493913635815</v>
+        <v>52.91841346114749</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>12.25296902111727</v>
+        <v>60.82324184786225</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>12.14238814766915</v>
+        <v>17.45535011085152</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>12.25701023488161</v>
+        <v>77.54372154345869</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>12.29563619829302</v>
+        <v>88.66674734474853</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>12.32108282220243</v>
+        <v>66.79729266259807</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>12.43751527894415</v>
+        <v>98.79043112651044</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>12.48978412489764</v>
+        <v>105.4447591128526</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>12.15938038741415</v>
+        <v>15.86715210633916</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>12.40129209409356</v>
+        <v>86.60284724392241</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>12.48218788801657</v>
+        <v>97.2274865742344</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>11.90829205641835</v>
+        <v>7.082081681862824</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>11.98299385255722</v>
+        <v>4.37038018129812</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>12.00993732706506</v>
+        <v>9.666487297004434</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>11.88972382456218</v>
+        <v>-9.076073870521014</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>11.96606572281339</v>
+        <v>-4.315165246571411</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>11.99585351180814</v>
+        <v>-0.6309897696667406</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>11.93945006357451</v>
+        <v>-8.518417516990311</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>12.00102715134692</v>
+        <v>4.45876516508595</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>12.02493576359329</v>
+        <v>9.71233536206249</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>12.00086455700764</v>
+        <v>3.803123913743654</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>12.05697080318014</v>
+        <v>5.732961418811406</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>12.08821482240082</v>
+        <v>9.006876765036282</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>11.89081713292661</v>
+        <v>5.573947386544383</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>12.02376377051973</v>
+        <v>-2.82966998650695</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>12.07338832044429</v>
+        <v>9.243757434464548</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>11.89560498141092</v>
+        <v>10.86768633363863</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>12.00282462607774</v>
+        <v>16.89343136248586</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>12.04355244607748</v>
+        <v>24.97590532625204</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>11.86249899874445</v>
+        <v>-8.218738039957223</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>11.97316408988891</v>
+        <v>-2.912671032430829</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>12.01821268770489</v>
+        <v>6.563149764491179</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>11.93426541934429</v>
+        <v>-11.0485524484649</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>12.02353658895945</v>
+        <v>6.800368367035688</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>11.94386359657072</v>
+        <v>6.334078296352224</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>12.02936802758819</v>
+        <v>10.88577734526715</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>12.05710204798931</v>
+        <v>13.71377594766453</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>11.93624486095559</v>
+        <v>-9.395642104965809</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>12.02404127017776</v>
+        <v>9.156510118528949</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>12.05464911030447</v>
+        <v>10.88496348354858</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>11.98867748278736</v>
+        <v>-4.986218730886044</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>12.05953929450515</v>
+        <v>20.32486777866763</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>12.08409191073745</v>
+        <v>23.68425474161298</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>12.07702858075087</v>
+        <v>27.50699822490513</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>12.14294207312477</v>
+        <v>28.70622403963356</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>12.17501893086404</v>
+        <v>30.5472542585502</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>11.95904083055022</v>
+        <v>10.80421448610218</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>12.1112619244989</v>
+        <v>20.87371636642052</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>12.1623529339484</v>
+        <v>28.21882084594576</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>11.95517491288561</v>
+        <v>9.229473338910822</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>12.07732335596031</v>
+        <v>26.49428304333682</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>12.11958997561105</v>
+        <v>32.28915201650896</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>11.93693467809535</v>
+        <v>-4.594549931880742</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>12.06348712317634</v>
+        <v>20.189653111303</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>12.11017116328585</v>
+        <v>28.38741633833867</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>12.01207966007639</v>
+        <v>-1.509285443770118</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>12.11422639827944</v>
+        <v>33.79508189781338</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>11.9460653243425</v>
+        <v>-2.697193885237709</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>12.03027127052803</v>
+        <v>3.774764219151237</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>12.0573368811888</v>
+        <v>8.61330125766316</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>11.94144764674557</v>
+        <v>-14.30323618679761</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>12.02800986910034</v>
+        <v>6.964221146538453</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>12.05787650388292</v>
+        <v>11.45981692836516</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>11.99239859402117</v>
+        <v>-8.539397437188612</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>12.06227358599616</v>
+        <v>19.1500170958363</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>12.08623260612006</v>
+        <v>24.95989252739121</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>12.08066792097275</v>
+        <v>22.65892475165345</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>12.14593469514064</v>
+        <v>23.95734491446574</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>12.17735281275599</v>
+        <v>29.41715168090201</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>11.96589030821197</v>
+        <v>-0.1300984541528578</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>12.11582069686056</v>
+        <v>14.6897271503689</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>12.1656770556919</v>
+        <v>25.16875912659349</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>11.95983535137383</v>
+        <v>2.201169489707119</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>12.0800075321613</v>
+        <v>22.06546991086119</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>12.12125163005244</v>
+        <v>30.73399321786805</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>11.94598345231548</v>
+        <v>-9.63117605886189</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>12.07060523063869</v>
+        <v>18.86271735662925</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>12.11615549282146</v>
+        <v>31.02460230848422</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>12.01885492108008</v>
+        <v>-5.298698873499802</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>12.11945566265485</v>
+        <v>33.24122003017523</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>11.93499953103511</v>
+        <v>-4.087934603700141</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>12.00288637921037</v>
+        <v>0.5757257455675884</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>12.0270044809072</v>
+        <v>8.575889991870362</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>11.92337751842674</v>
+        <v>-10.31188011656493</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>11.99288324995962</v>
+        <v>4.599337085430172</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>12.01954196219137</v>
+        <v>12.34295262120531</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>11.96652000426426</v>
+        <v>-7.304981179425823</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>12.02259552409947</v>
+        <v>14.83777527449724</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>12.04399420179836</v>
+        <v>23.68374588625404</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>12.02823347810756</v>
+        <v>9.396882210678648</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>12.07969738287252</v>
+        <v>14.70573857543408</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>12.10779373363386</v>
+        <v>23.27278419866925</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>11.9302103237901</v>
+        <v>3.077085299329454</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>12.05105437142192</v>
+        <v>9.081678232957202</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>12.09546927497725</v>
+        <v>26.10535134921189</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>11.93252797243318</v>
+        <v>2.397288450202431</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>12.02980913560779</v>
+        <v>18.26919410201762</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>12.06626027506855</v>
+        <v>30.46095287218751</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>11.90978415412335</v>
+        <v>-6.666720466831769</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>12.01034211413039</v>
+        <v>11.77650410761371</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>12.05065358580707</v>
+        <v>27.25698534186233</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>11.97199813125514</v>
+        <v>-7.030373951062288</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>12.05313253550628</v>
+        <v>22.72088934064406</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>12.05977338172721</v>
+        <v>17.5143189653575</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>12.02992082845272</v>
+        <v>9.01921975926863</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>12.11562518094778</v>
+        <v>16.42084881967095</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>12.16449379841055</v>
+        <v>27.40005162851203</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>11.88600583089416</v>
+        <v>-1.44746245338488</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>12.07665967187793</v>
+        <v>5.597346757065438</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>12.15204552987923</v>
+        <v>17.35851974490704</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>11.91845704238817</v>
+        <v>11.26915764207273</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>12.04084249775751</v>
+        <v>17.05347480137333</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>12.08526112799034</v>
+        <v>30.4052794913806</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>11.88966613840178</v>
+        <v>-9.918566375296017</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>12.01719271707817</v>
+        <v>0.02842022871514871</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>12.06642288759441</v>
+        <v>13.93484187154898</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>11.97157656304167</v>
+        <v>-7.858340251251043</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>12.07451521022911</v>
+        <v>13.68325916059711</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>12.11412392647287</v>
+        <v>30.20721447367604</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>12.09987006314345</v>
+        <v>21.59645729852978</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>12.20281382642652</v>
+        <v>34.24135403228971</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>12.25721566821033</v>
+        <v>48.58115367040148</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>11.94938795048</v>
+        <v>0.3518958310702729</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>12.16722112783152</v>
+        <v>14.52875212818837</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>12.24982431561857</v>
+        <v>33.10947552013423</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>12.15176489897048</v>
+        <v>43.13409877510764</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>12.14722821142143</v>
+        <v>41.32904077077733</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>12.24672957862578</v>
+        <v>46.6893830199874</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>12.29740957609521</v>
+        <v>55.99124354620054</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>11.99296917669049</v>
+        <v>10.68286769112337</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>12.2102392577862</v>
+        <v>43.70468813119623</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>12.28851177139051</v>
+        <v>51.49290321912693</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>11.99824390475158</v>
+        <v>18.98892291814692</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>12.13698391036284</v>
+        <v>36.71592091551268</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>12.18308727543641</v>
+        <v>45.12560849855147</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>11.98674694980649</v>
+        <v>2.878141831507627</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>12.13174209975988</v>
+        <v>33.50139565952235</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>12.18277519498628</v>
+        <v>42.91833506825048</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>12.07177214005063</v>
+        <v>11.30955167641039</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>12.18886996727204</v>
+        <v>51.28255296090121</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>12.22991464472215</v>
+        <v>63.41587944176175</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>12.24709214734984</v>
+        <v>71.23800196871224</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>12.36542262057491</v>
+        <v>76.870307780443</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>12.42188898560622</v>
+        <v>86.38134801811736</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>12.085812414961</v>
+        <v>28.45584159096311</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>12.332818303136</v>
+        <v>69.06714204694418</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>12.41860907017402</v>
+        <v>79.8536201297527</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>12.15608373005638</v>
+        <v>46.06076352901864</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>12.15394511346276</v>
+        <v>34.64175156277411</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>12.25222786020611</v>
+        <v>39.93543587443857</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>12.30182921455019</v>
+        <v>54.18404499389541</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>12.00389778434883</v>
+        <v>-0.5844314564492308</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>12.21768178482401</v>
+        <v>38.49590551154656</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>12.29405577448352</v>
+        <v>50.97375129079046</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>12.00671528198647</v>
+        <v>11.25335887909076</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>12.14307289478801</v>
+        <v>33.57652758200626</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>12.18803570544622</v>
+        <v>43.69458689241154</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>11.99999173182956</v>
+        <v>-2.605768106879744</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>12.14260440543943</v>
+        <v>34.08204862000062</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>12.19237023812138</v>
+        <v>46.06192324483309</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>12.0821580385268</v>
+        <v>7.099006168083584</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>12.19734402101107</v>
+        <v>52.383224363552</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>12.23737066313717</v>
+        <v>66.68586440476764</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>12.25760152698688</v>
+        <v>67.38424845405348</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>12.37424435434447</v>
+        <v>74.22224656273005</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>12.42946232440412</v>
+        <v>86.86720943626051</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>12.10071998635716</v>
+        <v>18.5600920680027</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>12.34351243637062</v>
+        <v>68.19187704828045</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>12.42717438594774</v>
+        <v>81.89774594747882</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>12.08556077937908</v>
+        <v>38.72799932753067</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>12.06715804814598</v>
+        <v>15.94198233901837</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>12.14544470177426</v>
+        <v>27.47059812928591</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>12.18934822295217</v>
+        <v>45.941771735202</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>11.9389806086044</v>
+        <v>-1.376141955226011</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>12.11199874518538</v>
+        <v>24.44529031760928</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>12.1794604747761</v>
+        <v>43.45112892456475</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>11.96004865513752</v>
+        <v>10.02443015059782</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>12.0709115735138</v>
+        <v>28.78188650740812</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>12.11063550532863</v>
+        <v>44.53436997683375</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>11.94192596631546</v>
+        <v>-0.4539575670301517</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>12.05758380542687</v>
+        <v>26.45603690514064</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>12.10160360939081</v>
+        <v>44.14052914964201</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>12.01273038679601</v>
+        <v>4.864838779700186</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>12.10610493411007</v>
+        <v>41.66848020242578</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>12.14152352229993</v>
+        <v>61.48727619885143</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>12.13879570339321</v>
+        <v>43.05493593237035</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>12.23251301928012</v>
+        <v>61.97560981455977</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>12.28133195281237</v>
+        <v>81.32096554452349</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>12.00475462128814</v>
+        <v>11.5976531897762</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>12.20211434539542</v>
+        <v>49.35643182810528</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>12.2759769646733</v>
+        <v>72.41920969823838</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>11.92653831577502</v>
+        <v>14.64908642391102</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>11.99148119380288</v>
+        <v>14.93163031116739</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>12.01462850969042</v>
+        <v>19.62707345472832</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>11.91084224046134</v>
+        <v>2.611722711197743</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>11.97722591588152</v>
+        <v>10.36674056321405</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>12.00280403650008</v>
+        <v>13.5386667921623</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>11.95365757313513</v>
+        <v>4.567591184431969</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>12.00720255295493</v>
+        <v>19.4513096827801</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>12.02773064325143</v>
+        <v>24.10047333946123</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>12.00847649012883</v>
+        <v>16.5825406864573</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>12.05728940068551</v>
+        <v>20.5598023565267</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>12.08404115820194</v>
+        <v>23.38082995926335</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>11.91271047034181</v>
+        <v>15.39846880837045</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>12.02831188509006</v>
+        <v>11.8720503974704</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>12.0709464700698</v>
+        <v>22.70543487782315</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>11.91645534588264</v>
+        <v>12.59692548734056</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>12.00964391876587</v>
+        <v>19.48256630267459</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>12.04468384988051</v>
+        <v>25.86914237515165</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>11.88817035885131</v>
+        <v>-3.704625720353391</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>11.9843703330762</v>
+        <v>3.027102487843052</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>12.02311093640163</v>
+        <v>10.60104568388103</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>11.95009962666401</v>
+        <v>-5.325839003301574</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>12.02770229736545</v>
+        <v>12.63478766398072</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>11.9576831587475</v>
+        <v>15.27498369977432</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>12.03201131686996</v>
+        <v>22.01734803392583</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>12.05582460566865</v>
+        <v>24.38824708944191</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>11.95148403008665</v>
+        <v>3.521204062115203</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>12.0278201290067</v>
+        <v>23.63539328780411</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>12.05408674786077</v>
+        <v>24.90341062387172</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>11.99664585538361</v>
+        <v>9.076557330941171</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>12.05825800441235</v>
+        <v>35.01276871488505</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>12.07932622654996</v>
+        <v>37.8399066149127</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>12.07488132701783</v>
+        <v>39.31769330532254</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>12.13221711735755</v>
+        <v>42.56227303575291</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>12.15966242903511</v>
+        <v>44.03565277685566</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>11.97220416498642</v>
+        <v>21.3226431108063</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>12.10455275418192</v>
+        <v>34.34447698398571</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>12.14842305964166</v>
+        <v>40.74379528378896</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>11.96839296100252</v>
+        <v>11.69399728208579</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>12.07454978872651</v>
+        <v>28.5098460525703</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>12.11089907321605</v>
+        <v>32.76291898508284</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>11.95299332678293</v>
+        <v>-0.1278316271474935</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>12.06299512502138</v>
+        <v>23.95985008690723</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>12.1031249561303</v>
+        <v>30.28156173380734</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>12.01785962339233</v>
+        <v>3.772615136102679</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>12.10664768975736</v>
+        <v>37.28825228902595</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>11.95928183638979</v>
+        <v>7.553442357753983</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>12.03247989955188</v>
+        <v>15.94296898931339</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>12.05571944514525</v>
+        <v>20.09005329038567</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>11.95566609546815</v>
+        <v>-0.4957402132096611</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>12.03092738976125</v>
+        <v>21.96762879144194</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>12.05655814589722</v>
+        <v>25.6825186409652</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>11.99955774805388</v>
+        <v>6.235799227506703</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>12.06031049157762</v>
+        <v>34.22656469713579</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>12.08086953574073</v>
+        <v>39.22311110803115</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>12.07765649224276</v>
+        <v>35.26428747294734</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>12.13442764239628</v>
+        <v>38.51034270079394</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>12.16131141072981</v>
+        <v>43.22053956798091</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>11.97777302322624</v>
+        <v>11.71379737081375</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>12.10812722065794</v>
+        <v>28.89816841316699</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>12.15093765160922</v>
+        <v>38.05345702340692</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>11.97207253022422</v>
+        <v>5.85004620649535</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>12.0765103718983</v>
+        <v>24.92420395974172</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>12.11198042489733</v>
+        <v>31.7449351907859</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>11.96045686132958</v>
+        <v>-4.231819043788185</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>12.06877862351623</v>
+        <v>23.09887546571542</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>12.10793404441033</v>
+        <v>32.96200791244155</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>12.02336786316624</v>
+        <v>0.7508425646780381</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>12.11081060467378</v>
+        <v>37.09136606519536</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>11.94878785795243</v>
+        <v>5.339156363535025</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>12.00780442701361</v>
+        <v>12.31427618663227</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>12.02852473760052</v>
+        <v>19.39739741339222</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>11.93906402099381</v>
+        <v>2.320764184638129</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>11.99950109491986</v>
+        <v>19.29560393853047</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>12.02239268588655</v>
+        <v>26.05727800495207</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>11.97620924622053</v>
+        <v>6.484684506010076</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>12.02496852662615</v>
+        <v>29.69177433020498</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>12.04334185345194</v>
+        <v>37.52243828961322</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>12.03109782521447</v>
+        <v>22.50962960883042</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>12.07586915188559</v>
+        <v>29.53638552526822</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>12.0999282323956</v>
+        <v>37.08213468314405</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>11.94579574168723</v>
+        <v>13.85971854348275</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>12.05087013016564</v>
+        <v>23.41675957024007</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>12.08902935971252</v>
+        <v>38.61374469025271</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>11.94743872243274</v>
+        <v>5.424051052126615</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>12.03198761428602</v>
+        <v>21.18358973631773</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>12.06334840541058</v>
+        <v>31.20874165573812</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>11.92808437297058</v>
+        <v>-1.845269080089565</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>12.01549601585262</v>
+        <v>16.74388463750461</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>12.05016315833957</v>
+        <v>29.64684162144457</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>11.98177065824112</v>
+        <v>-1.255619637798702</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>12.05229823207865</v>
+        <v>27.44715469240689</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>12.05886334949614</v>
+        <v>21.48503375393761</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>12.03481405084379</v>
+        <v>13.50582693417136</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>12.10933730575059</v>
+        <v>21.16136534951531</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>12.15127504703959</v>
+        <v>29.82714422866738</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>11.90961517428044</v>
+        <v>2.764838535473125</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>12.0753489387303</v>
+        <v>11.19417718081107</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>12.14021011230888</v>
+        <v>20.69403729816097</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>11.93652568677685</v>
+        <v>12.03083501075978</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>12.04288282514228</v>
+        <v>18.43649544199118</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>12.08112437718615</v>
+        <v>29.12577780454146</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>11.91194243835827</v>
+        <v>-6.761013543890336</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>12.02278380327546</v>
+        <v>3.805783414219825</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>12.06515118260998</v>
+        <v>14.87173452219832</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>11.98268698063264</v>
+        <v>-4.185417647805274</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>12.07215760082534</v>
+        <v>16.78365404366628</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>12.10624319494479</v>
+        <v>30.45683271715404</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>12.09576802888108</v>
+        <v>22.63337872748563</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>12.18525947216133</v>
+        <v>34.40059193386512</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>12.23199335591387</v>
+        <v>45.9175333377248</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>11.96486467883731</v>
+        <v>2.004055371549718</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>12.15420068303532</v>
+        <v>16.54689031372356</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>12.22532202863668</v>
+        <v>31.50280103570312</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>12.13891406754695</v>
+        <v>44.81968773843518</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>12.13687681904385</v>
+        <v>43.2227616664216</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>12.22338757994601</v>
+        <v>48.75280332997553</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>12.26685934428399</v>
+        <v>55.90716668790594</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>12.00267855564945</v>
+        <v>14.20381887009578</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>12.19153520527824</v>
+        <v>45.76980539705293</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>12.25885355586474</v>
+        <v>51.56893929017591</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>12.00602134622264</v>
+        <v>19.02334202864233</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>12.12658435658729</v>
+        <v>35.94999664841038</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>12.16626156712859</v>
+        <v>42.02740566707284</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>11.99642762701438</v>
+        <v>4.499739706298733</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>12.12244341086157</v>
+        <v>33.46230216634687</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>12.1663449353388</v>
+        <v>40.28711848800027</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>12.06988141765367</v>
+        <v>12.8822409930216</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>12.17165168982413</v>
+        <v>50.24968989635602</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>12.20695876994623</v>
+        <v>59.79625783826376</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>12.22380580396058</v>
+        <v>67.21025421926151</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>12.32666454123409</v>
+        <v>72.32307765836637</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>12.375151515487</v>
+        <v>79.35588240937369</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>12.08350955661641</v>
+        <v>27.15065602590651</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>12.2981877496291</v>
+        <v>65.18277154378819</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>12.37202671937254</v>
+        <v>72.85909030959647</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>12.14229457290134</v>
+        <v>47.73441712452474</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>12.14225745598991</v>
+        <v>37.52368612570147</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>12.22770663996495</v>
+        <v>42.87550109030864</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>12.27025543023502</v>
+        <v>54.48684320605367</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>12.01172338315516</v>
+        <v>4.297444183204995</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>12.19754681561028</v>
+        <v>41.20070834208735</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>12.26323256606733</v>
+        <v>51.17750963225999</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>12.0129982208023</v>
+        <v>12.30207067004751</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>12.13148958634421</v>
+        <v>33.30688662673369</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>12.17018506580789</v>
+        <v>40.8849508013022</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>12.00752368728903</v>
+        <v>-0.211033211612353</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>12.1314670941611</v>
+        <v>34.14178783385302</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>12.17427830792798</v>
+        <v>43.22638890902537</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>12.07851397524671</v>
+        <v>9.269581446984326</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>12.17862122878748</v>
+        <v>51.35518185852079</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>12.21305247098251</v>
+        <v>62.81351484780686</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>12.23246681419451</v>
+        <v>63.90658131870945</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>12.33385671974778</v>
+        <v>70.00863056115745</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>12.38127344297736</v>
+        <v>79.8344814463226</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>12.09599688075189</v>
+        <v>18.33088209871948</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>12.30701019050308</v>
+        <v>64.40001005384936</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>12.37901659722917</v>
+        <v>74.63549221318857</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>12.08018448806693</v>
+        <v>40.99959974374998</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>12.06583869384075</v>
+        <v>20.23472591307736</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>12.13390936896943</v>
+        <v>31.52071304703539</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>12.17158886446154</v>
+        <v>46.87574329174316</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>11.95433095588997</v>
+        <v>3.192016339878556</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>12.10473040008694</v>
+        <v>28.56783703682802</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>12.16277420160138</v>
+        <v>44.48106227460215</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>11.97153174964124</v>
+        <v>11.00505512649627</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>12.06787375932772</v>
+        <v>29.13289174258195</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>12.10207342073216</v>
+        <v>41.87315912765188</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>11.9561493614135</v>
+        <v>1.920402631696497</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>12.05667272149879</v>
+        <v>27.83009849753763</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>12.09455603085769</v>
+        <v>42.16314331151279</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>12.01730149701907</v>
+        <v>7.401938515013178</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>12.0984576087467</v>
+        <v>42.17407193933636</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>12.12893732723846</v>
+        <v>58.69859902372279</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>12.12822749333353</v>
+        <v>42.2137157941611</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>12.20969589845711</v>
+        <v>59.56913392421105</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>12.25163583779529</v>
+        <v>75.47891559643327</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>12.01162652882476</v>
+        <v>12.25352528839131</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>12.1831639178984</v>
+        <v>48.12269719708745</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>12.24675946601579</v>
+        <v>66.93250756848525</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>11.95059670662949</v>
+        <v>11.61295196177961</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>12.01877040961877</v>
+        <v>22.32524815126859</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>12.04190920385293</v>
+        <v>28.32683177328649</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>11.93624093560288</v>
+        <v>-0.1874320852166065</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>12.00607971544209</v>
+        <v>19.34653174185753</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>12.03157606140181</v>
+        <v>23.65859145864166</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>11.97993513008009</v>
+        <v>6.35031923586255</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>12.03626979084572</v>
+        <v>33.04019153528974</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>12.05672959601085</v>
+        <v>39.16582763664688</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>12.04258257963562</v>
+        <v>22.49716115564305</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>12.09419400705799</v>
+        <v>32.27566176189546</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>12.12060121579152</v>
+        <v>35.81355298570926</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>11.94206110674506</v>
+        <v>6.164094523997434</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>12.06354575682769</v>
+        <v>18.66054601109082</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>12.10618002364282</v>
+        <v>29.39774919869633</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>11.9446961248461</v>
+        <v>7.586117782282379</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>12.04235858716816</v>
+        <v>21.82878749217623</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>12.07760339180663</v>
+        <v>28.61027386576916</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>11.91775628331474</v>
+        <v>-10.87686875516158</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>12.01875399094857</v>
+        <v>3.610305316296319</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>12.05762886599828</v>
+        <v>11.9663180433195</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>11.98127858449478</v>
+        <v>-8.342857618300833</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>12.06275567485224</v>
+        <v>18.02031729158062</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>11.98397667054704</v>
+        <v>14.40392889398133</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>12.06195127384715</v>
+        <v>33.0461929422847</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>12.08570519754524</v>
+        <v>35.65280234420176</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>11.9795005411056</v>
+        <v>3.484591669118402</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>12.05974202608537</v>
+        <v>37.42440605820263</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>12.08586344645983</v>
+        <v>38.44353287426873</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>12.02564528989612</v>
+        <v>13.9822418571657</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>12.09041209059676</v>
+        <v>53.52042706085619</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>12.11136034975111</v>
+        <v>56.63844389321827</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>12.11274944613211</v>
+        <v>50.51061789452071</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>12.1732807894242</v>
+        <v>60.92964886812256</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>12.2003004088351</v>
+        <v>61.77746437477833</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>12.00495264513905</v>
+        <v>15.59750420219147</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>12.14393553805072</v>
+        <v>47.48776841259838</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>12.18771326779985</v>
+        <v>51.90811354016246</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>11.99965773166999</v>
+        <v>8.335096939633374</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>12.11085296907483</v>
+        <v>34.53108219559343</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>12.14735958049162</v>
+        <v>38.23576695914606</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>11.98610914328125</v>
+        <v>-3.998840049484983</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>12.10152102718554</v>
+        <v>30.57177308543839</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>12.14172351995176</v>
+        <v>36.52392728912579</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>12.05272170492341</v>
+        <v>5.036601838020005</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>12.14588050614942</v>
+        <v>49.3625373813368</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>11.98429350976421</v>
+        <v>6.158997650046754</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>12.06106785709568</v>
+        <v>26.10808546037952</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>12.08425113149788</v>
+        <v>30.6162079206879</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>11.98238326691308</v>
+        <v>-0.5441313046231713</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>12.06147628971263</v>
+        <v>35.37827698894063</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>12.08696740799842</v>
+        <v>38.96986776639157</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>12.02726529996615</v>
+        <v>10.64454076226947</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>12.09111347865799</v>
+        <v>51.89300853350331</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>12.11155711755029</v>
+        <v>57.29958161633655</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>12.11391843375745</v>
+        <v>46.12490308881402</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>12.17383000493617</v>
+        <v>56.2601293781148</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>12.20030625555428</v>
+        <v>60.48648161725311</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>12.00905659844768</v>
+        <v>5.560404359992589</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>12.1459167352418</v>
+        <v>41.23869508177713</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>12.18863972125667</v>
+        <v>48.50422764888053</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>12.00182423341448</v>
+        <v>1.541843912359667</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>12.11120158822728</v>
+        <v>29.64199488547737</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>12.14682697661348</v>
+        <v>36.28463957551448</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>11.99205503568226</v>
+        <v>-8.474454977980621</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>12.10568253385236</v>
+        <v>28.95104050421619</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>12.14491115847878</v>
+        <v>38.87267446907759</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>12.05670488223286</v>
+        <v>1.09734289731653</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>12.148434424632</v>
+        <v>47.8864011128665</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>11.97016107407429</v>
+        <v>2.791322722499103</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>12.03209617697622</v>
+        <v>20.66476090750741</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>12.05281110014406</v>
+        <v>29.27079912420611</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>11.96172457628308</v>
+        <v>1.30641359809718</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>12.02528471612407</v>
+        <v>30.72284539395656</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>12.04810579797138</v>
+        <v>38.83355907658108</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>11.99965370829771</v>
+        <v>9.74267655321146</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>12.05093496111959</v>
+        <v>45.34918337325247</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>12.06924935569676</v>
+        <v>54.86424100097927</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>12.06158324532626</v>
+        <v>30.92912131336983</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>12.10889183760164</v>
+        <v>44.00405302474701</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>12.13265193050751</v>
+        <v>52.47019630417198</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>11.97204641809286</v>
+        <v>6.513059868830375</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>12.08243434824398</v>
+        <v>33.17282647627833</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>12.12059713571485</v>
+        <v>48.38641290293408</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>11.97262202387738</v>
+        <v>-0.5289331202017209</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>12.06120982545977</v>
+        <v>23.03031373290111</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>12.09275649229608</v>
+        <v>33.90902172859035</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>11.95459785435612</v>
+        <v>-8.307770409779778</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>12.04634315388376</v>
+        <v>18.66146515519947</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>12.08113353521063</v>
+        <v>32.88281250837566</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>12.0096985629606</v>
+        <v>-3.927111713223454</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>12.08372629014607</v>
+        <v>33.74259999215185</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>12.0940232892803</v>
+        <v>28.23448357818736</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>12.07611738770685</v>
+        <v>16.18682154668307</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>12.15461925226276</v>
+        <v>27.03324184146058</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>12.19640373590759</v>
+        <v>35.19512741743122</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>11.94488992229237</v>
+        <v>-4.203981622062066</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>12.11875159490296</v>
+        <v>14.59600469515325</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>12.18401379426781</v>
+        <v>24.68846573421206</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>11.96691840062585</v>
+        <v>1.863843271063381</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>12.07828198109558</v>
+        <v>15.67518009540812</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>12.11691034354634</v>
+        <v>28.21089649054154</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>11.94364494219411</v>
+        <v>-18.69904923215402</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>12.05988026433727</v>
+        <v>-0.6330077549840283</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>12.10258389705823</v>
+        <v>12.89992982498466</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>12.01631421298859</v>
+        <v>-12.90683968757832</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>12.11014303390137</v>
+        <v>16.16076556924839</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>12.14449855229968</v>
+        <v>32.88570517454875</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>12.14089109326024</v>
+        <v>20.52360233877233</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>12.23497082935964</v>
+        <v>34.69761131563877</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>12.28180735246588</v>
+        <v>49.52270181957019</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>12.00379799851246</v>
+        <v>-11.00293331589092</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>12.20222774955592</v>
+        <v>14.8299339559406</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>12.27409523740109</v>
+        <v>32.00382514671811</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>12.17820320422376</v>
+        <v>57.27071971822691</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>12.18331373519958</v>
+        <v>53.19681511902749</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>12.27434736201915</v>
+        <v>63.27071374479736</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>12.31758569659822</v>
+        <v>68.84075796014136</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>12.04263107644298</v>
+        <v>12.44821555393579</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>12.24063415464477</v>
+        <v>58.22690958281049</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>12.30826894181441</v>
+        <v>63.04376428809784</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>12.04014579114617</v>
+        <v>8.783913097209911</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>12.16632879949617</v>
+        <v>35.11647700099064</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>12.20635383627675</v>
+        <v>41.40215084016204</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>12.03243552571896</v>
+        <v>-5.617862534656645</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>12.16451233176575</v>
+        <v>33.52104054761671</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>12.20869792546087</v>
+        <v>40.92626070058934</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>12.10796149326329</v>
+        <v>6.418389000570308</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>12.21463072382838</v>
+        <v>54.25333256671104</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>12.25016509805913</v>
+        <v>65.16179949454614</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>12.27509185222565</v>
+        <v>69.89475588862065</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>12.38313852094222</v>
+        <v>78.59827713345496</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>12.43166124215534</v>
+        <v>86.86339971940725</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>12.12814095836747</v>
+        <v>16.90773275695076</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>12.35302015347302</v>
+        <v>69.99808600029243</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>12.42753720406913</v>
+        <v>77.23055962048957</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>12.17997520940335</v>
+        <v>59.28816028593703</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>12.18677856924869</v>
+        <v>46.67724971406966</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>12.27666904069907</v>
+        <v>56.08647527904886</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>12.31899988712016</v>
+        <v>66.58653775242095</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>12.04994002045601</v>
+        <v>1.61594788486957</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>12.24472952815058</v>
+        <v>52.36558286653097</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>12.31072728392314</v>
+        <v>61.82645466878151</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>12.04566122919952</v>
+        <v>0.8216920325511694</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>12.1696593938028</v>
+        <v>31.04173823675705</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>12.20869459144349</v>
+        <v>39.11574693155458</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>12.04208138826181</v>
+        <v>-10.6361245839041</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>12.17196543100845</v>
+        <v>33.69551961100438</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>12.21505444939451</v>
+        <v>43.71028475400264</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>12.11511898316032</v>
+        <v>2.001400395402506</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>12.22002826205478</v>
+        <v>54.36625958515429</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>12.25468178984428</v>
+        <v>67.48826649632201</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>12.2818775780664</v>
+        <v>66.19271134844999</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>12.38835727402282</v>
+        <v>75.55146107469091</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>12.43581696683785</v>
+        <v>86.92162097107504</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>12.13893814449816</v>
+        <v>7.488597074514551</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>12.35994612439175</v>
+        <v>68.48386977359371</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>12.43261457976234</v>
+        <v>78.65706111448628</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>12.11171041877124</v>
+        <v>49.15783559933708</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>12.10289923511195</v>
+        <v>24.30022496448806</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>12.17457238080542</v>
+        <v>38.71588525309234</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>12.21212641681632</v>
+        <v>54.07619595188221</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>11.98602411912461</v>
+        <v>-2.837981934640418</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>12.14376005459331</v>
+        <v>33.96721310719668</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>12.20216715346936</v>
+        <v>51.0384432403371</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>11.9988275074386</v>
+        <v>-0.537612084318674</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>12.09968543877485</v>
+        <v>25.77008346618136</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>12.13423206788764</v>
+        <v>40.68563047731531</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>11.98476752746203</v>
+        <v>-9.236225631125542</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>12.09015854408423</v>
+        <v>25.18232275133083</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>12.12834391747875</v>
+        <v>42.38254460941244</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>12.04761691649723</v>
+        <v>-0.8789023419555448</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>12.13270649478207</v>
+        <v>42.89839635523499</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>12.16342871971455</v>
+        <v>62.84560343488716</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>12.16894939089802</v>
+        <v>42.20432527865001</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>12.25456620174255</v>
+        <v>62.1794626859156</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>12.29660760516211</v>
+        <v>81.80048988929676</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>12.04683790331804</v>
+        <v>0.6668145548359732</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>12.22657684028839</v>
+        <v>49.40658271900109</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>12.2908412708438</v>
+        <v>70.84027960146418</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/additive/ranking_test4/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/additive/ranking_test4/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6.236378312838255</v>
+        <v>6.236378312837306</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>9.067829379018661</v>
+        <v>9.067829379018836</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>16.20831988284581</v>
+        <v>16.20831988284467</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-3.778806423418054</v>
+        <v>-3.778806423417322</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8.081086223954596</v>
+        <v>8.081086223953591</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>13.73248789684648</v>
+        <v>13.73248789684476</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-1.511765499972867</v>
+        <v>-1.511765499972256</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>17.5224760420936</v>
+        <v>17.52247604209051</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>24.37176262601437</v>
+        <v>24.37176262601309</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>9.751380837400227</v>
+        <v>9.751380837399019</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>13.72515187050993</v>
+        <v>13.72515187050681</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>19.74430148019192</v>
+        <v>19.74430148019136</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3.49491084056951</v>
+        <v>3.494910840573148</v>
       </c>
     </row>
     <row r="15">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>17.31059312560209</v>
+        <v>17.31059312560017</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>7.772817963887803</v>
+        <v>7.772817963886105</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>17.42744032037209</v>
+        <v>17.4274403203705</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>25.01045411207455</v>
+        <v>25.01045411207291</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-7.502135734784453</v>
+        <v>-7.502135734784872</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3.175782276288992</v>
+        <v>3.175782276288032</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>12.08220212937078</v>
+        <v>12.0822021293703</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-9.233366519110518</v>
+        <v>-9.233366519107186</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>13.07526352906947</v>
+        <v>13.07526352906863</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>8.078575545000113</v>
+        <v>8.078575544998227</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>18.23663067651423</v>
+        <v>18.23663067651522</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>21.7676396171953</v>
+        <v>21.76763961719361</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-2.939066520004285</v>
+        <v>-2.939066520009277</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>22.62797575272424</v>
+        <v>22.62797575271848</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>25.03892134794004</v>
+        <v>25.03892134793904</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>3.764246256633648</v>
+        <v>3.764246256637158</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>35.06423471933804</v>
+        <v>35.06423471933891</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>38.875461838595</v>
+        <v>38.87546183859527</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>35.50676705405694</v>
+        <v>35.50676705405886</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>38.27212407712226</v>
+        <v>38.27212407712248</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>41.66101144461881</v>
+        <v>41.66101144461923</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>11.13605250710437</v>
+        <v>11.13605250710382</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>28.75070402745867</v>
+        <v>28.75070402746004</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>37.07483381705397</v>
+        <v>37.07483381705499</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>7.322128889583787</v>
+        <v>7.322128889582189</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>27.75923197531399</v>
+        <v>27.7592319753141</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>31.80179263793235</v>
+        <v>31.80179263793365</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-3.763561317875258</v>
+        <v>-3.763561317878057</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>25.70746545624871</v>
+        <v>25.70746545624708</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>31.9024178792603</v>
+        <v>31.90241787925963</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>39.82079793440749</v>
+        <v>39.82079793440643</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.04210679026273922</v>
+        <v>0.04210679026390451</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>12.30530970437593</v>
+        <v>12.30530970437507</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>17.381989827684</v>
+        <v>17.38198982768259</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-7.148128113751152</v>
+        <v>-7.148128113755309</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>21.33570835234485</v>
+        <v>21.33570835234256</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>25.96950763830062</v>
+        <v>25.96950763829881</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.9726357254191527</v>
+        <v>0.9726357254181579</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>34.82903987246162</v>
+        <v>34.82903987246289</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>40.60662916384125</v>
+        <v>40.60662916384172</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>31.56594784743667</v>
+        <v>31.56594784743633</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>34.68186419211143</v>
+        <v>34.68186419211294</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>41.12537335525518</v>
+        <v>41.12537335525597</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1.416005739806138</v>
+        <v>1.4160057398067</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>24.05743730569066</v>
+        <v>24.05743730569213</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>34.84351960808999</v>
+        <v>34.84351960809019</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1.278634935528011</v>
+        <v>1.278634935528828</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>24.50341968769792</v>
+        <v>24.50341968770087</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>30.87045190991398</v>
+        <v>30.87045190991544</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-8.007207048864856</v>
+        <v>-8.007207048864885</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>25.37675896426778</v>
+        <v>25.37675896426929</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>34.88226800362685</v>
+        <v>34.8822680036253</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>-2.266917706260443</v>
+        <v>-2.266917706261388</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>40.30196816545308</v>
+        <v>40.30196816545347</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>-2.110710117842302</v>
+        <v>-2.110710117842789</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>8.356433394641144</v>
+        <v>8.356433394643396</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>17.65814667526228</v>
+        <v>17.65814667526283</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>-2.426147955038608</v>
+        <v>-2.426147955042033</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>19.85266013036771</v>
+        <v>19.85266013036676</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>28.92095760051753</v>
+        <v>28.92095760051833</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>2.558693454700013</v>
+        <v>2.558693454700446</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>30.99314724040515</v>
+        <v>30.99314724040643</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>40.85901848776784</v>
+        <v>40.85901848777267</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>18.15759068226054</v>
+        <v>18.15759068225676</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>25.80242244542292</v>
+        <v>25.80242244542289</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>36.46996484112616</v>
+        <v>36.46996484112547</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>3.85657413638139</v>
+        <v>3.856574136379308</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>17.77982324903078</v>
+        <v>17.77982324903185</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>36.55912006145223</v>
+        <v>36.55912006145179</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>1.721626475510874</v>
+        <v>1.721626475510043</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>21.36221477708605</v>
+        <v>21.3622147770856</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>32.32562965183513</v>
+        <v>32.32562965183536</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>-3.870324760036695</v>
+        <v>-3.870324760038955</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>20.07929203522978</v>
+        <v>20.07929203523154</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>34.12562428849027</v>
+        <v>34.12562428848921</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>-2.90327909205039</v>
+        <v>-2.90327909205304</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>31.4199554768144</v>
+        <v>31.41995547681221</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>23.08535447050556</v>
+        <v>23.08535447050409</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>12.29825006529961</v>
+        <v>12.29825006529995</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>20.45062365544488</v>
+        <v>20.4506236554427</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>32.53222107083176</v>
+        <v>32.53222107083064</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>-3.172404090125518</v>
+        <v>-3.172404090124694</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>9.353136702494169</v>
+        <v>9.35313670249225</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>20.57314606792698</v>
+        <v>20.57314606792461</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>5.59883811991083</v>
+        <v>5.598838119908002</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>13.84661814874287</v>
+        <v>13.84661814874277</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>26.91230218774832</v>
+        <v>26.91230218774859</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>-11.00082043004773</v>
+        <v>-11.00082043005148</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>2.505084240563399</v>
+        <v>2.505084240562219</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>16.22090150770835</v>
+        <v>16.22090150770862</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>-9.952954133152595</v>
+        <v>-9.952954133155139</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>14.50419875562621</v>
+        <v>14.50419875562395</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>30.60995877643007</v>
+        <v>30.6099587764276</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>21.08275642690436</v>
+        <v>21.082756426902</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>34.16023461909513</v>
+        <v>34.16023461909625</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>49.72381623445757</v>
+        <v>49.72381623445897</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>-5.148142402560289</v>
+        <v>-5.148142402560062</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>13.12762651312712</v>
+        <v>13.12762651312729</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>31.35312798924459</v>
+        <v>31.35312798924578</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>47.18808593244337</v>
+        <v>47.18808593244613</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>45.28088024344829</v>
+        <v>45.28088024344574</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>50.45015402103477</v>
+        <v>50.45015402103169</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>59.72947216187948</v>
+        <v>59.72947216187864</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>10.34000468739773</v>
+        <v>10.34000468739855</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>47.96328178344751</v>
+        <v>47.96328178344815</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>53.49417228848043</v>
+        <v>53.49417228848023</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>12.50167441013532</v>
+        <v>12.50167441013297</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>32.24854951286893</v>
+        <v>32.24854951286673</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>39.33970190281367</v>
+        <v>39.33970190281583</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>-0.1749162146254335</v>
+        <v>-0.174916214628233</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>33.30576611033272</v>
+        <v>33.30576611033258</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>41.37226851829398</v>
+        <v>41.37226851829525</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>7.172776201744561</v>
+        <v>7.172776201743581</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>49.44293866023436</v>
+        <v>49.44293866023339</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>60.13986649295214</v>
+        <v>60.13986649295275</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>68.33086128235291</v>
+        <v>68.33086128235098</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>73.61196362249839</v>
+        <v>73.61196362249783</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>83.62263277878995</v>
+        <v>83.62263277878952</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>21.0455984673474</v>
+        <v>21.04559846734673</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>64.926863654779</v>
+        <v>64.92686365477911</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>74.01103145705753</v>
+        <v>74.01103145705571</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>50.57103469849864</v>
+        <v>50.57103469849721</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>39.6459581309654</v>
+        <v>39.64595813096374</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>45.00714071373458</v>
+        <v>45.00714071373298</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>58.58031802281322</v>
+        <v>58.58031802281111</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>0.3949733295283053</v>
+        <v>0.3949733295260458</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>44.33947926523486</v>
+        <v>44.33947926523103</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>5.686625294553942</v>
+        <v>5.686625294552066</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>30.09765529948412</v>
+        <v>30.09765529948505</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>38.42150863966033</v>
+        <v>38.42150863965895</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>-5.028778032561597</v>
+        <v>-5.028778032561128</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>34.58040291098717</v>
+        <v>34.58040291098777</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>44.6457737849824</v>
+        <v>44.64577378498371</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>3.647485776973404</v>
+        <v>3.647485776970989</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>51.28252880674924</v>
+        <v>51.2825288067498</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>63.65121803328923</v>
+        <v>63.65121803329053</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>65.18652676401507</v>
+        <v>65.18652676401416</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>71.81316360535365</v>
+        <v>71.81316360535337</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>84.42955726763034</v>
+        <v>84.42955726762855</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>12.20311198493369</v>
+        <v>12.20311198493169</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>65.17950954039901</v>
+        <v>65.17950954039938</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>76.49391725932784</v>
+        <v>76.49391725932884</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>45.95128309786173</v>
+        <v>45.95128309786155</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>21.60614029570673</v>
+        <v>21.60614029570515</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>34.09303834286493</v>
+        <v>34.09303834285941</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>52.8666823661265</v>
+        <v>52.86668236612854</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>-0.574186455099003</v>
+        <v>-0.5741864550997278</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>30.8464623954404</v>
+        <v>30.84646239544045</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>48.25917538115937</v>
+        <v>48.25917538116044</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>5.638813108873968</v>
+        <v>5.638813108870558</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>26.75828840283171</v>
+        <v>26.75828840282995</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>41.6235334811536</v>
+        <v>41.62353348115382</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>-0.7146994744113826</v>
+        <v>-0.7146994744117094</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>29.58954319899781</v>
+        <v>29.58954319899709</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>46.38151599302538</v>
+        <v>46.38151599302431</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>3.665743525001723</v>
+        <v>3.665743524998682</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>43.23393231154457</v>
+        <v>43.23393231154245</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>62.00729440178147</v>
+        <v>62.00729440177859</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>43.21873878229403</v>
+        <v>43.21873878229267</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>62.54835973696741</v>
+        <v>62.54835973696758</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>82.50170587706211</v>
+        <v>82.50170587706347</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>7.080056712443813</v>
+        <v>7.080056712439365</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>48.69462242078946</v>
+        <v>48.69462242078733</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>70.54666477530532</v>
+        <v>70.5466647753027</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>29.35618272651489</v>
+        <v>29.35618272651566</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>50.21113136379329</v>
+        <v>50.2111313637938</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>56.9846389817536</v>
+        <v>56.98463898175406</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>17.62428646534033</v>
+        <v>17.62428646533998</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>51.05151540233442</v>
+        <v>51.05151540233415</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>55.42543305017331</v>
+        <v>55.42543305017401</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>32.70805917399591</v>
+        <v>32.70805917399306</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>71.45046197806917</v>
+        <v>71.45046197806764</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>77.29679537287137</v>
+        <v>77.29679537287063</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>52.29118943736644</v>
+        <v>52.2911894373668</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>70.92228571200759</v>
+        <v>70.92228571200945</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>74.05593972031011</v>
+        <v>74.05593972031426</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>22.2699037664591</v>
+        <v>22.26990376645798</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>48.78739129623017</v>
+        <v>48.78739129623271</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>60.8570611959868</v>
+        <v>60.85706119598842</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>23.18060779601013</v>
+        <v>23.18060779601041</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>51.13179455776029</v>
+        <v>51.13179455776223</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>55.98212191292235</v>
+        <v>55.98212191292269</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>0.1545544178583285</v>
+        <v>0.1545544178580727</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>33.17051902701621</v>
+        <v>33.17051902701725</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>38.79212384770261</v>
+        <v>38.79212384770177</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>14.04409246713116</v>
+        <v>14.04409246713124</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>56.56537900240983</v>
+        <v>56.565379002411</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>30.15746426449878</v>
+        <v>30.15746426449798</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>57.27670123576841</v>
+        <v>57.27670123576788</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>60.20077853450131</v>
+        <v>60.20077853450406</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>20.38428235863203</v>
+        <v>20.38428235863294</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>66.06462327299784</v>
+        <v>66.06462327299654</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>66.53513444884265</v>
+        <v>66.53513444884588</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>39.82873702424151</v>
+        <v>39.82873702424492</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>89.49234686679208</v>
+        <v>89.49234686679279</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>91.81060212568286</v>
+        <v>91.81060212568451</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>79.12016247148162</v>
+        <v>79.12016247148142</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>96.93870397538467</v>
+        <v>96.93870397538709</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>97.42914654243191</v>
+        <v>97.42914654243052</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>31.80927397844612</v>
+        <v>31.80927397844356</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>74.70618430809576</v>
+        <v>74.70618430809787</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>79.89940688230372</v>
+        <v>79.89940688230396</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>22.75950056284667</v>
+        <v>22.75950056284846</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>60.35658074786955</v>
+        <v>60.35658074787036</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>61.70979440443492</v>
+        <v>61.70979440443556</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>5.784525109385811</v>
+        <v>5.784525109385434</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>55.91596501431223</v>
+        <v>55.91596501431525</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>58.52511861660003</v>
+        <v>58.52511861660145</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>26.69664246550064</v>
+        <v>26.69664246550102</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>84.52660039461375</v>
+        <v>84.52660039461557</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>19.62631772862188</v>
+        <v>19.62631772862093</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>47.9219321528354</v>
+        <v>47.92193215283634</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>52.22618980036714</v>
+        <v>52.22618980036725</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>14.72911372007503</v>
+        <v>14.72911372007455</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>62.19998906479179</v>
+        <v>62.19998906479069</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>64.58045089542851</v>
+        <v>64.58045089542675</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>34.70951727533084</v>
+        <v>34.70951727533287</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>85.90439216686576</v>
+        <v>85.90439216686772</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>89.94039702993456</v>
+        <v>89.94039702993103</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>73.27923046172808</v>
+        <v>73.27923046173044</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>90.72811913181565</v>
+        <v>90.72811913181479</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>93.97787172344988</v>
+        <v>93.97787172345082</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>20.4735443558017</v>
+        <v>20.47354435579806</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>66.90606509900425</v>
+        <v>66.90606509900624</v>
       </c>
     </row>
     <row r="240">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>15.49766247510871</v>
+        <v>15.49766247510752</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>54.89099336985273</v>
+        <v>54.89099336985631</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>58.4821347008016</v>
+        <v>58.48213470080262</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>1.630755062035924</v>
+        <v>1.630755062035981</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>54.44293283824152</v>
+        <v>54.44293283824249</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>60.1207430892155</v>
+        <v>60.12074308921601</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>22.9414069204834</v>
+        <v>22.94140692048175</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>83.06709432944993</v>
+        <v>83.0670943294501</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>18.47711389693492</v>
+        <v>18.47711389693639</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>46.45376921378493</v>
+        <v>46.45376921378588</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>55.1180557214392</v>
+        <v>55.11805572144051</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>17.52484564548963</v>
+        <v>17.52484564549287</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>60.77513120435032</v>
+        <v>60.77513120435248</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>67.97982045291371</v>
+        <v>67.97982045291144</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>34.4199828914189</v>
+        <v>34.41998289142018</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>82.00405797889559</v>
+        <v>82.00405797889411</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>90.3981409689919</v>
+        <v>90.39814096899133</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>59.12343020548103</v>
+        <v>59.12343020548114</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>81.02890435238059</v>
+        <v>81.02890435238167</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>88.12535535572786</v>
+        <v>88.12535535572692</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>20.56673750462759</v>
+        <v>20.56673750462728</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>61.01741583692297</v>
+        <v>61.01741583692004</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>76.38207030677745</v>
+        <v>76.38207030677816</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>14.52442161045587</v>
+        <v>14.52442161045417</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>51.79250711067944</v>
+        <v>51.79250711067925</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>59.67672884718452</v>
+        <v>59.67672884718609</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>2.53727020406145</v>
+        <v>2.537270204062125</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>48.01969725228832</v>
+        <v>48.01969725229014</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>58.10210105949334</v>
+        <v>58.10210105949248</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>18.26603590458466</v>
+        <v>18.26603590458542</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>72.052414073259</v>
+        <v>72.05241407325948</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>63.77401714315564</v>
+        <v>63.77401714315693</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>47.37073712609705</v>
+        <v>47.3707371260974</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>71.13672563346825</v>
+        <v>71.13672563346654</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>74.31334112384297</v>
+        <v>74.31334112384432</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>17.15574249378698</v>
+        <v>17.15574249378543</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>57.18416523983159</v>
+        <v>57.18416523983353</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>64.65870369357336</v>
+        <v>64.65870369357367</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>12.98829688020965</v>
+        <v>12.9882968802086</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>41.01827441983876</v>
+        <v>41.01827441983845</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>47.59371601249701</v>
+        <v>47.59371601249713</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>-9.774003466680831</v>
+        <v>-9.774003466682053</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>27.16932783779489</v>
+        <v>27.16932783779554</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>33.12130378851634</v>
+        <v>33.12130378851531</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>5.597673203386158</v>
+        <v>5.597673203383543</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>51.12360626240999</v>
+        <v>51.12360626240857</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>60.52790503945759</v>
+        <v>60.52790503945576</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>45.5739446765858</v>
+        <v>45.57394467658518</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>71.79303810654471</v>
+        <v>71.79303810654568</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>75.45339663614749</v>
+        <v>75.45339663614891</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>4.865326242677348</v>
+        <v>4.865326242675756</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>53.00836614969928</v>
+        <v>53.00836614970184</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>61.55545637542924</v>
+        <v>61.55545637542799</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>88.91290950241353</v>
+        <v>88.91290950241319</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>82.62505915809477</v>
+        <v>82.62505915809336</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>103.6670297497835</v>
+        <v>103.6670297497832</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>104.4265713108523</v>
+        <v>104.4265713108563</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>33.95799224970325</v>
+        <v>33.95799224970228</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>96.87495094584358</v>
+        <v>96.87495094584409</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>98.46972575733849</v>
+        <v>98.46972575733426</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>16.09564382169028</v>
+        <v>16.09564382169055</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>54.22213207592453</v>
+        <v>54.2221320759236</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>54.03477151781512</v>
+        <v>54.03477151781441</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>-0.678051524351126</v>
+        <v>-0.6780515243496055</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>54.27307070527261</v>
+        <v>54.27307070527047</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>53.38618317355755</v>
+        <v>53.38618317355746</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>20.52130959132455</v>
+        <v>20.52130959132447</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>82.07864098502856</v>
+        <v>82.07864098502731</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>85.06375877148885</v>
+        <v>85.06375877148896</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>88.27491054530492</v>
+        <v>88.27491054530606</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>107.0988138300009</v>
+        <v>107.0988138300027</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>104.2501082884638</v>
+        <v>104.2501082884647</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>28.67086439998948</v>
+        <v>28.67086439998856</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>99.8746890227246</v>
+        <v>99.87468902272451</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>97.78188542251294</v>
+        <v>97.78188542251297</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>90.172083568386</v>
+        <v>90.17208356838788</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>76.49365901131111</v>
+        <v>76.49365901131371</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>96.84530057094105</v>
+        <v>96.84530057094349</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>101.6860323923373</v>
+        <v>101.6860323923382</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>23.46707620224849</v>
+        <v>23.46707620224719</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>91.10077622778303</v>
+        <v>91.10077622778329</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>96.20798272352309</v>
+        <v>96.20798272352329</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>7.880769291631971</v>
+        <v>7.880769291632582</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>49.70865927674706</v>
+        <v>49.7086592767474</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>50.50372316000399</v>
+        <v>50.50372316000553</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>-4.921409666958958</v>
+        <v>-4.921409666957992</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>54.96099305110871</v>
+        <v>54.96099305111105</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>55.66538102684629</v>
+        <v>55.66538102684693</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>16.61744682432252</v>
+        <v>16.61744682432353</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>82.46221044930243</v>
+        <v>82.46221044930351</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>86.78186476476006</v>
+        <v>86.78186476475955</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>85.03593484861841</v>
+        <v>85.03593484861949</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>104.4125327432517</v>
+        <v>104.4125327432529</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>103.7459403046874</v>
+        <v>103.745940304687</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>19.77851304861664</v>
+        <v>19.77851304861556</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>98.51325520543523</v>
+        <v>98.51325520543352</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>98.06324946410192</v>
+        <v>98.06324946410146</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>83.2346030409455</v>
+        <v>83.23460304094493</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>55.49042571654119</v>
+        <v>55.49042571654222</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>82.89549229800625</v>
+        <v>82.89549229800524</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>91.81383357386932</v>
+        <v>91.81383357386875</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>18.04381076921947</v>
+        <v>18.04381076921968</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>75.90921005770851</v>
+        <v>75.90921005771075</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>88.58732336150339</v>
+        <v>88.58732336150311</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>9.767808338509745</v>
+        <v>9.767808338509504</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>50.18538585064374</v>
+        <v>50.18538585064601</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>57.80698344468341</v>
+        <v>57.8069834446827</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>-0.2400686818887365</v>
+        <v>-0.2400686818885944</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>52.91841346114749</v>
+        <v>52.91841346114739</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>60.82324184786225</v>
+        <v>60.82324184786124</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>17.45535011085152</v>
+        <v>17.45535011085094</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>77.54372154345869</v>
+        <v>77.54372154345884</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>88.66674734474853</v>
+        <v>88.66674734474611</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>66.79729266259807</v>
+        <v>66.79729266259858</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>98.79043112651044</v>
+        <v>98.79043112651055</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>105.4447591128526</v>
+        <v>105.4447591128522</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>15.86715210633916</v>
+        <v>15.86715210633756</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>86.60284724392241</v>
+        <v>86.60284724392253</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>97.2274865742344</v>
+        <v>97.22748657423554</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>7.082081681862824</v>
+        <v>7.082081681862363</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>4.37038018129812</v>
+        <v>4.370380181297108</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>9.666487297004434</v>
+        <v>9.666487297002718</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>-9.076073870521014</v>
+        <v>-9.07607387052245</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>-4.315165246571411</v>
+        <v>-4.315165246572221</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-0.6309897696667406</v>
+        <v>-0.6309897696665274</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>-8.518417516990311</v>
+        <v>-8.518417516987618</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>4.45876516508595</v>
+        <v>4.458765165084351</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>9.71233536206249</v>
+        <v>9.712335362064813</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>3.803123913743654</v>
+        <v>3.803123913743988</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>5.732961418811406</v>
+        <v>5.732961418810092</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>9.006876765036282</v>
+        <v>9.006876765038314</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>5.573947386544383</v>
+        <v>5.573947386545491</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>-2.82966998650695</v>
+        <v>-2.8296699865055</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>9.243757434464548</v>
+        <v>9.243757434465074</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>10.86768633363863</v>
+        <v>10.86768633363914</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>16.89343136248586</v>
+        <v>16.89343136248405</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>24.97590532625204</v>
+        <v>24.97590532625405</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>-8.218738039957223</v>
+        <v>-8.218738039959945</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>-2.912671032430829</v>
+        <v>-2.912671032434346</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>6.563149764491179</v>
+        <v>6.563149764490099</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>-11.0485524484649</v>
+        <v>-11.04855244846684</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>6.800368367035688</v>
+        <v>6.80036836703777</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>6.334078296352224</v>
+        <v>6.334078296353056</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>10.88577734526715</v>
+        <v>10.88577734526859</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>13.71377594766453</v>
+        <v>13.71377594766368</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>-9.395642104965809</v>
+        <v>-9.395642104969305</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>9.156510118528949</v>
+        <v>9.156510118528736</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>10.88496348354858</v>
+        <v>10.88496348355064</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>-4.986218730886044</v>
+        <v>-4.986218730887153</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>20.32486777866763</v>
+        <v>20.32486777866688</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>23.68425474161298</v>
+        <v>23.68425474161369</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>27.50699822490513</v>
+        <v>27.50699822490264</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>28.70622403963356</v>
+        <v>28.7062240396319</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>30.5472542585502</v>
+        <v>30.54725425854888</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>10.80421448610218</v>
+        <v>10.80421448609795</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>20.87371636642052</v>
+        <v>20.87371636642236</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>28.21882084594576</v>
+        <v>28.21882084594573</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>9.229473338910822</v>
+        <v>9.229473338913174</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>26.49428304333682</v>
+        <v>26.49428304333897</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>32.28915201650896</v>
+        <v>32.28915201650785</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>-4.594549931880742</v>
+        <v>-4.594549931881865</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>20.189653111303</v>
+        <v>20.18965311130403</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>28.38741633833867</v>
+        <v>28.38741633833877</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>-1.509285443770118</v>
+        <v>-1.509285443764895</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>33.79508189781338</v>
+        <v>33.79508189781481</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-2.697193885237709</v>
+        <v>-2.69719388523697</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>3.774764219151237</v>
+        <v>3.774764219151546</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>8.61330125766316</v>
+        <v>8.613301257665508</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-14.30323618679761</v>
+        <v>-14.30323618680067</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>6.964221146538453</v>
+        <v>6.964221146539405</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>11.45981692836516</v>
+        <v>11.45981692836515</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>-8.539397437188612</v>
+        <v>-8.539397437193294</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>19.1500170958363</v>
+        <v>19.15001709583279</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>24.95989252739121</v>
+        <v>24.9598925273905</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>22.65892475165345</v>
+        <v>22.65892475165101</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>23.95734491446574</v>
+        <v>23.95734491446753</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>29.41715168090201</v>
+        <v>29.41715168090131</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>-0.1300984541528578</v>
+        <v>-0.1300984541547123</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>14.6897271503689</v>
+        <v>14.68972715036946</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>25.16875912659349</v>
+        <v>25.16875912659606</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>2.201169489707119</v>
+        <v>2.201169489705123</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>22.06546991086119</v>
+        <v>22.065469910859</v>
       </c>
     </row>
     <row r="423">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>-9.63117605886189</v>
+        <v>-9.631176058862373</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>18.86271735662925</v>
+        <v>18.86271735662972</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>31.02460230848422</v>
+        <v>31.0246023084875</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>-5.298698873499802</v>
+        <v>-5.298698873500079</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>33.24122003017523</v>
+        <v>33.24122003017452</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>-4.087934603700141</v>
+        <v>-4.087934603701743</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>0.5757257455675884</v>
+        <v>0.5757257455698515</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>8.575889991870362</v>
+        <v>8.575889991871573</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>-10.31188011656493</v>
+        <v>-10.31188011656299</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>4.599337085430172</v>
+        <v>4.599337085431614</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>12.34295262120531</v>
+        <v>12.34295262120428</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>-7.304981179425823</v>
+        <v>-7.304981179425283</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>14.83777527449724</v>
+        <v>14.83777527449696</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>23.68374588625404</v>
+        <v>23.68374588625506</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>9.396882210678648</v>
+        <v>9.396882210675749</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>14.70573857543408</v>
+        <v>14.70573857543626</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>23.27278419866925</v>
+        <v>23.27278419867094</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>3.077085299329454</v>
+        <v>3.077085299326448</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>9.081678232957202</v>
+        <v>9.081678232953998</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>26.10535134921189</v>
+        <v>26.10535134921445</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>2.397288450202431</v>
+        <v>2.397288450201977</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>18.26919410201762</v>
+        <v>18.26919410201847</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>30.46095287218751</v>
+        <v>30.46095287218882</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>-6.666720466831769</v>
+        <v>-6.666720466831514</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>11.77650410761371</v>
+        <v>11.77650410761533</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>27.25698534186233</v>
+        <v>27.25698534185985</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>-7.030373951062288</v>
+        <v>-7.030373951065322</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>22.72088934064406</v>
+        <v>22.72088934064332</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>17.5143189653575</v>
+        <v>17.51431896535758</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>9.01921975926863</v>
+        <v>9.019219759267209</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>16.42084881967095</v>
+        <v>16.4208488196702</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>27.40005162851203</v>
+        <v>27.40005162851278</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>-1.44746245338488</v>
+        <v>-1.447462453385405</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>5.597346757065438</v>
+        <v>5.597346757064656</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>17.35851974490704</v>
+        <v>17.3585197449089</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>11.26915764207273</v>
+        <v>11.26915764207256</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>17.05347480137333</v>
+        <v>17.0534748013747</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>30.4052794913806</v>
+        <v>30.40527949138086</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>-9.918566375296017</v>
+        <v>-9.918566375298205</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>0.02842022871514871</v>
+        <v>0.02842022871374184</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>13.93484187154898</v>
+        <v>13.93484187154755</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>-7.858340251251043</v>
+        <v>-7.858340251251128</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>13.68325916059711</v>
+        <v>13.68325916059839</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>30.20721447367604</v>
+        <v>30.20721447367576</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>21.59645729852978</v>
+        <v>21.59645729852887</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>34.24135403228971</v>
+        <v>34.2413540322888</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>48.58115367040148</v>
+        <v>48.58115367040094</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>0.3518958310702729</v>
+        <v>0.3518958310684255</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>14.52875212818837</v>
+        <v>14.52875212818858</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>33.10947552013423</v>
+        <v>33.10947552013325</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>43.13409877510764</v>
+        <v>43.13409877510705</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>41.32904077077733</v>
+        <v>41.32904077078139</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>46.6893830199874</v>
+        <v>46.68938301998797</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>55.99124354620054</v>
+        <v>55.99124354619879</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>10.68286769112337</v>
+        <v>10.68286769112421</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>43.70468813119623</v>
+        <v>43.70468813119685</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>51.49290321912693</v>
+        <v>51.49290321912779</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>18.98892291814692</v>
+        <v>18.9889229181457</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>36.71592091551268</v>
+        <v>36.71592091551111</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>45.12560849855147</v>
+        <v>45.12560849854842</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>2.878141831507627</v>
+        <v>2.878141831505054</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>33.50139565952235</v>
+        <v>33.50139565951918</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>42.91833506825048</v>
+        <v>42.91833506824886</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>11.30955167641039</v>
+        <v>11.30955167641212</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>51.28255296090121</v>
+        <v>51.28255296090161</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>63.41587944176175</v>
+        <v>63.41587944176135</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>71.23800196871224</v>
+        <v>71.2380019687136</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>76.870307780443</v>
+        <v>76.87030778044291</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>86.38134801811736</v>
+        <v>86.38134801811722</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>28.45584159096311</v>
+        <v>28.45584159096388</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>69.06714204694418</v>
+        <v>69.06714204694438</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>79.8536201297527</v>
+        <v>79.85362012975352</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>46.06076352901864</v>
+        <v>46.06076352902256</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>34.64175156277411</v>
+        <v>34.64175156277205</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>39.93543587443857</v>
+        <v>39.9354358744403</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>54.18404499389541</v>
+        <v>54.18404499389589</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-0.5844314564492308</v>
+        <v>-0.5844314564485202</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>38.49590551154656</v>
+        <v>38.495905511548</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>50.97375129079046</v>
+        <v>50.97375129079127</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>11.25335887909076</v>
+        <v>11.25335887909031</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>33.57652758200626</v>
+        <v>33.57652758200981</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>43.69458689241154</v>
+        <v>43.69458689241092</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>-2.605768106879744</v>
+        <v>-2.605768106879701</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>34.08204862000062</v>
+        <v>34.08204862000274</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>46.06192324483309</v>
+        <v>46.06192324483436</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>7.099006168083584</v>
+        <v>7.099006168082532</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>52.383224363552</v>
+        <v>52.38322436355075</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>66.68586440476764</v>
+        <v>66.68586440476685</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>67.38424845405348</v>
+        <v>67.38424845405331</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>74.22224656273005</v>
+        <v>74.22224656273107</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>86.86720943626051</v>
+        <v>86.86720943626045</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>18.5600920680027</v>
+        <v>18.56009206800028</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>68.19187704828045</v>
+        <v>68.19187704828164</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>81.89774594747882</v>
+        <v>81.89774594748016</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>38.72799932753067</v>
+        <v>38.72799932753279</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>15.94198233901837</v>
+        <v>15.94198233901975</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>27.47059812928591</v>
+        <v>27.4705981292839</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>45.941771735202</v>
+        <v>45.94177173520026</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>-1.376141955226011</v>
+        <v>-1.37614195522837</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>24.44529031760928</v>
+        <v>24.44529031760923</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>43.45112892456475</v>
+        <v>43.45112892456378</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>10.02443015059782</v>
+        <v>10.0244301505985</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>28.78188650740812</v>
+        <v>28.78188650740859</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>44.53436997683375</v>
+        <v>44.53436997683335</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>-0.4539575670301517</v>
+        <v>-0.4539575670303364</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>26.45603690514064</v>
+        <v>26.45603690513973</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>44.14052914964201</v>
+        <v>44.14052914964211</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>4.864838779700186</v>
+        <v>4.864838779700243</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>41.66848020242578</v>
+        <v>41.66848020242561</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>61.48727619885143</v>
+        <v>61.48727619885091</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>43.05493593237035</v>
+        <v>43.05493593236984</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>61.97560981455977</v>
+        <v>61.97560981455721</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>81.32096554452349</v>
+        <v>81.32096554452463</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>11.5976531897762</v>
+        <v>11.59765318977373</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>49.35643182810528</v>
+        <v>49.35643182810488</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>72.41920969823838</v>
+        <v>72.41920969823994</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>14.64908642391102</v>
+        <v>14.64908642391117</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>14.93163031116739</v>
+        <v>14.93163031116852</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>19.62707345472832</v>
+        <v>19.62707345473045</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>2.611722711197743</v>
+        <v>2.611722711196563</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>10.36674056321405</v>
+        <v>10.36674056321436</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>13.5386667921623</v>
+        <v>13.53866679216511</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>4.567591184431969</v>
+        <v>4.567591184431073</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>19.4513096827801</v>
+        <v>19.45130968278042</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>24.10047333946123</v>
+        <v>24.10047333945944</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>16.5825406864573</v>
+        <v>16.58254068645754</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>20.5598023565267</v>
+        <v>20.5598023565293</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>23.38082995926335</v>
+        <v>23.38082995926292</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>15.39846880837045</v>
+        <v>15.39846880837086</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>11.8720503974704</v>
+        <v>11.87205039747186</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>22.70543487782315</v>
+        <v>22.70543487782454</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>12.59692548734056</v>
+        <v>12.59692548734225</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>19.48256630267459</v>
+        <v>19.48256630267809</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>25.86914237515165</v>
+        <v>25.86914237515361</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>-3.704625720353391</v>
+        <v>-3.704625720352084</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>3.027102487843052</v>
+        <v>3.027102487845383</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>10.60104568388103</v>
+        <v>10.60104568388311</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>-5.325839003301574</v>
+        <v>-5.325839003302292</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>12.63478766398072</v>
+        <v>12.63478766398026</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>15.27498369977432</v>
+        <v>15.27498369977515</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>22.01734803392583</v>
+        <v>22.01734803392812</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>24.38824708944191</v>
+        <v>24.38824708944223</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>3.521204062115203</v>
+        <v>3.521204062115643</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>23.63539328780411</v>
+        <v>23.6353932878037</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>24.90341062387172</v>
+        <v>24.90341062387154</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>9.076557330941171</v>
+        <v>9.07655733094164</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>35.01276871488505</v>
+        <v>35.01276871488442</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>37.8399066149127</v>
+        <v>37.83990661491211</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>39.31769330532254</v>
+        <v>39.31769330532377</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>42.56227303575291</v>
+        <v>42.56227303575189</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>44.03565277685566</v>
+        <v>44.03565277685608</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>21.3226431108063</v>
+        <v>21.32264311080699</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>34.34447698398571</v>
+        <v>34.34447698398618</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>40.74379528378896</v>
+        <v>40.7437952837904</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>11.69399728208579</v>
+        <v>11.69399728208592</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>28.5098460525703</v>
+        <v>28.50984605257283</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>32.76291898508284</v>
+        <v>32.76291898508181</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>-0.1278316271474935</v>
+        <v>-0.1278316271492912</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>23.95985008690723</v>
+        <v>23.95985008691158</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>30.28156173380734</v>
+        <v>30.28156173380858</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>3.772615136102679</v>
+        <v>3.772615136101898</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>37.28825228902595</v>
+        <v>37.28825228902532</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>7.553442357753983</v>
+        <v>7.55344235775253</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>15.94296898931339</v>
+        <v>15.94296898931305</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>20.09005329038567</v>
+        <v>20.09005329038718</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>-0.4957402132096611</v>
+        <v>-0.4957402132087623</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>21.96762879144194</v>
+        <v>21.96762879144477</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>25.6825186409652</v>
+        <v>25.68251864096708</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>6.235799227506703</v>
+        <v>6.235799227507748</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>34.22656469713579</v>
+        <v>34.22656469713757</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>39.22311110803115</v>
+        <v>39.223111108032</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>35.26428747294734</v>
+        <v>35.26428747294488</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>38.51034270079394</v>
+        <v>38.51034270079423</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>43.22053956798091</v>
+        <v>43.22053956798151</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>11.71379737081375</v>
+        <v>11.71379737081207</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>28.89816841316699</v>
+        <v>28.89816841316962</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>38.05345702340692</v>
+        <v>38.05345702340718</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>5.85004620649535</v>
+        <v>5.850046206495655</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>24.92420395974172</v>
+        <v>24.92420395974109</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>31.7449351907859</v>
+        <v>31.74493519078653</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-4.231819043788185</v>
+        <v>-4.231819043789656</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>23.09887546571542</v>
+        <v>23.09887546571635</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>32.96200791244155</v>
+        <v>32.96200791244181</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>0.7508425646780381</v>
+        <v>0.7508425646803261</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>37.09136606519536</v>
+        <v>37.0913660651935</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>5.339156363535025</v>
+        <v>5.339156363535867</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>12.31427618663227</v>
+        <v>12.31427618663408</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>19.39739741339222</v>
+        <v>19.39739741339263</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>2.320764184638129</v>
+        <v>2.320764184638854</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>19.29560393853047</v>
+        <v>19.29560393853425</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>26.05727800495207</v>
+        <v>26.0572780049541</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>6.484684506010076</v>
+        <v>6.484684506008762</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>29.69177433020498</v>
+        <v>29.69177433020593</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>37.52243828961322</v>
+        <v>37.52243828961363</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>22.50962960883042</v>
+        <v>22.5096296088308</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>29.53638552526822</v>
+        <v>29.5363855252659</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>37.08213468314405</v>
+        <v>37.08213468314293</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>13.85971854348275</v>
+        <v>13.8597185434837</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>23.41675957024007</v>
+        <v>23.41675957024012</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>38.61374469025271</v>
+        <v>38.61374469025341</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>5.424051052126615</v>
+        <v>5.424051052129016</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>21.18358973631773</v>
+        <v>21.18358973631993</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>31.20874165573812</v>
+        <v>31.20874165573785</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>-1.845269080089565</v>
+        <v>-1.845269080089075</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>16.74388463750461</v>
+        <v>16.74388463750538</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>29.64684162144457</v>
+        <v>29.6468416214469</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>-1.255619637798702</v>
+        <v>-1.255619637797352</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>27.44715469240689</v>
+        <v>27.44715469240959</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>21.48503375393761</v>
+        <v>21.48503375393776</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>13.50582693417136</v>
+        <v>13.50582693417125</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>21.16136534951531</v>
+        <v>21.16136534951585</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>29.82714422866738</v>
+        <v>29.8271442286682</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>2.764838535473125</v>
+        <v>2.764838535475768</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>11.19417718081107</v>
+        <v>11.19417718080992</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>20.69403729816097</v>
+        <v>20.69403729816127</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>12.03083501075978</v>
+        <v>12.03083501075928</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>18.43649544199118</v>
+        <v>18.43649544199356</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>29.12577780454146</v>
+        <v>29.12577780454079</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>-6.761013543890336</v>
+        <v>-6.761013543888701</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>3.805783414219825</v>
+        <v>3.805783414221736</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>14.87173452219832</v>
+        <v>14.87173452219989</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>-4.185417647805274</v>
+        <v>-4.185417647804321</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>16.78365404366628</v>
+        <v>16.78365404366715</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>30.45683271715404</v>
+        <v>30.45683271715371</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>22.63337872748563</v>
+        <v>22.63337872748591</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>34.40059193386512</v>
+        <v>34.40059193386478</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>45.9175333377248</v>
+        <v>45.91753333772451</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>2.004055371549718</v>
+        <v>2.004055371550471</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>16.54689031372356</v>
+        <v>16.54689031372283</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>31.50280103570312</v>
+        <v>31.50280103570365</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>44.81968773843518</v>
+        <v>44.81968773843554</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>43.2227616664216</v>
+        <v>43.22276166642043</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>48.75280332997553</v>
+        <v>48.7528033299761</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>55.90716668790594</v>
+        <v>55.90716668790967</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>14.20381887009578</v>
+        <v>14.20381887009231</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>45.76980539705293</v>
+        <v>45.76980539705297</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>51.56893929017591</v>
+        <v>51.56893929017436</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>19.02334202864233</v>
+        <v>19.0233420286417</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>35.94999664841038</v>
+        <v>35.94999664841068</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>42.02740566707284</v>
+        <v>42.02740566707356</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>4.499739706298733</v>
+        <v>4.499739706300566</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>33.46230216634687</v>
+        <v>33.46230216634515</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>40.28711848800027</v>
+        <v>40.2871184880005</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>12.8822409930216</v>
+        <v>12.88224099302133</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>50.24968989635602</v>
+        <v>50.24968989635433</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>59.79625783826376</v>
+        <v>59.79625783826517</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>67.21025421926151</v>
+        <v>67.21025421926481</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>72.32307765836637</v>
+        <v>72.32307765836612</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>79.35588240937369</v>
+        <v>79.355882409375</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>27.15065602590651</v>
+        <v>27.15065602590577</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>65.18277154378819</v>
+        <v>65.18277154378683</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>72.85909030959647</v>
+        <v>72.85909030959397</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>47.73441712452474</v>
+        <v>47.73441712452355</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>37.52368612570147</v>
+        <v>37.52368612570283</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>42.87550109030864</v>
+        <v>42.87550109031017</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>54.48684320605367</v>
+        <v>54.48684320605498</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>4.297444183204995</v>
+        <v>4.297444183203304</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>41.20070834208735</v>
+        <v>41.20070834208583</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>51.17750963225999</v>
+        <v>51.17750963226084</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>12.30207067004751</v>
+        <v>12.30207067004913</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>33.30688662673369</v>
+        <v>33.30688662673343</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>40.8849508013022</v>
+        <v>40.88495080130097</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>-0.211033211612353</v>
+        <v>-0.2110332116104345</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>34.14178783385302</v>
+        <v>34.14178783385317</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>43.22638890902537</v>
+        <v>43.22638890902468</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>9.269581446984326</v>
+        <v>9.269581446983217</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>51.35518185852079</v>
+        <v>51.35518185852292</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>62.81351484780686</v>
+        <v>62.81351484780721</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>63.90658131870945</v>
+        <v>63.90658131870897</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>70.00863056115745</v>
+        <v>70.00863056115753</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>79.8344814463226</v>
+        <v>79.83448144632078</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>18.33088209871948</v>
+        <v>18.33088209871888</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>64.40001005384936</v>
+        <v>64.40001005385059</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>74.63549221318857</v>
+        <v>74.63549221318934</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>40.99959974374998</v>
+        <v>40.99959974375206</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>20.23472591307736</v>
+        <v>20.23472591307765</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>31.52071304703539</v>
+        <v>31.52071304703545</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>46.87574329174316</v>
+        <v>46.87574329174589</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>3.192016339878556</v>
+        <v>3.192016339878386</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>28.56783703682802</v>
+        <v>28.56783703682714</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>44.48106227460215</v>
+        <v>44.48106227460161</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>11.00505512649627</v>
+        <v>11.00505512649777</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>29.13289174258195</v>
+        <v>29.13289174258363</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>41.87315912765188</v>
+        <v>41.87315912765119</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>1.920402631696497</v>
+        <v>1.920402631697321</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>27.83009849753763</v>
+        <v>27.83009849753878</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>42.16314331151279</v>
+        <v>42.16314331151249</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>7.401938515013178</v>
+        <v>7.401938515013107</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>42.17407193933636</v>
+        <v>42.17407193933739</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>58.69859902372279</v>
+        <v>58.69859902372261</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>42.2137157941611</v>
+        <v>42.21371579415896</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>59.56913392421105</v>
+        <v>59.56913392420925</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>75.47891559643327</v>
+        <v>75.47891559643031</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>12.25352528839131</v>
+        <v>12.25352528839097</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>48.12269719708745</v>
+        <v>48.12269719708802</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>66.93250756848525</v>
+        <v>66.93250756848329</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>11.61295196177961</v>
+        <v>11.61295196178083</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>22.32524815126859</v>
+        <v>22.32524815126986</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>28.32683177328649</v>
+        <v>28.32683177328815</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>-0.1874320852166065</v>
+        <v>-0.1874320852168978</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>19.34653174185753</v>
+        <v>19.34653174185893</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>23.65859145864166</v>
+        <v>23.65859145864201</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>6.35031923586255</v>
+        <v>6.350319235861477</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>33.04019153528974</v>
+        <v>33.04019153528968</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>39.16582763664688</v>
+        <v>39.1658276366465</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>22.49716115564305</v>
+        <v>22.49716115564443</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>32.27566176189546</v>
+        <v>32.27566176189895</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>35.81355298570926</v>
+        <v>35.81355298570976</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>6.164094523997434</v>
+        <v>6.164094523995452</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>18.66054601109082</v>
+        <v>18.66054601109254</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>29.39774919869633</v>
+        <v>29.39774919869858</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>7.586117782282379</v>
+        <v>7.586117782282699</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>21.82878749217623</v>
+        <v>21.82878749217578</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>28.61027386576916</v>
+        <v>28.61027386577009</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>-10.87686875516158</v>
+        <v>-10.87686875516244</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>3.610305316296319</v>
+        <v>3.610305316296198</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>11.9663180433195</v>
+        <v>11.96631804332036</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>-8.342857618300833</v>
+        <v>-8.34285761830386</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>18.02031729158062</v>
+        <v>18.02031729157992</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>14.40392889398133</v>
+        <v>14.40392889398081</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>33.0461929422847</v>
+        <v>33.04619294228603</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>35.65280234420176</v>
+        <v>35.65280234420302</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>3.484591669118402</v>
+        <v>3.484591669120846</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>37.42440605820263</v>
+        <v>37.42440605820161</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>38.44353287426873</v>
+        <v>38.44353287426849</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>13.9822418571657</v>
+        <v>13.98224185716734</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>53.52042706085619</v>
+        <v>53.5204270608532</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>56.63844389321827</v>
+        <v>56.63844389321788</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>50.51061789452071</v>
+        <v>50.51061789451935</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>60.92964886812256</v>
+        <v>60.92964886812327</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>61.77746437477833</v>
+        <v>61.77746437477605</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>15.59750420219147</v>
+        <v>15.59750420219411</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>47.48776841259838</v>
+        <v>47.48776841259966</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>51.90811354016246</v>
+        <v>51.90811354016017</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>8.335096939633374</v>
+        <v>8.335096939632919</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>34.53108219559343</v>
+        <v>34.53108219559104</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>38.23576695914606</v>
+        <v>38.23576695914493</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>-3.998840049484983</v>
+        <v>-3.998840049485551</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>30.57177308543839</v>
+        <v>30.57177308543905</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>36.52392728912579</v>
+        <v>36.52392728912508</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>5.036601838020005</v>
+        <v>5.03660183801653</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>49.3625373813368</v>
+        <v>49.36253738133381</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>6.158997650046754</v>
+        <v>6.158997650045617</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>26.10808546037952</v>
+        <v>26.1080854603795</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>30.6162079206879</v>
+        <v>30.61620792068734</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>-0.5441313046231713</v>
+        <v>-0.5441313046235123</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>35.37827698894063</v>
+        <v>35.37827698893979</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>38.96986776639157</v>
+        <v>38.96986776639174</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>10.64454076226947</v>
+        <v>10.64454076227066</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>51.89300853350331</v>
+        <v>51.89300853350261</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>57.29958161633655</v>
+        <v>57.29958161633549</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>46.12490308881402</v>
+        <v>46.12490308881208</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>56.2601293781148</v>
+        <v>56.26012937811569</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>60.48648161725311</v>
+        <v>60.48648161725273</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>5.560404359992589</v>
+        <v>5.560404359993129</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>41.23869508177713</v>
+        <v>41.23869508177705</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>48.50422764888053</v>
+        <v>48.50422764888295</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>1.541843912359667</v>
+        <v>1.54184391235858</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>29.64199488547737</v>
+        <v>29.64199488547654</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>36.28463957551448</v>
+        <v>36.28463957551476</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>-8.474454977980621</v>
+        <v>-8.474454977979669</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>28.95104050421619</v>
+        <v>28.95104050421474</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>38.87267446907759</v>
+        <v>38.87267446907916</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>1.09734289731653</v>
+        <v>1.097342897316523</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>47.8864011128665</v>
+        <v>47.88640111286512</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>2.791322722499103</v>
+        <v>2.791322722501334</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>20.66476090750741</v>
+        <v>20.66476090750624</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>29.27079912420611</v>
+        <v>29.27079912420724</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>1.30641359809718</v>
+        <v>1.306413598098672</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>30.72284539395656</v>
+        <v>30.72284539395406</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>38.83355907658108</v>
+        <v>38.8335590765812</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>9.74267655321146</v>
+        <v>9.742676553212732</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>45.34918337325247</v>
+        <v>45.34918337324692</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>54.86424100097927</v>
+        <v>54.86424100097466</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>30.92912131336983</v>
+        <v>30.92912131336758</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>44.00405302474701</v>
+        <v>44.00405302474755</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>52.47019630417198</v>
+        <v>52.47019630417235</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>6.513059868830375</v>
+        <v>6.513059868830446</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>33.17282647627833</v>
+        <v>33.1728264762783</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>48.38641290293408</v>
+        <v>48.38641290293263</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>-0.5289331202017209</v>
+        <v>-0.5289331202023533</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>23.03031373290111</v>
+        <v>23.03031373289782</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>33.90902172859035</v>
+        <v>33.90902172859047</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>-8.307770409779778</v>
+        <v>-8.307770409778414</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>18.66146515519947</v>
+        <v>18.66146515519898</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>32.88281250837566</v>
+        <v>32.88281250837514</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>-3.927111713223454</v>
+        <v>-3.9271117132228</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>33.74259999215185</v>
+        <v>33.74259999215435</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>28.23448357818736</v>
+        <v>28.23448357819009</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>16.18682154668307</v>
+        <v>16.18682154668436</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>27.03324184146058</v>
+        <v>27.03324184145929</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>35.19512741743122</v>
+        <v>35.1951274174319</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>-4.203981622062066</v>
+        <v>-4.203981622063161</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>14.59600469515325</v>
+        <v>14.59600469515199</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>24.68846573421206</v>
+        <v>24.68846573421216</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>1.863843271063381</v>
+        <v>1.863843271064063</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>15.67518009540812</v>
+        <v>15.67518009540854</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>28.21089649054154</v>
+        <v>28.21089649054093</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>-18.69904923215402</v>
+        <v>-18.69904923215433</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>-0.6330077549840283</v>
+        <v>-0.6330077549830193</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>12.89992982498466</v>
+        <v>12.89992982498425</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>-12.90683968757832</v>
+        <v>-12.9068396875788</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>16.16076556924839</v>
+        <v>16.16076556924774</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>32.88570517454875</v>
+        <v>32.88570517455007</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>20.52360233877233</v>
+        <v>20.5236023387727</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>34.69761131563877</v>
+        <v>34.6976113156405</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>49.52270181957019</v>
+        <v>49.52270181957046</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>-11.00293331589092</v>
+        <v>-11.00293331589202</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>14.8299339559406</v>
+        <v>14.82993395594081</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>32.00382514671811</v>
+        <v>32.00382514672003</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>57.27071971822691</v>
+        <v>57.27071971822725</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>53.19681511902749</v>
+        <v>53.1968151190247</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>63.27071374479736</v>
+        <v>63.2707137447974</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>68.84075796014136</v>
+        <v>68.84075796014508</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>12.44821555393579</v>
+        <v>12.4482155539372</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>58.22690958281049</v>
+        <v>58.22690958280933</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>63.04376428809784</v>
+        <v>63.04376428810153</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>8.783913097209911</v>
+        <v>8.78391309720913</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>35.11647700099064</v>
+        <v>35.11647700098767</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>41.40215084016204</v>
+        <v>41.40215084016177</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>-5.617862534656645</v>
+        <v>-5.61786253465683</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>33.52104054761671</v>
+        <v>33.5210405476173</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>40.92626070058934</v>
+        <v>40.92626070059057</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>6.418389000570308</v>
+        <v>6.41838900056991</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>54.25333256671104</v>
+        <v>54.25333256670907</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>65.16179949454614</v>
+        <v>65.16179949454468</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>69.89475588862065</v>
+        <v>69.89475588861953</v>
       </c>
     </row>
     <row r="851">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>86.86339971940725</v>
+        <v>86.86339971940939</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>16.90773275695076</v>
+        <v>16.90773275694891</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>69.99808600029243</v>
+        <v>69.99808600029409</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>77.23055962048957</v>
+        <v>77.23055962049088</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>59.28816028593703</v>
+        <v>59.28816028593755</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>46.67724971406966</v>
+        <v>46.6772497140711</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>56.08647527904886</v>
+        <v>56.08647527904945</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>66.58653775242095</v>
+        <v>66.58653775242411</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>1.61594788486957</v>
+        <v>1.615947884869875</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>52.36558286653097</v>
+        <v>52.36558286653041</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>61.82645466878151</v>
+        <v>61.82645466878002</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>0.8216920325511694</v>
+        <v>0.8216920325518373</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>31.04173823675705</v>
+        <v>31.04173823675913</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>39.11574693155458</v>
+        <v>39.11574693155757</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>-10.6361245839041</v>
+        <v>-10.63612458390381</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>33.69551961100438</v>
+        <v>33.69551961100279</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>43.71028475400264</v>
+        <v>43.71028475400321</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>2.001400395402506</v>
+        <v>2.001400395403472</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>54.36625958515429</v>
+        <v>54.36625958515389</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>67.48826649632201</v>
+        <v>67.48826649632325</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>66.19271134844999</v>
+        <v>66.19271134845043</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>75.55146107469091</v>
+        <v>75.55146107469342</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>86.92162097107504</v>
+        <v>86.92162097107399</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>7.488597074514551</v>
+        <v>7.488597074514097</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>68.48386977359371</v>
+        <v>68.48386977359468</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>78.65706111448628</v>
+        <v>78.65706111448731</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>49.15783559933708</v>
+        <v>49.15783559933806</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>24.30022496448806</v>
+        <v>24.30022496449046</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>38.71588525309234</v>
+        <v>38.71588525309106</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>54.07619595188221</v>
+        <v>54.07619595188101</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>-2.837981934640418</v>
+        <v>-2.837981934640048</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>33.96721310719668</v>
+        <v>33.96721310719656</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>51.0384432403371</v>
+        <v>51.03844324033834</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>-0.537612084318674</v>
+        <v>-0.5376120843178924</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>25.77008346618136</v>
+        <v>25.77008346618126</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>40.68563047731531</v>
+        <v>40.6856304773158</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>-9.236225631125542</v>
+        <v>-9.236225631128271</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>25.18232275133083</v>
+        <v>25.18232275133171</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>42.38254460941244</v>
+        <v>42.38254460941068</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>-0.8789023419555448</v>
+        <v>-0.8789023419558433</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>42.89839635523499</v>
+        <v>42.89839635523565</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>62.84560343488716</v>
+        <v>62.84560343488976</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>42.20432527865001</v>
+        <v>42.20432527864984</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>62.1794626859156</v>
+        <v>62.17946268591619</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>81.80048988929676</v>
+        <v>81.80048988929423</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>0.6668145548359732</v>
+        <v>0.6668145548352342</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>49.40658271900109</v>
+        <v>49.40658271900131</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>70.84027960146418</v>
+        <v>70.84027960146645</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/additive/ranking_test4/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/additive/ranking_test4/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.681</v>
+        <v>0.655</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.962</v>
+        <v>15.535</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.729</v>
+        <v>0.739</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.911</v>
+        <v>13.645</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.978</v>
+        <v>0.984</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.078</v>
+        <v>3.457</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>12.765611972228</v>
+        <v>11.2251641271324</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>10.61206188220351</v>
+        <v>13.25916623067726</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>24.95027221867891</v>
+        <v>24.80719680096297</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4.82758928835446</v>
+        <v>5.167837064086878</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>27.22157468695006</v>
+        <v>25.36196105214842</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>30.0164736301066</v>
+        <v>30.10049058413028</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6.393112208453374</v>
+        <v>8.079334821457138</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>38.29236941400114</v>
+        <v>31.84638551582199</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>39.06204082483551</v>
+        <v>33.7525637240657</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>12.90725493426025</v>
+        <v>14.66756871717067</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>14.59472296453525</v>
+        <v>16.94950142129019</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>14.79452063712008</v>
+        <v>17.25513568818376</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>19.92228548906012</v>
+        <v>15.29756322888241</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>11.43373528162854</v>
+        <v>14.93837310435375</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>33.75667594643376</v>
+        <v>29.35160956207513</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>16.17964040266317</v>
+        <v>13.2278803455363</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>23.28051952592361</v>
+        <v>22.17799007315306</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>35.95903578794075</v>
+        <v>34.25828995989352</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>17.31825128036054</v>
+        <v>16.03985812386253</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>21.2150269149853</v>
+        <v>21.22618454971084</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>22.94274057825594</v>
+        <v>20.86168342423048</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4.100252406300793</v>
+        <v>4.248283189378959</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>19.51571922994652</v>
+        <v>17.84836239486745</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>23.02873447131042</v>
+        <v>18.01720979378012</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>22.96368282516993</v>
+        <v>22.80224067683651</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>26.88610125978667</v>
+        <v>25.51880042522808</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>7.432679773528946</v>
+        <v>5.695242400234822</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>37.53862485675804</v>
+        <v>34.7781244367513</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>34.62519207586632</v>
+        <v>39.15758838382536</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6.204427453370968</v>
+        <v>7.661040862224585</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>38.34836532252251</v>
+        <v>40.24762255265343</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>35.27676081789402</v>
+        <v>39.8903094464023</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>39.742261367515</v>
+        <v>39.12291120694664</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>40.05227021418541</v>
+        <v>42.56634100371147</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>42.07654508187285</v>
+        <v>41.40652485837314</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>27.97280544944069</v>
+        <v>24.27668381875794</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>35.57650933658999</v>
+        <v>32.43506720238687</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>40.36912722407995</v>
+        <v>39.95372397033651</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>21.1506820503171</v>
+        <v>18.52644429437449</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>31.90465954550738</v>
+        <v>28.48457954653102</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>34.62017444394476</v>
+        <v>29.86629024804113</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>16.39684677797568</v>
+        <v>15.74819839059632</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>37.67140864160414</v>
+        <v>36.03721324425344</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>40.59126951275252</v>
+        <v>38.66979396601394</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>47.31762234640789</v>
+        <v>42.59563651262938</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>7.305969982678629</v>
+        <v>8.332263058102892</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>17.15447489699632</v>
+        <v>18.04737614329618</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>22.83671619848639</v>
+        <v>22.77694781435033</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2.542223937766433</v>
+        <v>3.129831002089247</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>36.0131458101859</v>
+        <v>32.8714882375407</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>34.87494420466334</v>
+        <v>36.17514319276661</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>7.296480217772078</v>
+        <v>5.848728637704589</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>43.33046905971064</v>
+        <v>39.8800839137034</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>43.67025937924787</v>
+        <v>42.82039656754056</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>46.14244692897362</v>
+        <v>38.88216722251264</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>44.41369629791529</v>
+        <v>42.13969878726797</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>49.26439574872865</v>
+        <v>45.45483865856104</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>8.984710292281511</v>
+        <v>15.67962953395643</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>22.5658812900793</v>
+        <v>28.06099675925276</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>31.22437109292656</v>
+        <v>35.48810829135347</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>16.75137546180044</v>
+        <v>12.83746322346851</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>31.54171186833992</v>
+        <v>25.12865909613896</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>34.07116405930958</v>
+        <v>28.79670763429812</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>14.02217506952405</v>
+        <v>16.04217934970592</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>29.25841022863366</v>
+        <v>31.51082769695365</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>39.01427385344216</v>
+        <v>40.10999031244516</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>5.176699735454743</v>
+        <v>6.938038871859625</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>41.21836908637611</v>
+        <v>39.60591166441245</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>2.318711248869867</v>
+        <v>2.488382791289279</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>8.294807270664691</v>
+        <v>10.13258031749584</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>20.33408671967012</v>
+        <v>17.93073745339518</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>3.373416301585511</v>
+        <v>3.297547984616806</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>31.0440361259906</v>
+        <v>31.26032436352313</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>38.1470568849286</v>
+        <v>37.54155242833785</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1.854227737353593</v>
+        <v>1.438854210562688</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>39.42516728395981</v>
+        <v>37.79389682509569</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>44.49373330869268</v>
+        <v>40.98604520467627</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>42.0340281834019</v>
+        <v>29.86025885931908</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>42.20993151684</v>
+        <v>32.16304136739461</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>47.23497262119452</v>
+        <v>35.52602834117711</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>5.269502308251663</v>
+        <v>11.26248346177019</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>12.66778795815839</v>
+        <v>19.45749839411786</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>34.1516143058459</v>
+        <v>34.76783855008591</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>7.040775445047831</v>
+        <v>9.292528852680462</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>25.85525440859936</v>
+        <v>23.15655861120479</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>33.88083047323484</v>
+        <v>28.20940523396985</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>17.23922396528719</v>
+        <v>14.71669461870547</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>32.52754524120975</v>
+        <v>31.07144052005671</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>42.12403829666811</v>
+        <v>37.59834394637758</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>2.725439387230583</v>
+        <v>3.484685575259025</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>35.70877697473856</v>
+        <v>34.67419347306596</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>22.88755888544042</v>
+        <v>21.51379488755962</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>22.77748289146803</v>
+        <v>19.35140728521188</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>41.48530266799402</v>
+        <v>40.05896741843902</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>44.73686986656926</v>
+        <v>45.44934818757002</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>10.86343254487503</v>
+        <v>8.372202148338502</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>15.54545534195824</v>
+        <v>14.67950057898621</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>23.68171749419625</v>
+        <v>20.16272487088006</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>11.55041010855374</v>
+        <v>10.30661493733611</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>18.48229836956099</v>
+        <v>17.08467309039832</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>31.45042392462084</v>
+        <v>29.64557444084676</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>16.90848413356727</v>
+        <v>15.97655537321211</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>19.82357253589872</v>
+        <v>20.15665790851281</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>25.91845929831166</v>
+        <v>21.08128301596464</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>3.774094322876966</v>
+        <v>3.881351824065593</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>20.3760220220328</v>
+        <v>18.68819209737728</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>33.37895559636402</v>
+        <v>33.65126775499315</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>21.71154698742172</v>
+        <v>19.90782066132421</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>50.80598504793535</v>
+        <v>49.10889043824496</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>57.55370770224838</v>
+        <v>54.94537096369773</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>6.012835617490033</v>
+        <v>7.254541811442166</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>22.33739959025208</v>
+        <v>18.58867681235095</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>27.80592197764479</v>
+        <v>26.00102907842226</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>54.27858634132252</v>
+        <v>52.41209918056775</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>50.14085949248222</v>
+        <v>47.27108702126453</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>63.52452184391159</v>
+        <v>58.7493494149764</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>66.68090932948016</v>
+        <v>63.1275326350728</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>22.16683352010227</v>
+        <v>20.21586207286084</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>57.65201881831217</v>
+        <v>49.85791747491459</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>54.15383008361992</v>
+        <v>51.52868006821122</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>23.61930976732014</v>
+        <v>21.36038581597138</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>35.79341999124497</v>
+        <v>32.1083634038</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>45.10405966668239</v>
+        <v>41.21357012048595</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>16.58571203013908</v>
+        <v>15.68896559971565</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>41.74115662729517</v>
+        <v>42.94120995147105</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>51.58637561552555</v>
+        <v>49.28109232675715</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>7.862031882650502</v>
+        <v>7.200498407641337</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>57.83621037636748</v>
+        <v>53.96143741964917</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>71.47481054986117</v>
+        <v>69.97640014319987</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>65.55545865700455</v>
+        <v>63.47072457031888</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>81.1642804168183</v>
+        <v>78.06729017930783</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>88.99745880641892</v>
+        <v>85.89892019074446</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>26.5423045114009</v>
+        <v>24.95842728678116</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>73.87731340721191</v>
+        <v>68.57235440308912</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>72.39952137307462</v>
+        <v>70.29915834431762</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>58.10334935900561</v>
+        <v>56.68138620630421</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>37.85156966685157</v>
+        <v>38.19024197579558</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>47.39155763626847</v>
+        <v>44.32797460797902</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>64.27873018295722</v>
+        <v>59.53153748598731</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>14.74498674520767</v>
+        <v>14.50681633971187</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>49.07949222014677</v>
+        <v>43.51063582730801</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>15.37344107740856</v>
+        <v>14.36863152037254</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>29.81962162852194</v>
+        <v>28.23551658367805</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>42.05473535638816</v>
+        <v>40.64828512933092</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>13.92313112726156</v>
+        <v>15.28472995240273</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>37.60224585433365</v>
+        <v>39.13722369401763</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>51.55241093537577</v>
+        <v>51.06400176561991</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>4.64289532857546</v>
+        <v>7.459217277578627</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>53.97415518337898</v>
+        <v>52.20369594391057</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>75.57346215332137</v>
+        <v>74.91538794319223</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>59.50003692210313</v>
+        <v>60.46022283825859</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>71.43044026138779</v>
+        <v>70.56405600843686</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>89.053846922811</v>
+        <v>86.96691539072694</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>15.19110061005812</v>
+        <v>17.5675024333601</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>58.63007829726396</v>
+        <v>60.37551347628291</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>66.14029166961583</v>
+        <v>69.35194909883478</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>51.75012294383873</v>
+        <v>49.25244156197961</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>25.07627593226663</v>
+        <v>22.69450799248103</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>29.87682260563906</v>
+        <v>27.90343850125708</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>44.34234387634425</v>
+        <v>38.31729459840822</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>10.49475258615004</v>
+        <v>9.908513488130168</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>41.4951842196417</v>
+        <v>39.92601897865214</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>46.91179791492899</v>
+        <v>43.37580636783389</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>9.979655746712838</v>
+        <v>11.58719015804538</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>31.53528582569384</v>
+        <v>27.93788889739072</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>48.02214070237134</v>
+        <v>45.00353839182602</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>18.38351482485754</v>
+        <v>16.20076826049011</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>42.06551180387222</v>
+        <v>38.55048974681687</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>59.06425190399706</v>
+        <v>54.07574002829958</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>3.558223691256604</v>
+        <v>4.495025264938697</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>50.3043897721477</v>
+        <v>48.0409895331717</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>76.90295368773923</v>
+        <v>73.37674479751001</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>56.08511375144747</v>
+        <v>51.2046630529137</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>70.35964002889239</v>
+        <v>67.74900245271863</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>92.96416360324889</v>
+        <v>89.02749313765661</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>14.93758940533161</v>
+        <v>13.6970518364072</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>60.34725599717213</v>
+        <v>56.17654125527255</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>74.10086463011849</v>
+        <v>72.02555778439363</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>18.60396676306999</v>
+        <v>18.82819304654819</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>38.66389004881443</v>
+        <v>32.78980728968663</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>53.85357730144284</v>
+        <v>52.82082021222863</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>-2.831722769910911</v>
+        <v>2.961237167465789</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>47.94929154332998</v>
+        <v>39.5407423217509</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>55.51555734209248</v>
+        <v>49.22431925079208</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>11.28944229845385</v>
+        <v>10.95147537693175</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>92.83621049116078</v>
+        <v>79.15677979696146</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>92.69951441487238</v>
+        <v>86.15920097573428</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>44.73464482837424</v>
+        <v>34.28292627219662</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>50.42396740104568</v>
+        <v>38.84114410153946</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>48.0123301197487</v>
+        <v>42.63088594275023</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>24.48141074107973</v>
+        <v>20.62030033929178</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>45.49096377291752</v>
+        <v>35.01543412699543</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>72.85536989587233</v>
+        <v>56.74574937449935</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>19.30065301829548</v>
+        <v>19.9119772824</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>37.04372562152703</v>
+        <v>41.87648517120392</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>41.80381751990254</v>
+        <v>41.83394085579615</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>-5.129414724582173</v>
+        <v>1.588965666178897</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>17.52572723514334</v>
+        <v>20.69213344572636</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>21.17983696687783</v>
+        <v>25.48101435195201</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>0.8217427423779355</v>
+        <v>6.133609468287947</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>41.30253813770356</v>
+        <v>44.70708170708102</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>40.78347726642305</v>
+        <v>28.23203667369836</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>70.32874698764221</v>
+        <v>55.41091730239485</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>69.05878583965742</v>
+        <v>57.43079393203599</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>6.933931775012109</v>
+        <v>5.70200139165442</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>72.04800264952492</v>
+        <v>60.45416815555736</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>67.53522429208999</v>
+        <v>61.97100897406128</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>13.99579470165528</v>
+        <v>9.709100517622485</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>106.3086428233839</v>
+        <v>92.14970723523794</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>94.3377327345535</v>
+        <v>87.05933464107969</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>90.1871739110328</v>
+        <v>77.9599127776787</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>101.2933406449028</v>
+        <v>89.57778547924352</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>94.70242329774989</v>
+        <v>83.80290712594228</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>38.38739626710174</v>
+        <v>25.54736380348946</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>72.2985652292918</v>
+        <v>59.14845861728279</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>80.90980789251746</v>
+        <v>69.74118637285667</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>31.06429163648461</v>
+        <v>26.99619833604579</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>56.19395357794826</v>
+        <v>50.27473053517262</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>53.70275832885609</v>
+        <v>48.40431607680507</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>-0.4296361783817666</v>
+        <v>1.727955195704428</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>43.11989219083085</v>
+        <v>41.94392166616896</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>43.77103342476995</v>
+        <v>44.0258636710617</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>7.997300869170648</v>
+        <v>7.184115538389189</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>73.93142782820667</v>
+        <v>72.66394006514153</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>13.51832080075592</v>
+        <v>10.65021101109055</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>51.25114734195694</v>
+        <v>39.53667628744256</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>51.58533666766417</v>
+        <v>44.91171829509287</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>1.370695453660044</v>
+        <v>3.604243380818922</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>69.30644818780939</v>
+        <v>58.64468106594337</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>64.78230711457914</v>
+        <v>58.45061434421891</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>8.206251656522166</v>
+        <v>7.261762492447311</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>101.9226613248804</v>
+        <v>85.93158420376727</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>91.47425451245378</v>
+        <v>84.42239425371432</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>109.6506390280776</v>
+        <v>89.45027605052081</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>122.6861049924714</v>
+        <v>99.89661183955856</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>111.6919332465557</v>
+        <v>92.39005623421366</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>13.15649914123265</v>
+        <v>9.336910767339258</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>51.11665248068878</v>
+        <v>42.23123969991995</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>61.34785124738923</v>
+        <v>52.44428874515743</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>21.83860600331127</v>
+        <v>19.7153569460169</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>51.89060078635323</v>
+        <v>47.3048019753019</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>50.79844984245284</v>
+        <v>47.2577105480274</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>-1.227945116150547</v>
+        <v>1.425350207437663</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>42.56363131859256</v>
+        <v>41.64353893949199</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>47.12521132962871</v>
+        <v>44.96064416928624</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>6.609462302062653</v>
+        <v>5.447411949537617</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>72.71248651870017</v>
+        <v>67.81123054282494</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>7.405476620349969</v>
+        <v>7.641308688813186</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>44.61049573747879</v>
+        <v>32.67173205879778</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>52.77471390377741</v>
+        <v>47.2242373750521</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>4.081916267228426</v>
+        <v>4.287464062186331</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>72.8772582819667</v>
+        <v>63.17057807594504</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>75.70556483434272</v>
+        <v>68.39875580751496</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>11.52067727302397</v>
+        <v>8.129411807390206</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>111.6672370037068</v>
+        <v>93.35443466105838</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>105.8972755037926</v>
+        <v>93.96427407673558</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>102.9147426229666</v>
+        <v>81.13510260880332</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>114.5237961372691</v>
+        <v>90.49912581921535</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>112.1595476284002</v>
+        <v>93.12695181668838</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>13.81390320414617</v>
+        <v>10.06873108316079</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>54.10073350073508</v>
+        <v>45.42515135268646</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>67.66976646322433</v>
+        <v>60.0158424813802</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>13.22684586261607</v>
+        <v>13.72639387161902</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>45.31283891462667</v>
+        <v>45.55137259838571</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>51.27374461842778</v>
+        <v>49.26337770503213</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>0.06446413738984802</v>
+        <v>0.5177530054932475</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>41.67365555543203</v>
+        <v>40.20595184783384</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>52.23244051409077</v>
+        <v>49.20870475905006</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>6.469871101226413</v>
+        <v>6.038692135474431</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>67.81461796482347</v>
+        <v>66.582122643049</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>44.02302138771478</v>
+        <v>42.77120133575492</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>36.95155502343975</v>
+        <v>35.70807948835737</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>50.95278618219366</v>
+        <v>48.16142771186554</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>52.94491289040567</v>
+        <v>55.82547574986341</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>18.16387647794422</v>
+        <v>15.41392900367953</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>39.75321729017752</v>
+        <v>36.95785750295892</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>50.52103235765798</v>
+        <v>45.17120896255463</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>18.69966575186852</v>
+        <v>15.4855860600186</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>34.76654812537884</v>
+        <v>34.59432330156946</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>47.0498816584704</v>
+        <v>43.2636994727356</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>-1.541384089715923</v>
+        <v>1.590985685632667</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>19.28029551772815</v>
+        <v>16.30216034421534</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>34.32834756511595</v>
+        <v>30.45093752764102</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>11.82323218985211</v>
+        <v>7.739767995674601</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>50.04670990760479</v>
+        <v>41.89925892658033</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>70.59723588205847</v>
+        <v>64.54489326468938</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>47.11956645786365</v>
+        <v>38.8303969267408</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>62.03693492917367</v>
+        <v>61.30368222952991</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>70.2181086777058</v>
+        <v>67.82459249144881</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>16.70310773598488</v>
+        <v>12.73093834192787</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>39.70300509698954</v>
+        <v>35.60948759744556</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>59.97982603445</v>
+        <v>51.75172117073567</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>74.18692117282365</v>
+        <v>73.07479428287112</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>73.38224683371115</v>
+        <v>74.42774689675122</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>83.13139398051331</v>
+        <v>81.99610816336317</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>80.69632184660189</v>
+        <v>79.65874035841017</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>28.48536441144228</v>
+        <v>27.49691578585966</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>79.0903301879722</v>
+        <v>77.50674814129488</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>79.53768992132399</v>
+        <v>76.24747670990934</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>30.62708482514891</v>
+        <v>27.64202707620262</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>54.64364730290934</v>
+        <v>49.63505124385964</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>50.06008648142272</v>
+        <v>46.89804237925176</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>-1.595215727447403</v>
+        <v>0.9617853133195382</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>46.93168976530335</v>
+        <v>46.50380559416658</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>44.43330548977692</v>
+        <v>44.7245588051817</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>7.492271335232438</v>
+        <v>4.385462351755478</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>78.54371549502186</v>
+        <v>74.75058049921918</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>77.24170106574056</v>
+        <v>71.49262501662538</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>86.94892144033003</v>
+        <v>78.46646425838107</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>90.9601776373503</v>
+        <v>83.74596518769309</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>88.52687463407912</v>
+        <v>80.4872768967101</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>28.40205370232564</v>
+        <v>29.64938824515182</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>86.95266323409848</v>
+        <v>80.80866306159731</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>87.38463386814095</v>
+        <v>83.52028880677761</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>79.00811404225783</v>
+        <v>73.31117867480049</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>72.09777474792627</v>
+        <v>67.26479887823409</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>83.73587247685769</v>
+        <v>79.51844346062205</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>84.93983926462795</v>
+        <v>79.64748225860157</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>15.75013693456983</v>
+        <v>15.88502965632556</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>76.20278992728221</v>
+        <v>74.54489910568613</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>78.23208585223871</v>
+        <v>73.11650361551565</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>19.5343523919036</v>
+        <v>16.79823636356061</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>49.71976740660064</v>
+        <v>44.3775716390041</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>45.10649427210549</v>
+        <v>40.84693082192255</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>-4.444273593421151</v>
+        <v>0.5678977354308046</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>49.45816628839325</v>
+        <v>47.60439508851154</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>45.63065846985796</v>
+        <v>42.31998547929805</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>2.184962551797092</v>
+        <v>3.537159269857888</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>78.4191201116642</v>
+        <v>74.73832674114178</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>77.49715156605319</v>
+        <v>69.82323722355679</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>91.0320928010167</v>
+        <v>81.89788372161085</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>97.11424939051064</v>
+        <v>86.93165665538342</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>95.35056116645731</v>
+        <v>84.92211612471749</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>12.25873597750853</v>
+        <v>14.74896355736618</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>85.33594139066994</v>
+        <v>81.05396549192706</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>85.72607236069463</v>
+        <v>82.84057118413463</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>80.7426463623209</v>
+        <v>78.88810471350951</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>51.78839125148093</v>
+        <v>43.52635713583598</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>67.90621871456212</v>
+        <v>59.22302010241095</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>72.24020569091837</v>
+        <v>69.25990788297941</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>16.66956235981379</v>
+        <v>12.58191114681216</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>73.35826875442811</v>
+        <v>74.32669936617418</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>82.4568410830118</v>
+        <v>80.05154800188029</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>8.546677086820031</v>
+        <v>11.54856367439971</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>43.20635929181617</v>
+        <v>45.16808457140479</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>47.96113779097394</v>
+        <v>46.27331179212663</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>-5.035755931466465</v>
+        <v>1.656531833704094</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>44.46413670078083</v>
+        <v>47.31056284480964</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>50.45600505528357</v>
+        <v>50.09568907524173</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>0.8456916608150387</v>
+        <v>3.604901149668056</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>72.26156621180317</v>
+        <v>72.99442643845447</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>82.6773516516071</v>
+        <v>74.55546089903466</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>77.08711138033419</v>
+        <v>75.54458038136562</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>87.86505883313899</v>
+        <v>82.66550229659252</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>95.6723242354383</v>
+        <v>85.59579123672765</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>8.487543440559289</v>
+        <v>8.964065455942315</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>79.47756740980839</v>
+        <v>79.68232799264092</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>87.95688987128557</v>
+        <v>85.49097592410203</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>14.5774838663583</v>
+        <v>12.34695140692018</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>10.33010958668779</v>
+        <v>14.59674757183909</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>19.76130205520484</v>
+        <v>20.55284070242604</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>-1.722454850549852</v>
+        <v>0.5417884334504635</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>4.45896505892388</v>
+        <v>7.858647810573192</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>8.23630554616118</v>
+        <v>9.064089779945515</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>3.79669738669406</v>
+        <v>6.875983402856228</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>22.4072274070039</v>
+        <v>20.02598532046265</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>23.64793802745129</v>
+        <v>22.63391978993445</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>8.803677032151718</v>
+        <v>12.23458716153655</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>13.47790268870887</v>
+        <v>17.32985950952237</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>17.57867943661134</v>
+        <v>18.95213613477743</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>30.58127694411571</v>
+        <v>27.03116888457739</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>26.98178944449827</v>
+        <v>27.43642672225523</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>39.34703324261676</v>
+        <v>35.98664462401059</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>11.86660376977705</v>
+        <v>12.5097014510644</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>23.63102891883042</v>
+        <v>27.24601915986539</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>35.7836770251726</v>
+        <v>36.73924440291304</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>-7.485542782052942</v>
+        <v>-4.851137069166853</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>-0.1194485776468817</v>
+        <v>0.8223532881667985</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>5.17360227924955</v>
+        <v>5.169861986915642</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>-2.923056175828531</v>
+        <v>1.701433757240874</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>14.39460346117994</v>
+        <v>15.45629034196589</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>18.57354766982876</v>
+        <v>16.82215671940991</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>19.38994393645349</v>
+        <v>20.54294432179992</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>20.35451685152295</v>
+        <v>19.60652372438897</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>0.46815946879385</v>
+        <v>1.798954969366736</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>19.00950880842377</v>
+        <v>19.04625238634605</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>19.21700014614532</v>
+        <v>21.32826851716753</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>4.197263175172534</v>
+        <v>6.70199243275751</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>29.83982785775806</v>
+        <v>31.90655591572619</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>28.24622968586015</v>
+        <v>31.93129711625375</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>31.60771198746854</v>
+        <v>34.80383689388296</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>37.37981620572344</v>
+        <v>40.05254203814128</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>43.45458089720457</v>
+        <v>42.28262524592753</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>35.20169646018202</v>
+        <v>31.46496288050724</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>53.03876481187916</v>
+        <v>45.5395062109769</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>50.43554693070644</v>
+        <v>48.79122576972424</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>16.42370939751494</v>
+        <v>14.20363773195984</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>38.12319962467207</v>
+        <v>39.60219969168436</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>44.18757463310548</v>
+        <v>44.67871442731601</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>-1.115573998508811</v>
+        <v>-3.120781601761561</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>31.23794786215408</v>
+        <v>29.29437306440692</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>43.24839259924011</v>
+        <v>41.33776428608169</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>8.644992407968964</v>
+        <v>3.325261925203922</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>57.95302108135859</v>
+        <v>52.17869039109449</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>4.072369650551149</v>
+        <v>6.52912020020694</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>11.35397732060291</v>
+        <v>13.01259902456288</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>15.65803879860866</v>
+        <v>13.44732779889208</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-2.468701969353656</v>
+        <v>-0.8092790034104915</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>16.29726968293101</v>
+        <v>15.72784007673856</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>20.584501057039</v>
+        <v>16.9106152113716</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>4.393085430419966</v>
+        <v>4.599457314388417</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>30.36018860336439</v>
+        <v>29.75435673305227</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>34.53497460889973</v>
+        <v>32.41336271930551</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>36.99226124811204</v>
+        <v>33.94859923870745</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>37.95979608627199</v>
+        <v>35.96639040523963</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>47.17907598865112</v>
+        <v>42.75777613160832</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>20.69004351345405</v>
+        <v>21.4675499981797</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>35.64954887522303</v>
+        <v>34.20796846137529</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>40.92371899732363</v>
+        <v>37.68968208713349</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>7.08972371709471</v>
+        <v>4.256869452499043</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>29.06957119962831</v>
+        <v>30.29170515751757</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>39.95583117610234</v>
+        <v>41.71496821963814</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>-9.007653908656515</v>
+        <v>-5.691054069804959</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>12.80103910696137</v>
+        <v>18.12135922292339</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>38.25661520047809</v>
+        <v>41.38932763108593</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>-2.735284841675842</v>
+        <v>-0.7814982852786763</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>37.49526404905168</v>
+        <v>40.27967587307829</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>4.361109231510902</v>
+        <v>5.777936236927911</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>6.89205401353188</v>
+        <v>10.61101765591269</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>15.15555867011412</v>
+        <v>13.82273808027836</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>-1.803548797878769</v>
+        <v>-0.1239391998693264</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>8.850876832058887</v>
+        <v>12.95826382431349</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>19.11652888085219</v>
+        <v>18.44533288337843</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>-0.2119264254957329</v>
+        <v>2.099653387351516</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>23.29113914949913</v>
+        <v>26.07038575768805</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>30.56979817373312</v>
+        <v>31.64846940117106</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>28.64535747001616</v>
+        <v>25.9492596768601</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>30.91895234105577</v>
+        <v>28.7978857868459</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>37.42902695344552</v>
+        <v>34.72388996503803</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>22.30487396987417</v>
+        <v>23.38903289352755</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>30.24032536504257</v>
+        <v>31.9898111737947</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>41.40347029156469</v>
+        <v>39.67190289593724</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>3.217705601415155</v>
+        <v>2.761179487086522</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>24.46804440626674</v>
+        <v>22.90126059053611</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>42.2236918863302</v>
+        <v>37.5170009913631</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>-2.781402979951274</v>
+        <v>-4.410324158835149</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>13.32838649492124</v>
+        <v>13.27945881496828</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>40.69217816904008</v>
+        <v>39.39494975236025</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>0.6983017105015001</v>
+        <v>-0.3102913901879596</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>31.80746056681773</v>
+        <v>31.29494015743595</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>21.6177548896151</v>
+        <v>23.04907693465583</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>22.6346509059125</v>
+        <v>19.77861083765426</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>36.83694607230094</v>
+        <v>39.65206579199279</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>44.66859971516955</v>
+        <v>48.72685060246489</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>0.07375383098990795</v>
+        <v>2.243902598505755</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>12.23261059215417</v>
+        <v>12.18019051762891</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>24.46641812628756</v>
+        <v>21.9979091940059</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>14.73684797197976</v>
+        <v>15.42288216792771</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>24.29499759020563</v>
+        <v>26.43579707205854</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>33.20479450754593</v>
+        <v>34.79489394761472</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>-4.490623778198241</v>
+        <v>-4.808245575007852</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>1.796470453444677</v>
+        <v>-0.8256475337074392</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>6.322508557387327</v>
+        <v>4.338514874652869</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>0.4813462823796186</v>
+        <v>2.140931035564769</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>18.79276654584424</v>
+        <v>15.7785383182307</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>27.13517125391834</v>
+        <v>27.41939132309389</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>20.97543082930752</v>
+        <v>20.64943782784202</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>38.7423300482452</v>
+        <v>38.41154801277993</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>44.12574890860211</v>
+        <v>47.53287228927967</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>3.849977414826618</v>
+        <v>5.4401422157387</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>18.84593605460404</v>
+        <v>19.60284625334664</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>23.41127475207503</v>
+        <v>27.38553221983645</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>71.89886665032121</v>
+        <v>71.42387153531584</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>62.00624674208662</v>
+        <v>55.73814249245795</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>75.96705845468162</v>
+        <v>73.74383753987561</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>82.28034922125622</v>
+        <v>79.77742000941288</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>16.91418552607834</v>
+        <v>12.69390959260991</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>74.39725355506522</v>
+        <v>69.67499201638299</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>78.93669188108319</v>
+        <v>80.80264559701166</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>28.23246627019765</v>
+        <v>26.15037102903143</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>48.43066020040973</v>
+        <v>47.85884875655749</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>53.04966872980489</v>
+        <v>50.78762796265327</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>1.530281770584164</v>
+        <v>-0.5628282841280168</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>38.26874921811629</v>
+        <v>38.75891318330608</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>45.71784341723361</v>
+        <v>48.27596219809351</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>13.52773580278268</v>
+        <v>11.51270202534178</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>72.85901364619457</v>
+        <v>69.47893475825856</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>78.51300531881385</v>
+        <v>76.72605130616813</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>86.64312992617778</v>
+        <v>81.88650802896353</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>92.94499852835921</v>
+        <v>89.27042561547711</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>96.89353682135336</v>
+        <v>94.64832124444875</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>33.47360102912575</v>
+        <v>32.47196562829124</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>92.69626414176217</v>
+        <v>91.64290130482301</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>92.1669615804511</v>
+        <v>93.55608809129782</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>68.29144050882978</v>
+        <v>71.9577370364696</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>37.1240633205056</v>
+        <v>39.6980948858473</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>51.84596902722065</v>
+        <v>55.57184604221605</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>75.20915018418913</v>
+        <v>76.30581238280246</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>3.304170097888644</v>
+        <v>2.059777843422111</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>57.33697464933095</v>
+        <v>58.7569507442635</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>72.67771895434484</v>
+        <v>75.27410045630688</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>14.12791283814199</v>
+        <v>13.82153664849155</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>36.941715693794</v>
+        <v>39.55171289298289</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>46.51016856525816</v>
+        <v>47.65784577994085</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>-6.580503198845065</v>
+        <v>-3.897137181676253</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>29.59792311752545</v>
+        <v>32.51213270333238</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>43.56860515904813</v>
+        <v>49.52173868324954</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>1.546882128511619</v>
+        <v>4.794790799250478</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>60.65729469845342</v>
+        <v>61.83276793620745</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>76.82621874657028</v>
+        <v>78.11639719678027</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>69.93682566112736</v>
+        <v>73.71367971624949</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>79.5306581354901</v>
+        <v>81.02136312331479</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>95.3401772517778</v>
+        <v>93.45690784882576</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>15.53061975974421</v>
+        <v>19.39040161556738</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>77.30168175075585</v>
+        <v>82.30399196554455</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>86.40230117560431</v>
+        <v>90.90931287011921</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>65.85526726442387</v>
+        <v>65.98391096097953</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>22.63424882342428</v>
+        <v>23.37022611743178</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>29.43067880385521</v>
+        <v>34.31692553643599</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>52.71988431691399</v>
+        <v>57.02981102247125</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>3.019924953203752</v>
+        <v>2.412531314133432</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>40.79222445554429</v>
+        <v>45.63995187223291</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>62.43962458892571</v>
+        <v>65.91086167972361</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>11.1916675751884</v>
+        <v>10.78487862362618</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>37.70320461222507</v>
+        <v>36.07664194840947</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>51.51646713325472</v>
+        <v>48.93869870285645</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>-1.295206495625436</v>
+        <v>-3.041331905239403</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>29.79360235176186</v>
+        <v>28.53285516771497</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>46.70193505284015</v>
+        <v>47.1950549849665</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>1.236524539147091</v>
+        <v>2.590391212931845</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>52.55997372701242</v>
+        <v>54.60572164927442</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>75.36284593726199</v>
+        <v>75.80357099718228</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>55.20760613560344</v>
+        <v>60.11525997697754</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>68.31171066947897</v>
+        <v>73.79998242240765</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>90.63773864294211</v>
+        <v>89.08035558458418</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>15.52960658578255</v>
+        <v>15.21406145891165</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>71.33456859547577</v>
+        <v>73.87507399365143</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>83.7066561855398</v>
+        <v>86.66785991440489</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>13.9266439379083</v>
+        <v>14.95015912994231</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>11.0794286501928</v>
+        <v>16.82111318158568</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>17.58884759713585</v>
+        <v>20.60266971947271</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>2.524036041482891</v>
+        <v>7.574008943110698</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>4.570745937695328</v>
+        <v>11.69213130765629</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>7.781985880089589</v>
+        <v>12.64292512161506</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>5.485973382909219</v>
+        <v>11.2990765792266</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>18.65077387637437</v>
+        <v>20.76100284811688</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>19.91167871164944</v>
+        <v>22.06292638108023</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>8.738568392863987</v>
+        <v>15.08665718782669</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>13.41094160923819</v>
+        <v>18.80818676379953</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>16.91491638588602</v>
+        <v>19.09646208841557</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>14.97062020025953</v>
+        <v>16.670126815385</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>12.56819503286088</v>
+        <v>17.45462468085067</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>20.11615468249245</v>
+        <v>23.07917045940649</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>13.53957609392717</v>
+        <v>15.16178157238304</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>22.56907994001056</v>
+        <v>25.51873362908112</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>31.56997832730497</v>
+        <v>31.22260749832133</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>-1.634472070846645</v>
+        <v>4.055220097523719</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>3.211087647749871</v>
+        <v>8.29250686451898</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>8.170525638151229</v>
+        <v>11.76140556820732</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>2.424338592857815</v>
+        <v>9.012379823722767</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>15.82687682026745</v>
+        <v>19.74288145301571</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>16.34092951785191</v>
+        <v>18.0885318298081</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>17.94018430612529</v>
+        <v>20.91703585320668</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>18.05240106186812</v>
+        <v>19.81442035936858</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>4.008723084574633</v>
+        <v>8.722158187265261</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>16.1415879427062</v>
+        <v>19.74236043365975</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>17.07417297444983</v>
+        <v>21.15740898767063</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>5.484285793158381</v>
+        <v>11.41446264762405</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>25.0452960216096</v>
+        <v>27.93727513606638</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>24.00876759765146</v>
+        <v>27.54024061635835</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>25.43783468701954</v>
+        <v>30.34295279736359</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>31.40657780700491</v>
+        <v>34.09138805185895</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>35.19737588637354</v>
+        <v>35.02465680718846</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>17.75066940889086</v>
+        <v>18.92892820318173</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>30.87723964429829</v>
+        <v>28.00009100389118</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>28.82791486760097</v>
+        <v>30.40322946434006</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>14.82257434898001</v>
+        <v>16.00764401117664</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>30.97539741091402</v>
+        <v>31.76523121382724</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>36.17153125873897</v>
+        <v>35.11661081432084</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>1.082179529932962</v>
+        <v>4.743220966385643</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>24.52865682272972</v>
+        <v>25.65362486488151</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>35.3119412214169</v>
+        <v>32.9660704271172</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>7.73243575212917</v>
+        <v>8.961453057072294</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>44.88834223413074</v>
+        <v>40.97466123535587</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>5.041939116374966</v>
+        <v>11.04132150222154</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>10.93644753209576</v>
+        <v>15.3965906193498</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>14.10789490697689</v>
+        <v>15.65493509721226</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>2.201914460254017</v>
+        <v>6.988017410259172</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>14.17334919498911</v>
+        <v>17.46509294719981</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>18.42743707435147</v>
+        <v>18.20712950263658</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>5.95929586535102</v>
+        <v>10.33693441045089</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>25.05239009673047</v>
+        <v>26.24327681652666</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>28.62582867378635</v>
+        <v>27.80430658035289</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>30.87740680301539</v>
+        <v>30.79739373083058</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>32.8803937895475</v>
+        <v>32.2034371572544</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>38.42996148675273</v>
+        <v>35.99447358761147</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>6.723861838118982</v>
+        <v>11.86103681029668</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>16.9894914980758</v>
+        <v>19.45726828114391</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>21.44603001373264</v>
+        <v>22.33242801951358</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>8.375695861220798</v>
+        <v>10.02128397458507</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>24.3587450266441</v>
+        <v>26.08212256903943</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>33.85128004139007</v>
+        <v>33.70966151102261</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-3.042377191697039</v>
+        <v>3.443452400853619</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>12.66965722622062</v>
+        <v>18.4680300576646</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>33.92928006744781</v>
+        <v>33.21779099939649</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>0.9364890432599751</v>
+        <v>7.603301655735965</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>30.80089924520587</v>
+        <v>33.47683183539485</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>5.421115255172069</v>
+        <v>10.71965076627946</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>7.739131579075298</v>
+        <v>13.60104878806035</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>13.79273068937591</v>
+        <v>16.02190081693714</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>1.622432641620765</v>
+        <v>6.959030497350899</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>7.660057496166999</v>
+        <v>14.78177975269427</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>16.08022322259107</v>
+        <v>18.73940001502462</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>2.150060244664413</v>
+        <v>8.143083930085762</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>19.48726101623919</v>
+        <v>23.30852874695195</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>25.34167707602736</v>
+        <v>27.01052860779124</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>22.98210749310026</v>
+        <v>24.65205523428861</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>25.71635610667866</v>
+        <v>26.80607514726078</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>29.64682219842601</v>
+        <v>30.50136393235428</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>7.305866351836702</v>
+        <v>12.0813067414704</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>13.76272111488724</v>
+        <v>17.61170564392585</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>20.42168373784576</v>
+        <v>23.1615197508822</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>5.859839133909357</v>
+        <v>9.085644392935002</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>21.62915832150773</v>
+        <v>22.48825814779937</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>35.69064830215243</v>
+        <v>31.69176447087556</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>0.700575975714159</v>
+        <v>3.832546826429883</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>12.43064134799983</v>
+        <v>15.56257690847336</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>34.38413434167698</v>
+        <v>31.50608729520764</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>4.065833190887961</v>
+        <v>7.159547336326781</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>27.3480054045537</v>
+        <v>28.17469651514838</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>22.2909720490213</v>
+        <v>24.20685782590399</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>21.9340334244752</v>
+        <v>21.69814247999638</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>35.73183085580976</v>
+        <v>36.43641550766677</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>42.29082182377684</v>
+        <v>42.36382006073092</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>5.129899088794158</v>
+        <v>9.751576988465592</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>16.01678291676787</v>
+        <v>17.65905520593956</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>24.55659364530293</v>
+        <v>24.49983462158781</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>13.4079691443738</v>
+        <v>16.72940011059248</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>21.12186626300681</v>
+        <v>25.02655437691348</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>29.1905272354257</v>
+        <v>31.70004750887652</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>-1.28617336514418</v>
+        <v>3.770421152337665</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>2.958934641848323</v>
+        <v>6.041304728859124</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>8.472597746784523</v>
+        <v>10.0254117413858</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>2.837409735633322</v>
+        <v>8.598108173979021</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>17.1469184573995</v>
+        <v>17.85056816111971</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>25.71781579894691</v>
+        <v>27.8869013812609</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>20.99678016232313</v>
+        <v>22.36573464213063</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>38.35496923636271</v>
+        <v>37.24152091171644</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>42.56135180482357</v>
+        <v>43.26829224555065</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>5.450989571744174</v>
+        <v>10.23466902604373</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>17.48064201769412</v>
+        <v>19.38030852143319</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>22.58631825908273</v>
+        <v>25.42418316082735</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>56.64809252311492</v>
+        <v>52.30940359583918</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>47.75018112662865</v>
+        <v>43.87215735182463</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>60.89603422776064</v>
+        <v>54.87689731086024</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>66.28196397629979</v>
+        <v>58.93881248989995</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>14.00740423979164</v>
+        <v>15.21477051407978</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>58.69329014987454</v>
+        <v>50.86146781547104</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>61.01692092311788</v>
+        <v>57.30065200993226</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>22.29301718428526</v>
+        <v>23.01125541234537</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>38.63323712092208</v>
+        <v>37.20398971565712</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>43.96479381983513</v>
+        <v>40.96301748023929</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>2.946608881189164</v>
+        <v>6.172059811665488</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>31.58228920783589</v>
+        <v>32.50859987328494</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>40.08076592633477</v>
+        <v>39.6453300426903</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>11.90932700679426</v>
+        <v>13.6951066556387</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>58.00603496686541</v>
+        <v>52.79133565058469</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>65.01454250334152</v>
+        <v>58.85701720315888</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>68.51986270626143</v>
+        <v>61.37582504015821</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>77.33612493847875</v>
+        <v>67.5595005654896</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>79.43901389086361</v>
+        <v>70.56802262193253</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>25.46184394374983</v>
+        <v>27.53261596279624</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>72.44407206976959</v>
+        <v>66.26232563141497</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>73.85139226111072</v>
+        <v>68.79402728651891</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>55.71022923268528</v>
+        <v>53.65330523288654</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>31.65411309405167</v>
+        <v>34.11271690729993</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>44.87043837253053</v>
+        <v>44.13991651257867</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>62.57463746797882</v>
+        <v>56.97690519739762</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>4.322117791062944</v>
+        <v>8.517846237816951</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>46.7548837867512</v>
+        <v>43.97519900949746</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>57.67053907472211</v>
+        <v>54.54878456833193</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>12.4846450013488</v>
+        <v>14.29843148205121</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>30.96907928818509</v>
+        <v>31.24281353422431</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>40.67030811284761</v>
+        <v>38.53667446150266</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>-1.449090090675011</v>
+        <v>4.285500803199142</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>27.42140616250156</v>
+        <v>28.38630039109575</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>41.46194450507829</v>
+        <v>41.18055225274144</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>4.766522446328764</v>
+        <v>10.31595586696955</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>50.92217502973462</v>
+        <v>48.3981829314146</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>66.50169546975893</v>
+        <v>60.98952652338642</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>59.19589341586087</v>
+        <v>56.97806797651942</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>69.07931240179065</v>
+        <v>63.24783036679918</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>80.30240270446139</v>
+        <v>70.23703762140607</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>12.16446197928657</v>
+        <v>17.80320071009954</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>62.12485383634306</v>
+        <v>60.51050332165246</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>71.32823835852147</v>
+        <v>67.70391330208665</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>54.42303061355628</v>
+        <v>49.91467786178345</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>20.95615622314855</v>
+        <v>23.75201262615562</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>29.78669263343541</v>
+        <v>32.51770134643029</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>46.64804437473411</v>
+        <v>45.90909471932494</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>5.396693766854519</v>
+        <v>8.721198245275527</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>35.74782816052066</v>
+        <v>36.62002853472126</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>52.17352164954148</v>
+        <v>49.89067874379144</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>10.50731601790916</v>
+        <v>12.65342727333118</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>31.70773258477201</v>
+        <v>30.18246822109167</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>44.52362963621129</v>
+        <v>40.83744459139</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>2.086264355319173</v>
+        <v>4.700898289605735</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>26.81669617946825</v>
+        <v>26.21963755666435</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>42.52829774246464</v>
+        <v>39.64384069808764</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>5.127521403386702</v>
+        <v>8.591172272117653</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>45.40795446403127</v>
+        <v>44.14262610692992</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>65.65202250350941</v>
+        <v>60.29279119654194</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>48.16165565090682</v>
+        <v>48.89251868787747</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>61.64748446503464</v>
+        <v>59.25292756511681</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>78.52923692696557</v>
+        <v>69.79566173313086</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>12.69946111827203</v>
+        <v>14.45953736166098</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>58.42602727246248</v>
+        <v>55.03058027546603</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>69.90117953511091</v>
+        <v>65.57560836625865</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>14.42860022056339</v>
+        <v>12.18791355501347</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>19.34315264023785</v>
+        <v>19.35866390455447</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>31.82689757052819</v>
+        <v>33.13210288452429</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>-2.225978638696663</v>
+        <v>1.276249582159075</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>11.28721641935964</v>
+        <v>14.22098555128735</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>18.04584286298652</v>
+        <v>20.78958803830627</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>3.301933135350204</v>
+        <v>4.347771293314999</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>40.90665344879906</v>
+        <v>37.49730209048725</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>43.2232346720111</v>
+        <v>44.71938151066675</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>21.94865940941089</v>
+        <v>21.05819677368111</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>25.33508061975244</v>
+        <v>24.90613487810757</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>24.37443009107841</v>
+        <v>26.47847514366165</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>9.478648290879196</v>
+        <v>9.153922925766071</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>21.24018361640863</v>
+        <v>18.72099303012914</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>37.47411957617312</v>
+        <v>32.58429958587527</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>14.57735619573001</v>
+        <v>12.89709520605277</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>27.36084042155316</v>
+        <v>26.15644730486317</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>32.72018886021964</v>
+        <v>30.8948879156891</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>-2.563664577704824</v>
+        <v>-0.2704913153926185</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>8.571015653643149</v>
+        <v>8.408779716956509</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>8.466829099930116</v>
+        <v>11.09260493168399</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>-1.862903319530211</v>
+        <v>2.654026599025546</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>23.87909016743497</v>
+        <v>23.65174976529613</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>24.09241334177582</v>
+        <v>19.24893982452408</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>37.59326056531246</v>
+        <v>33.88169217275112</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>40.31853063222974</v>
+        <v>36.07208593994143</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>4.883644934567602</v>
+        <v>2.876280524968102</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>36.93380613813363</v>
+        <v>37.14461704075681</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>38.69252899513638</v>
+        <v>38.94757528021121</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>6.702180117883884</v>
+        <v>6.223853535414072</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>56.53560957755935</v>
+        <v>56.78136094531976</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>53.94762703509573</v>
+        <v>55.76537427027071</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>55.24683618581371</v>
+        <v>55.0677103088492</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>59.64729961446526</v>
+        <v>59.85079735941674</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>61.29056480534188</v>
+        <v>61.45358757722259</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>21.01897181929557</v>
+        <v>15.35559792347647</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>58.87197466174625</v>
+        <v>49.77008740362454</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>62.9511532388761</v>
+        <v>57.24853517093986</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>19.24548116354494</v>
+        <v>17.78417902844796</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>40.45771758225479</v>
+        <v>36.38411155986317</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>40.22642285114703</v>
+        <v>35.79046021850219</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>0.428517915351275</v>
+        <v>-0.09183539084835246</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>35.72034867647927</v>
+        <v>34.15933620296167</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>35.98445379153905</v>
+        <v>33.81215591907896</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>4.721120917998455</v>
+        <v>3.580151438698959</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>58.81788854695005</v>
+        <v>54.19805079277877</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>8.234120616153412</v>
+        <v>7.387876804584447</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>26.70480038443049</v>
+        <v>25.56050418225049</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>33.22228489605781</v>
+        <v>30.43467156621679</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>2.644145614286291</v>
+        <v>1.505206379905417</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>34.11360260805929</v>
+        <v>35.22585678959257</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>39.62803181669062</v>
+        <v>37.19801965190528</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>7.73320084039015</v>
+        <v>6.447712329412919</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>55.73915275103337</v>
+        <v>55.33514586893475</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>57.63427920957275</v>
+        <v>56.68639599094178</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>62.5006772162174</v>
+        <v>60.55951643046605</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>65.068193086834</v>
+        <v>62.46637906372284</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>68.14967316408239</v>
+        <v>65.81699031275913</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>3.286968824331662</v>
+        <v>4.935033939948429</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>40.70277098555036</v>
+        <v>36.6641990108641</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>48.65751380986901</v>
+        <v>44.02806814800253</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>13.72539328094596</v>
+        <v>11.91455294521316</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>34.58051957605592</v>
+        <v>32.8307071644594</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>39.13909439328758</v>
+        <v>35.69653432205671</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>1.11667603437277</v>
+        <v>1.072689566101925</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>28.29945205252781</v>
+        <v>30.01270628734577</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>38.67340186424885</v>
+        <v>38.31170415933175</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>4.40359158876338</v>
+        <v>4.942417393892306</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>50.08485394794616</v>
+        <v>48.71791758295203</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>5.347941366884502</v>
+        <v>4.558979332674426</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>18.34656635154983</v>
+        <v>17.72235287218989</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>33.5963632349247</v>
+        <v>29.27368606159716</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>-0.400271810971816</v>
+        <v>1.226812173280308</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>19.08753057718779</v>
+        <v>25.69318519050462</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>39.3797846535133</v>
+        <v>39.74231912134709</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>4.029780643299642</v>
+        <v>2.746817626371026</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>48.31787624357733</v>
+        <v>47.87237205501997</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>59.79501767361255</v>
+        <v>56.61963040124714</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>53.52096214228128</v>
+        <v>50.50082366509056</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>56.22658991686638</v>
+        <v>54.95778402158103</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>62.80047581347622</v>
+        <v>61.35561982993922</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>4.197206238131308</v>
+        <v>3.993016603404367</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>33.52236053177822</v>
+        <v>33.71534084181831</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>52.49651585326416</v>
+        <v>46.88330289098471</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>7.243462250795432</v>
+        <v>7.634857308595176</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>26.2615423335338</v>
+        <v>28.04944679973257</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>38.5594125623464</v>
+        <v>33.49915184686696</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>1.304670981001941</v>
+        <v>0.2551614371225988</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>18.90809078141934</v>
+        <v>23.3699611320837</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>37.79686817745277</v>
+        <v>35.26073635849377</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>1.999154789602837</v>
+        <v>2.722591776461794</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>36.69427332565657</v>
+        <v>39.37746665028867</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>25.9480532473745</v>
+        <v>24.56846380788469</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>23.36630171357739</v>
+        <v>22.21015907694305</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>36.36549243612436</v>
+        <v>35.63765788701007</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>36.77854777275483</v>
+        <v>40.60263053021492</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>9.16044969097098</v>
+        <v>7.676876774197371</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>15.39956775196979</v>
+        <v>17.91672144685241</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>25.78229376201066</v>
+        <v>23.97002739293096</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>11.99994792219151</v>
+        <v>10.4258376070949</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>19.39438933546117</v>
+        <v>21.56180691552377</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>32.53017214085275</v>
+        <v>32.61275222604755</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>-3.401577308550554</v>
+        <v>0.07416501949605703</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>3.342243833104352</v>
+        <v>5.946311117613348</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>13.59665567938328</v>
+        <v>12.48805773670898</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>0.3085049872362404</v>
+        <v>3.716129411321411</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>20.87285832806838</v>
+        <v>21.01683008591247</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>38.37006756746007</v>
+        <v>40.50915302668494</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>24.84932650321565</v>
+        <v>24.87495668451854</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>42.80953615733798</v>
+        <v>45.20235488706061</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>49.99736001015276</v>
+        <v>52.96005739573448</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>4.674252212742065</v>
+        <v>6.110762177423961</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>19.00951019284246</v>
+        <v>18.65522113190913</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>32.68256396797067</v>
+        <v>32.17666739330053</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>62.52396621272132</v>
+        <v>57.97639569648316</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>55.75853627685861</v>
+        <v>57.37659925628348</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>67.53338245970252</v>
+        <v>65.85264323486632</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>64.93887577535983</v>
+        <v>62.38202021290678</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>18.10080760154949</v>
+        <v>15.38034165230217</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>63.40886724597639</v>
+        <v>59.74775805026829</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>63.85872325002997</v>
+        <v>62.14553059677635</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>23.37793175295655</v>
+        <v>18.37129152444451</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>40.67632152805652</v>
+        <v>39.17690024588367</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>45.58950442191606</v>
+        <v>41.72869208403213</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>0.7829508800934306</v>
+        <v>1.091653030042572</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>38.45804294090372</v>
+        <v>41.25204627561992</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>43.56503211118817</v>
+        <v>41.93679475061107</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>5.332130142589449</v>
+        <v>4.825558909041593</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>62.87150771868973</v>
+        <v>62.68956987106762</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>70.9299342803223</v>
+        <v>66.14827002298291</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>74.41528487436182</v>
+        <v>74.06964556096372</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>83.89702087613328</v>
+        <v>77.36234523467385</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>87.66551720106892</v>
+        <v>82.32209039978565</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>18.85679157012808</v>
+        <v>18.56558349594333</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>76.03564549341066</v>
+        <v>72.79437463980716</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>78.28438868442493</v>
+        <v>76.11304156905999</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>66.58905546193944</v>
+        <v>61.20483136529847</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>48.59789538923941</v>
+        <v>49.45164413472416</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>57.74335779074382</v>
+        <v>57.05743625813805</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>66.32889271117477</v>
+        <v>62.25628573852912</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>9.776865568300188</v>
+        <v>8.579475185101959</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>53.959012290073</v>
+        <v>52.80838908019195</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>62.50878968414282</v>
+        <v>59.28943733011552</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>14.90305209596756</v>
+        <v>10.86477793558494</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>33.93200373899742</v>
+        <v>34.77373311593595</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>43.59432541144856</v>
+        <v>41.67115679197173</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>-0.7347645303420585</v>
+        <v>0.7445498939901434</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>35.63363998640075</v>
+        <v>35.48028658860034</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>46.54671815235073</v>
+        <v>44.97457135299135</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>2.637293013802925</v>
+        <v>5.391532729735999</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>58.81620434274538</v>
+        <v>57.58327638799306</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>75.14224323186291</v>
+        <v>71.03818184664144</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>69.41538095924611</v>
+        <v>68.73384175343352</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>76.0870757220639</v>
+        <v>75.1349588673086</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>91.64469719003236</v>
+        <v>85.76438945351518</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>8.059722013422721</v>
+        <v>7.995111148319957</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>66.5819496479638</v>
+        <v>67.56547438561347</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>76.59608568438549</v>
+        <v>76.28789332921812</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>60.76571401066937</v>
+        <v>56.63028866912828</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>27.04097309249963</v>
+        <v>28.82675719590499</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>34.01906157337375</v>
+        <v>36.10792340490557</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>44.40582233005703</v>
+        <v>45.29406721534745</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>3.934334733045304</v>
+        <v>5.586358150418381</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>24.20216539730761</v>
+        <v>39.96452677843386</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>53.70049167178861</v>
+        <v>53.65516099828736</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>7.028165259012134</v>
+        <v>7.264026667463007</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>28.54246253073818</v>
+        <v>31.06701354760744</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>45.31127961016149</v>
+        <v>42.29382528411045</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>-1.621302474720775</v>
+        <v>-0.1018180052265834</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>26.88002458579394</v>
+        <v>28.73996991887482</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>45.62815605030573</v>
+        <v>43.52252496612022</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>-0.9233028548712561</v>
+        <v>1.770044220841914</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>46.81877141713817</v>
+        <v>46.53643289111598</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>72.66313680341287</v>
+        <v>68.58153286352285</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>51.55129844015622</v>
+        <v>51.662526477336</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>63.64607563498206</v>
+        <v>63.39294800863834</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>85.66173496469808</v>
+        <v>83.09118863770938</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>4.46382789302751</v>
+        <v>4.346764040283556</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>55.14479111524317</v>
+        <v>57.74126538667178</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>75.59128813285383</v>
+        <v>75.47389608725069</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/additive/ranking_test4/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/additive/ranking_test4/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.655</v>
+        <v>0.677</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.535</v>
+        <v>15.085</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.739</v>
+        <v>0.732</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.645</v>
+        <v>13.83</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.984</v>
+        <v>0.9429999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.457</v>
+        <v>6.519</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>11.2251641271324</v>
+        <v>11.60312837141828</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>13.25916623067726</v>
+        <v>10.65227971257305</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>24.80719680096297</v>
+        <v>21.20019211067657</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5.167837064086878</v>
+        <v>7.552244601539812</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>25.36196105214842</v>
+        <v>19.87306296104016</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>30.10049058413028</v>
+        <v>23.06905285331363</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8.079334821457138</v>
+        <v>5.06992976238654</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>31.84638551582199</v>
+        <v>25.76086211395545</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>33.7525637240657</v>
+        <v>29.03916058482947</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>14.66756871717067</v>
+        <v>10.16258784316879</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>16.94950142129019</v>
+        <v>14.35771919857092</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>17.25513568818376</v>
+        <v>16.44348241838085</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>15.29756322888241</v>
+        <v>18.19957077786533</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>14.93837310435375</v>
+        <v>11.68172067725533</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>29.35160956207513</v>
+        <v>23.07605360644633</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>13.2278803455363</v>
+        <v>16.93915447258811</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>22.17799007315306</v>
+        <v>25.78780148629805</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>34.25828995989352</v>
+        <v>32.26707508864578</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>16.03985812386253</v>
+        <v>12.43256638213681</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>21.22618454971084</v>
+        <v>15.95306358836086</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>20.86168342423048</v>
+        <v>18.12206794409214</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4.248283189378959</v>
+        <v>2.917584594746216</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>17.84836239486745</v>
+        <v>21.85200540143535</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>18.01720979378012</v>
+        <v>16.02061324121061</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>22.80224067683651</v>
+        <v>21.71948466126449</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>25.51880042522808</v>
+        <v>24.37900738030483</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5.695242400234822</v>
+        <v>6.802748854743093</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>34.7781244367513</v>
+        <v>29.86438411837081</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>39.15758838382536</v>
+        <v>30.11572826513005</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>7.661040862224585</v>
+        <v>6.760974786257336</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>40.24762255265343</v>
+        <v>38.00984220966473</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>39.8903094464023</v>
+        <v>37.31894421382219</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>39.12291120694664</v>
+        <v>36.89730045648373</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>42.56634100371147</v>
+        <v>40.37863369012158</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>41.40652485837314</v>
+        <v>42.49397156613934</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>24.27668381875794</v>
+        <v>25.43162681325445</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>32.43506720238687</v>
+        <v>36.37692668543521</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>39.95372397033651</v>
+        <v>40.87063244832902</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>18.52644429437449</v>
+        <v>16.97664040746254</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>28.48457954653102</v>
+        <v>34.44599065356404</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>29.86629024804113</v>
+        <v>38.07260256338967</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>15.74819839059632</v>
+        <v>12.50669958889013</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>36.03721324425344</v>
+        <v>33.98019713959752</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>38.66979396601394</v>
+        <v>41.49825780341236</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>42.59563651262938</v>
+        <v>46.34999480330531</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>8.332263058102892</v>
+        <v>9.151218619542515</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>18.04737614329618</v>
+        <v>17.40734140679691</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>22.77694781435033</v>
+        <v>20.4194196174374</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>3.129831002089247</v>
+        <v>3.792562298469839</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>32.8714882375407</v>
+        <v>28.09224523952106</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>36.17514319276661</v>
+        <v>29.95676598779617</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>5.848728637704589</v>
+        <v>5.12957724915379</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>39.8800839137034</v>
+        <v>37.80623205065476</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>42.82039656754056</v>
+        <v>38.62727696969914</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>38.88216722251264</v>
+        <v>38.80029691390562</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>42.13969878726797</v>
+        <v>40.6560074539891</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>45.45483865856104</v>
+        <v>45.23783780054219</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>15.67962953395643</v>
+        <v>13.71929298855929</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>28.06099675925276</v>
+        <v>28.73597917506052</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>35.48810829135347</v>
+        <v>34.19357219158741</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>12.83746322346851</v>
+        <v>10.53754536415523</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>25.12865909613896</v>
+        <v>28.47455806792065</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>28.79670763429812</v>
+        <v>34.48601125796284</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>16.04217934970592</v>
+        <v>9.114820916892196</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>31.51082769695365</v>
+        <v>30.56362298908538</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>40.10999031244516</v>
+        <v>43.37114374493532</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6.938038871859625</v>
+        <v>5.697130318605478</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>39.60591166441245</v>
+        <v>44.15431015113006</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>2.488382791289279</v>
+        <v>1.662373762389926</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>10.13258031749584</v>
+        <v>10.3884310725568</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>17.93073745339518</v>
+        <v>19.77867963788688</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>3.297547984616806</v>
+        <v>5.186725747954029</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>31.26032436352313</v>
+        <v>29.28464350049406</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>37.54155242833785</v>
+        <v>35.13690747821602</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1.438854210562688</v>
+        <v>2.629282658016461</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>37.79389682509569</v>
+        <v>34.91781224435007</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>40.98604520467627</v>
+        <v>39.90446794981347</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>29.86025885931908</v>
+        <v>30.63984531536399</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>32.16304136739461</v>
+        <v>31.87244488218632</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>35.52602834117711</v>
+        <v>37.93820921144982</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>11.26248346177019</v>
+        <v>10.7882627261132</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>19.45749839411786</v>
+        <v>23.54329002078119</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>34.76783855008591</v>
+        <v>35.95952729359892</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>9.292528852680462</v>
+        <v>6.855065794106078</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>23.15655861120479</v>
+        <v>25.34295254072212</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>28.20940523396985</v>
+        <v>35.70920094851937</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>14.71669461870547</v>
+        <v>11.04765169496046</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>31.07144052005671</v>
+        <v>28.45432584050972</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>37.59834394637758</v>
+        <v>42.59886874451002</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>3.484685575259025</v>
+        <v>4.995788555786191</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>34.67419347306596</v>
+        <v>38.46418210826806</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>21.51379488755962</v>
+        <v>29.74994226861626</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>19.35140728521188</v>
+        <v>22.25742294548744</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>40.05896741843902</v>
+        <v>40.95663188800032</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>45.44934818757002</v>
+        <v>47.87447941208863</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>8.372202148338502</v>
+        <v>10.33170412513727</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>14.67950057898621</v>
+        <v>18.49403460080678</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>20.16272487088006</v>
+        <v>25.0646828544035</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>10.30661493733611</v>
+        <v>15.05402265051278</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>17.08467309039832</v>
+        <v>21.29823736353914</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>29.64557444084676</v>
+        <v>32.14863551260165</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>15.97655537321211</v>
+        <v>10.34387372557691</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>20.15665790851281</v>
+        <v>14.24759784110148</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>21.08128301596464</v>
+        <v>20.14443813905801</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>3.881351824065593</v>
+        <v>1.852353084517897</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>18.68819209737728</v>
+        <v>23.4940062083088</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>33.65126775499315</v>
+        <v>37.21089545735049</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>19.90782066132421</v>
+        <v>22.56731897405829</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>49.10889043824496</v>
+        <v>44.68432457773594</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>54.94537096369773</v>
+        <v>56.22518827177621</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>7.254541811442166</v>
+        <v>5.559452247976125</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>18.58867681235095</v>
+        <v>19.50553529780588</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>26.00102907842226</v>
+        <v>29.5335598107355</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>52.41209918056775</v>
+        <v>58.3407692570113</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>47.27108702126453</v>
+        <v>50.85353704515101</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>58.7493494149764</v>
+        <v>62.74127126074657</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>63.1275326350728</v>
+        <v>70.14313374520279</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>20.21586207286084</v>
+        <v>21.3638871230861</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>49.85791747491459</v>
+        <v>57.08638959886746</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>51.52868006821122</v>
+        <v>60.79828323934445</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>21.36038581597138</v>
+        <v>20.97356566146242</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>32.1083634038</v>
+        <v>38.8712384995813</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>41.21357012048595</v>
+        <v>44.69896161569214</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>15.68896559971565</v>
+        <v>13.68368280759666</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>42.94120995147105</v>
+        <v>42.20358924297836</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>49.28109232675715</v>
+        <v>47.91801729214222</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>7.200498407641337</v>
+        <v>11.43980513023811</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>53.96143741964917</v>
+        <v>58.45475756950869</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>69.97640014319987</v>
+        <v>70.29533056779449</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>63.47072457031888</v>
+        <v>72.81690099322972</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>78.06729017930783</v>
+        <v>82.36058234143414</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>85.89892019074446</v>
+        <v>91.88540657866483</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>24.95842728678116</v>
+        <v>26.57645410157821</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>68.57235440308912</v>
+        <v>72.65178399082399</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>70.29915834431762</v>
+        <v>77.60474135264877</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>56.68138620630421</v>
+        <v>60.80582085081495</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>38.19024197579558</v>
+        <v>42.29311558990179</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>44.32797460797902</v>
+        <v>50.77632261763699</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>59.53153748598731</v>
+        <v>64.37353183286776</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>14.50681633971187</v>
+        <v>10.50440489895846</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>43.51063582730801</v>
+        <v>50.84618919195513</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>14.36863152037254</v>
+        <v>14.27455729626062</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>28.23551658367805</v>
+        <v>34.86893597640375</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>40.64828512933092</v>
+        <v>43.24429478270487</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>15.28472995240273</v>
+        <v>8.991467761503388</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>39.13722369401763</v>
+        <v>40.68954617902095</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>51.06400176561991</v>
+        <v>51.18364407924987</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>7.459217277578627</v>
+        <v>8.323464732316353</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>52.20369594391057</v>
+        <v>58.97079998883471</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>74.91538794319223</v>
+        <v>74.83299431156598</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>60.46022283825859</v>
+        <v>70.39110165164495</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>70.56405600843686</v>
+        <v>77.45216894508016</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>86.96691539072694</v>
+        <v>92.83806674328494</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>17.5675024333601</v>
+        <v>15.64333945048027</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>60.37551347628291</v>
+        <v>68.98477510566035</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>69.35194909883478</v>
+        <v>78.19489764256704</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>49.25244156197961</v>
+        <v>56.45568626330089</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>22.69450799248103</v>
+        <v>26.36036606636673</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>27.90343850125708</v>
+        <v>36.63167456285086</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>38.31729459840822</v>
+        <v>53.40302254212175</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>9.908513488130168</v>
+        <v>9.464822455228127</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>39.92601897865214</v>
+        <v>43.6291168499332</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>43.37580636783389</v>
+        <v>54.16058737961161</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>11.58719015804538</v>
+        <v>11.30608078746488</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>27.93788889739072</v>
+        <v>33.88334981842394</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>45.00353839182602</v>
+        <v>48.42003440033713</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>16.20076826049011</v>
+        <v>12.22327799480753</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>38.55048974681687</v>
+        <v>39.11015935238255</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>54.07574002829958</v>
+        <v>54.99122327063046</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>4.495025264938697</v>
+        <v>7.186162211388897</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>48.0409895331717</v>
+        <v>52.54212032818519</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>73.37674479751001</v>
+        <v>73.81006565250911</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>51.2046630529137</v>
+        <v>56.5661939855945</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>67.74900245271863</v>
+        <v>70.75558198478271</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>89.02749313765661</v>
+        <v>92.01614758310905</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>13.6970518364072</v>
+        <v>13.15075408826383</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>56.17654125527255</v>
+        <v>61.57726945093574</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>72.02555778439363</v>
+        <v>77.46079070918515</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>18.82819304654819</v>
+        <v>17.71971235292214</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>32.78980728968663</v>
+        <v>44.66013186449135</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>52.82082021222863</v>
+        <v>59.03274895848042</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>2.961237167465789</v>
+        <v>7.333943645537875</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>39.5407423217509</v>
+        <v>56.04860370518613</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>49.22431925079208</v>
+        <v>63.22965192313173</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>10.95147537693175</v>
+        <v>24.57424396643018</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>79.15677979696146</v>
+        <v>84.70446306370678</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>86.15920097573428</v>
+        <v>92.68617010755003</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>34.28292627219662</v>
+        <v>54.59261644659419</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>38.84114410153946</v>
+        <v>66.59991448525446</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>42.63088594275023</v>
+        <v>66.72570320460693</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>20.62030033929178</v>
+        <v>20.83589596827592</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>35.01543412699543</v>
+        <v>48.02274688602166</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>56.74574937449935</v>
+        <v>61.0371575850239</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>19.9119772824</v>
+        <v>16.31698531635041</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>41.87648517120392</v>
+        <v>40.38496385708476</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>41.83394085579615</v>
+        <v>44.43162502266047</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>1.588965666178897</v>
+        <v>-6.698799032327461</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>20.69213344572636</v>
+        <v>23.81175583674936</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>25.48101435195201</v>
+        <v>25.54855766982331</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>6.133609468287947</v>
+        <v>1.672004428592071</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>44.70708170708102</v>
+        <v>48.21109265033517</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>28.23203667369836</v>
+        <v>27.96912290510708</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>55.41091730239485</v>
+        <v>63.14111866280641</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>57.43079393203599</v>
+        <v>67.8057025663461</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>5.70200139165442</v>
+        <v>12.69414377691011</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>60.45416815555736</v>
+        <v>74.13683799493319</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>61.97100897406128</v>
+        <v>74.15577494280593</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>9.709100517622485</v>
+        <v>29.71992510225041</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>92.14970723523794</v>
+        <v>102.1427866660531</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>87.05933464107969</v>
+        <v>102.4044979200143</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>77.9599127776787</v>
+        <v>93.88440593271733</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>89.57778547924352</v>
+        <v>106.1940886243471</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>83.80290712594228</v>
+        <v>100.8761114055019</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>25.54736380348946</v>
+        <v>33.03099202036692</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>59.14845861728279</v>
+        <v>77.57009519740899</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>69.74118637285667</v>
+        <v>80.8435836610939</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>26.99619833604579</v>
+        <v>23.36834614068997</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>50.27473053517262</v>
+        <v>57.27310917253031</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>48.40431607680507</v>
+        <v>56.68707390343964</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>1.727955195704428</v>
+        <v>-2.219586622395624</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>41.94392166616896</v>
+        <v>47.92413792254175</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>44.0258636710617</v>
+        <v>48.17507742080433</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>7.184115538389189</v>
+        <v>10.40333905116336</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>72.66394006514153</v>
+        <v>77.06974980381233</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>10.65021101109055</v>
+        <v>17.89109111936318</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>39.53667628744256</v>
+        <v>53.80064221436201</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>44.91171829509287</v>
+        <v>58.84929110414508</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>3.604243380818922</v>
+        <v>9.411558807320038</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>58.64468106594337</v>
+        <v>70.39496155749407</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>58.45061434421891</v>
+        <v>71.36645483101975</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>7.261762492447311</v>
+        <v>25.85125903254979</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>85.93158420376727</v>
+        <v>97.6672779805657</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>84.42239425371432</v>
+        <v>98.96997809905213</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>89.45027605052081</v>
+        <v>97.26983011586719</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>99.89661183955856</v>
+        <v>108.1890787741921</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>92.39005623421366</v>
+        <v>103.6751195632741</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>9.336910767339258</v>
+        <v>20.51266481913946</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>42.23123969991995</v>
+        <v>67.48585100147631</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>52.44428874515743</v>
+        <v>70.63070127408224</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>19.7153569460169</v>
+        <v>16.03601863412767</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>47.3048019753019</v>
+        <v>50.09227678775225</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>47.2577105480274</v>
+        <v>51.9415444898752</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>1.425350207437663</v>
+        <v>-5.523024405907083</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>41.64353893949199</v>
+        <v>44.35301677156535</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>44.96064416928624</v>
+        <v>48.63998227041028</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>5.447411949537617</v>
+        <v>6.704566770177163</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>67.81123054282494</v>
+        <v>73.23243863432967</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>7.641308688813186</v>
+        <v>8.06423813998172</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>32.67173205879778</v>
+        <v>44.34121170750286</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>47.2242373750521</v>
+        <v>57.54148550913237</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>4.287464062186331</v>
+        <v>10.79706563272546</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>63.17057807594504</v>
+        <v>71.87811568957937</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>68.39875580751496</v>
+        <v>79.70612754893568</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>8.129411807390206</v>
+        <v>24.08637783400219</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>93.35443466105838</v>
+        <v>95.54002996982652</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>93.96427407673558</v>
+        <v>103.9383792804185</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>81.13510260880332</v>
+        <v>86.83891523320224</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>90.49912581921535</v>
+        <v>97.89977041972307</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>93.12695181668838</v>
+        <v>98.53014832926391</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>10.06873108316079</v>
+        <v>15.98259984011247</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>45.42515135268646</v>
+        <v>63.53787335181079</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>60.0158424813802</v>
+        <v>73.83654044810746</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>13.72639387161902</v>
+        <v>9.248970649235975</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>45.55137259838571</v>
+        <v>44.49754426432285</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>49.26337770503213</v>
+        <v>52.14388626083029</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>0.5177530054932475</v>
+        <v>-4.571603134722753</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>40.20595184783384</v>
+        <v>42.05076333688423</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>49.20870475905006</v>
+        <v>51.70696056854179</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>6.038692135474431</v>
+        <v>6.054847928980358</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>66.582122643049</v>
+        <v>68.37341991141099</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>42.77120133575492</v>
+        <v>53.0423259407539</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>35.70807948835737</v>
+        <v>39.82467057774983</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>48.16142771186554</v>
+        <v>56.76960861851202</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>55.82547574986341</v>
+        <v>60.22722988570133</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>15.41392900367953</v>
+        <v>10.7286555065555</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>36.95785750295892</v>
+        <v>42.50406205134085</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>45.17120896255463</v>
+        <v>49.76465811096371</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>15.4855860600186</v>
+        <v>14.269876553995</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>34.59432330156946</v>
+        <v>35.74146842462058</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>43.2636994727356</v>
+        <v>45.23501173097027</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>1.590985685632667</v>
+        <v>-4.429688546431407</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>16.30216034421534</v>
+        <v>22.73998028668816</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>30.45093752764102</v>
+        <v>31.09354334780217</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>7.739767995674601</v>
+        <v>2.603146450757464</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>41.89925892658033</v>
+        <v>48.9853945101767</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>64.54489326468938</v>
+        <v>61.78324251103647</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>38.8303969267408</v>
+        <v>47.22182478788843</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>61.30368222952991</v>
+        <v>63.60064597994739</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>67.82459249144881</v>
+        <v>68.5770711942973</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>12.73093834192787</v>
+        <v>6.987649337676942</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>35.60948759744556</v>
+        <v>42.00625596867081</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>51.75172117073567</v>
+        <v>55.42097490240039</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>73.07479428287112</v>
+        <v>80.30275445091726</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>74.42774689675122</v>
+        <v>76.13094996141982</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>81.99610816336317</v>
+        <v>89.34871559836927</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>79.65874035841017</v>
+        <v>88.17770627948676</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>27.49691578585966</v>
+        <v>25.14248516371481</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>77.50674814129488</v>
+        <v>84.48284168658799</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>76.24747670990934</v>
+        <v>83.41389438559833</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>27.64202707620262</v>
+        <v>19.27983763470984</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>49.63505124385964</v>
+        <v>53.98076580348253</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>46.89804237925176</v>
+        <v>52.74421453592521</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>0.9617853133195382</v>
+        <v>-2.459836541123348</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>46.50380559416658</v>
+        <v>51.4676505037157</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>44.7245588051817</v>
+        <v>48.87691120975894</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>4.385462351755478</v>
+        <v>6.034130614244134</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>74.75058049921918</v>
+        <v>79.13737876919998</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>71.49262501662538</v>
+        <v>80.37143421533037</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>78.46646425838107</v>
+        <v>89.9799287743723</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>83.74596518769309</v>
+        <v>98.0574435155242</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>80.4872768967101</v>
+        <v>95.01232701028849</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>29.64938824515182</v>
+        <v>23.94391960124092</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>80.80866306159731</v>
+        <v>90.60217455642459</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>83.52028880677761</v>
+        <v>89.97214780319544</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>73.31117867480049</v>
+        <v>80.34732791322506</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>67.26479887823409</v>
+        <v>70.91892872100402</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>79.51844346062205</v>
+        <v>82.82987598096477</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>79.64748225860157</v>
+        <v>85.44728787611807</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>15.88502965632556</v>
+        <v>15.0517650212839</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>74.54489910568613</v>
+        <v>79.36610901855485</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>73.11650361551565</v>
+        <v>79.48340845760885</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>16.79823636356061</v>
+        <v>10.98771854602054</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>44.3775716390041</v>
+        <v>48.79518655770453</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>40.84693082192255</v>
+        <v>48.09903009663606</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>0.5678977354308046</v>
+        <v>-7.957266987215981</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>47.60439508851154</v>
+        <v>49.98126663632092</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>42.31998547929805</v>
+        <v>48.51821150788338</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>3.537159269857888</v>
+        <v>1.035146557622568</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>74.73832674114178</v>
+        <v>78.0338453547412</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>69.82323722355679</v>
+        <v>80.2053143667556</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>81.89788372161085</v>
+        <v>88.90167064190538</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>86.93165665538342</v>
+        <v>96.31040488179718</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>84.92211612471749</v>
+        <v>96.40978323711386</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>14.74896355736618</v>
+        <v>12.97360353466254</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>81.05396549192706</v>
+        <v>88.80141741077929</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>82.84057118413463</v>
+        <v>88.50432821281893</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>78.88810471350951</v>
+        <v>80.63367826515822</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>43.52635713583598</v>
+        <v>53.29037210377088</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>59.22302010241095</v>
+        <v>68.68195996248181</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>69.25990788297941</v>
+        <v>74.86497244276458</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>12.58191114681216</v>
+        <v>12.1992019168704</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>74.32669936617418</v>
+        <v>73.67896286462476</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>80.05154800188029</v>
+        <v>80.17994118946135</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>11.54856367439971</v>
+        <v>5.409933952665945</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>45.16808457140479</v>
+        <v>46.64424569849928</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>46.27331179212663</v>
+        <v>53.26041681779947</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>1.656531833704094</v>
+        <v>-4.135070256946186</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>47.31056284480964</v>
+        <v>50.92889352721983</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>50.09568907524173</v>
+        <v>58.09235355379882</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>3.604901149668056</v>
+        <v>3.164147177647408</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>72.99442643845447</v>
+        <v>76.79982193524098</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>74.55546089903466</v>
+        <v>87.59636723066322</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>75.54458038136562</v>
+        <v>82.22680065561084</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>82.66550229659252</v>
+        <v>94.887024344125</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>85.59579123672765</v>
+        <v>101.1949884356472</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>8.964065455942315</v>
+        <v>11.15806395374926</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>79.68232799264092</v>
+        <v>87.17686462064563</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>85.49097592410203</v>
+        <v>94.99160253103582</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>12.34695140692018</v>
+        <v>14.44348372977209</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>14.59674757183909</v>
+        <v>11.49983125903031</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>20.55284070242604</v>
+        <v>21.61311094067584</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>0.5417884334504635</v>
+        <v>-1.483763488230231</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>7.858647810573192</v>
+        <v>8.650186776933769</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>9.064089779945515</v>
+        <v>11.91428504337528</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>6.875983402856228</v>
+        <v>3.96433193898843</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>20.02598532046265</v>
+        <v>21.98204773274706</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>22.63391978993445</v>
+        <v>25.67356887138254</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>12.23458716153655</v>
+        <v>10.4732169115356</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>17.32985950952237</v>
+        <v>15.96755366381984</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>18.95213613477743</v>
+        <v>17.71729568319633</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>27.03116888457739</v>
+        <v>20.70258858532793</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>27.43642672225523</v>
+        <v>17.45332024165665</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>35.98664462401059</v>
+        <v>30.78521834800625</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>12.5097014510644</v>
+        <v>15.01129892572484</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>27.24601915986539</v>
+        <v>23.40507665269688</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>36.73924440291304</v>
+        <v>32.65459383430944</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>-4.851137069166853</v>
+        <v>-1.977117084271086</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>0.8223532881667985</v>
+        <v>1.368131390037988</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>5.169861986915642</v>
+        <v>7.318687202972121</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>1.701433757240874</v>
+        <v>-3.397941386643168</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>15.45629034196589</v>
+        <v>13.85809162079744</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>16.82215671940991</v>
+        <v>15.15217960709979</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>20.54294432179992</v>
+        <v>19.73375958385167</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>19.60652372438897</v>
+        <v>23.00844646379837</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>1.798954969366736</v>
+        <v>-2.158078623618316</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>19.04625238634605</v>
+        <v>19.91549239582788</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>21.32826851716753</v>
+        <v>21.1788499480571</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>6.70199243275751</v>
+        <v>5.158963087840348</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>31.90655591572619</v>
+        <v>34.80053244487866</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>31.93129711625375</v>
+        <v>35.40028547086833</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>34.80383689388296</v>
+        <v>38.03170776321311</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>40.05254203814128</v>
+        <v>43.09979362608154</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>42.28262524592753</v>
+        <v>45.14438009045855</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>31.46496288050724</v>
+        <v>27.92507034923452</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>45.5395062109769</v>
+        <v>44.74214213394966</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>48.79122576972424</v>
+        <v>51.7654086748304</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>14.20363773195984</v>
+        <v>15.28379924574574</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>39.60219969168436</v>
+        <v>34.24862872645771</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>44.67871442731601</v>
+        <v>42.42937637687893</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>-3.120781601761561</v>
+        <v>1.309947205471019</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>29.29437306440692</v>
+        <v>24.88349124807765</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>41.33776428608169</v>
+        <v>37.96898339429794</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>3.325261925203922</v>
+        <v>6.282391632663099</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>52.17869039109449</v>
+        <v>44.60186117203591</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>6.52912020020694</v>
+        <v>6.808243677396597</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>13.01259902456288</v>
+        <v>13.56297621746889</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>13.44732779889208</v>
+        <v>17.67016247241456</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-0.8092790034104915</v>
+        <v>-5.684948662813717</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>15.72784007673856</v>
+        <v>17.18564443472001</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>16.9106152113716</v>
+        <v>20.64065505003625</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>4.599457314388417</v>
+        <v>2.308892357418326</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>29.75435673305227</v>
+        <v>32.94266986591202</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>32.41336271930551</v>
+        <v>35.58088362912663</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>33.94859923870745</v>
+        <v>38.36129742787865</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>35.96639040523963</v>
+        <v>41.67940957481954</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>42.75777613160832</v>
+        <v>46.56761770938211</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>21.4675499981797</v>
+        <v>14.71214612193239</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>34.20796846137529</v>
+        <v>35.0897350952087</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>37.68968208713349</v>
+        <v>43.49204204578938</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>4.256869452499043</v>
+        <v>7.157493105943612</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>30.29170515751757</v>
+        <v>26.14904844678166</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>41.71496821963814</v>
+        <v>37.75341228126025</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>-5.691054069804959</v>
+        <v>-3.316869227053598</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>18.12135922292339</v>
+        <v>19.63021876851137</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>41.38932763108593</v>
+        <v>39.25432822192533</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>-0.7814982852786763</v>
+        <v>2.003745965037439</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>40.27967587307829</v>
+        <v>40.26749357347751</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>5.777936236927911</v>
+        <v>1.273730183284709</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>10.61101765591269</v>
+        <v>7.69240179101145</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>13.82273808027836</v>
+        <v>17.42298425969182</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>-0.1239391998693264</v>
+        <v>-5.062089404643849</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>12.95826382431349</v>
+        <v>16.52463677391288</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>18.44533288337843</v>
+        <v>23.29412868037098</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>2.099653387351516</v>
+        <v>-0.8138739018282521</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>26.07038575768805</v>
+        <v>28.37564090551367</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>31.64846940117106</v>
+        <v>34.63740924255313</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>25.9492596768601</v>
+        <v>28.49671378208169</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>28.7978857868459</v>
+        <v>31.16867182218624</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>34.72388996503803</v>
+        <v>37.31430009743602</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>23.38903289352755</v>
+        <v>11.00265636655491</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>31.9898111737947</v>
+        <v>27.28719120769564</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>39.67190289593724</v>
+        <v>41.73672906991858</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>2.761179487086522</v>
+        <v>4.580855066928329</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>22.90126059053611</v>
+        <v>22.02928836110887</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>37.5170009913631</v>
+        <v>37.42817872560545</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>-4.410324158835149</v>
+        <v>-1.857398610863989</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>13.27945881496828</v>
+        <v>14.5709173141038</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>39.39494975236025</v>
+        <v>35.12134131781251</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>-0.3102913901879596</v>
+        <v>0.3365779449194832</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>31.29494015743595</v>
+        <v>31.26928110183022</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>23.04907693465583</v>
+        <v>25.17423075645283</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>19.77861083765426</v>
+        <v>17.38449681181768</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>39.65206579199279</v>
+        <v>35.93040073004788</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>48.72685060246489</v>
+        <v>42.88625891801295</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>2.243902598505755</v>
+        <v>2.682515142500321</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>12.18019051762891</v>
+        <v>13.72955399900761</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>21.9979091940059</v>
+        <v>25.24934215764406</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>15.42288216792771</v>
+        <v>15.91917922890846</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>26.43579707205854</v>
+        <v>23.02762434190077</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>34.79489394761472</v>
+        <v>31.74541460669347</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>-4.808245575007852</v>
+        <v>-2.706966183085296</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>-0.8256475337074392</v>
+        <v>2.489778478766922</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>4.338514874652869</v>
+        <v>7.118765453406589</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>2.140931035564769</v>
+        <v>-3.2045880834794</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>15.7785383182307</v>
+        <v>18.64649366165364</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>27.41939132309389</v>
+        <v>30.54287234611601</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>20.64943782784202</v>
+        <v>20.40432453991754</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>38.41154801277993</v>
+        <v>39.90822800252329</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>47.53287228927967</v>
+        <v>48.86161102889796</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>5.4401422157387</v>
+        <v>5.146157430298373</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>19.60284625334664</v>
+        <v>19.16969187551291</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>27.38553221983645</v>
+        <v>29.93306741861872</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>71.42387153531584</v>
+        <v>61.72142328581145</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>55.73814249245795</v>
+        <v>50.10057592647217</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>73.74383753987561</v>
+        <v>64.70690680314604</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>79.77742000941288</v>
+        <v>71.99085819237675</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>12.69390959260991</v>
+        <v>17.63337620159002</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>69.67499201638299</v>
+        <v>59.96112706914288</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>80.80264559701166</v>
+        <v>69.8963353904807</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>26.15037102903143</v>
+        <v>24.51361522402638</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>47.85884875655749</v>
+        <v>44.79174432973154</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>50.78762796265327</v>
+        <v>49.94194551182268</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>-0.5628282841280168</v>
+        <v>4.707475577622667</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>38.75891318330608</v>
+        <v>36.18615911282826</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>48.27596219809351</v>
+        <v>42.17020363680766</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>11.51270202534178</v>
+        <v>11.95381484122873</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>69.47893475825856</v>
+        <v>60.80582411982147</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>76.72605130616813</v>
+        <v>72.04234468552701</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>81.88650802896353</v>
+        <v>77.18698439777043</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>89.27042561547711</v>
+        <v>85.67958633389307</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>94.64832124444875</v>
+        <v>92.36250825702942</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>32.47196562829124</v>
+        <v>32.79205318135552</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>91.64290130482301</v>
+        <v>80.49161379083668</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>93.55608809129782</v>
+        <v>87.58527552193655</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>71.9577370364696</v>
+        <v>63.23451146566933</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>39.6980948858473</v>
+        <v>39.69189616901881</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>55.57184604221605</v>
+        <v>51.33634790695018</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>76.30581238280246</v>
+        <v>65.40418136890759</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>2.059777843422111</v>
+        <v>5.328561313286414</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>58.7569507442635</v>
+        <v>51.85991429583417</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>75.27410045630688</v>
+        <v>65.42345841858577</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>13.82153664849155</v>
+        <v>16.2392227400334</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>39.55171289298289</v>
+        <v>39.17953195271649</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>47.65784577994085</v>
+        <v>47.78825418768794</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>-3.897137181676253</v>
+        <v>-1.338584106479914</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>32.51213270333238</v>
+        <v>33.23215362844291</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>49.52173868324954</v>
+        <v>45.00293340207463</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>4.794790799250478</v>
+        <v>7.22814652859185</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>61.83276793620745</v>
+        <v>59.64028024990665</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>78.11639719678027</v>
+        <v>75.8621312097971</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>73.71367971624949</v>
+        <v>73.25366071227671</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>81.02136312331479</v>
+        <v>79.77087825778548</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>93.45690784882576</v>
+        <v>92.95660198641252</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>19.39040161556738</v>
+        <v>20.2783250224476</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>82.30399196554455</v>
+        <v>75.35058663227639</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>90.90931287011921</v>
+        <v>87.68109725946798</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>65.98391096097953</v>
+        <v>55.23122743860804</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>23.37022611743178</v>
+        <v>22.52825362668513</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>34.31692553643599</v>
+        <v>33.55227219025062</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>57.02981102247125</v>
+        <v>50.90084046122765</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>2.412531314133432</v>
+        <v>2.817383085720564</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>45.63995187223291</v>
+        <v>39.79837323044005</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>65.91086167972361</v>
+        <v>57.39862839309233</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>10.78487862362618</v>
+        <v>11.7024047211653</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>36.07664194840947</v>
+        <v>35.60721132231538</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>48.93869870285645</v>
+        <v>49.35227255809104</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>-3.041331905239403</v>
+        <v>0.1878976165033706</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>28.53285516771497</v>
+        <v>28.94893977250542</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>47.1950549849665</v>
+        <v>44.92867368445702</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>2.590391212931845</v>
+        <v>3.670446764587002</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>54.60572164927442</v>
+        <v>49.70942492663697</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>75.80357099718228</v>
+        <v>70.52124421916542</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>60.11525997697754</v>
+        <v>56.25656190420185</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>73.79998242240765</v>
+        <v>68.55987164553912</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>89.08035558458418</v>
+        <v>87.67454461128636</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>15.21406145891165</v>
+        <v>13.96199220390812</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>73.87507399365143</v>
+        <v>63.54512674700969</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>86.66785991440489</v>
+        <v>81.3907514982437</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>14.95015912994231</v>
+        <v>13.19293068186418</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>16.82111318158568</v>
+        <v>9.7902035883913</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>20.60266971947271</v>
+        <v>18.43603866269264</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>7.574008943110698</v>
+        <v>-0.5129444134334129</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>11.69213130765629</v>
+        <v>7.165944861612722</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>12.64292512161506</v>
+        <v>9.851279926797687</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>11.2990765792266</v>
+        <v>3.598119765901732</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>20.76100284811688</v>
+        <v>19.02341518288576</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>22.06292638108023</v>
+        <v>22.19736650617659</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>15.08665718782669</v>
+        <v>8.385449369425157</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>18.80818676379953</v>
+        <v>13.27670506840135</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>19.09646208841557</v>
+        <v>14.43171809948809</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>16.670126815385</v>
+        <v>12.09503719296096</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>17.45462468085067</v>
+        <v>7.961841921229297</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>23.07917045940649</v>
+        <v>18.28014503070072</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>15.16178157238304</v>
+        <v>15.10885243074338</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>25.51873362908112</v>
+        <v>21.90343513660983</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>31.22260749832133</v>
+        <v>29.82876744844445</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>4.055220097523719</v>
+        <v>-0.1393926656723714</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>8.29250686451898</v>
+        <v>3.497589285479805</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>11.76140556820732</v>
+        <v>8.714596251191686</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>9.012379823722767</v>
+        <v>-0.4069536972292305</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>19.74288145301571</v>
+        <v>15.64364718181143</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>18.0885318298081</v>
+        <v>13.23381086593215</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>20.91703585320668</v>
+        <v>15.89102311094292</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>19.81442035936858</v>
+        <v>18.89365745406307</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>8.722158187265261</v>
+        <v>-1.414276217581296</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>19.74236043365975</v>
+        <v>16.08094900339823</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>21.15740898767063</v>
+        <v>17.06510436078865</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>11.41446264762405</v>
+        <v>3.251202293507497</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>27.93727513606638</v>
+        <v>28.21024226946398</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>27.54024061635835</v>
+        <v>28.74625601388938</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>30.34295279736359</v>
+        <v>30.64384882748481</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>34.09138805185895</v>
+        <v>34.95446935745868</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>35.02465680718846</v>
+        <v>36.14527441757436</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>18.92892820318173</v>
+        <v>16.17982431528397</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>28.00009100389118</v>
+        <v>28.22519094446989</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>30.40322946434006</v>
+        <v>33.38381802134177</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>16.00764401117664</v>
+        <v>14.39637832735657</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>31.76523121382724</v>
+        <v>30.10616670439908</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>35.11661081432084</v>
+        <v>37.22011807167188</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>4.743220966385643</v>
+        <v>1.662629736398976</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>25.65362486488151</v>
+        <v>22.59280785346357</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>32.9660704271172</v>
+        <v>33.3625806998223</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>8.961453057072294</v>
+        <v>6.029442068472026</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>40.97466123535587</v>
+        <v>40.0198651005714</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>11.04132150222154</v>
+        <v>5.978282418186254</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>15.3965906193498</v>
+        <v>10.18517632439707</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>15.65493509721226</v>
+        <v>14.11502429099649</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>6.988017410259172</v>
+        <v>-4.224613787929513</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>17.46509294719981</v>
+        <v>13.64595948496326</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>18.20712950263658</v>
+        <v>16.6693689864012</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>10.33693441045089</v>
+        <v>0.9270584253662228</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>26.24327681652666</v>
+        <v>26.37324694429871</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>27.80430658035289</v>
+        <v>28.83187924309838</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>30.79739373083058</v>
+        <v>31.31509268291455</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>32.2034371572544</v>
+        <v>34.05240892198105</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>35.99447358761147</v>
+        <v>37.6727356630838</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>11.86103681029668</v>
+        <v>4.982227341395014</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>19.45726828114391</v>
+        <v>19.73315887466913</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>22.33242801951358</v>
+        <v>26.19176273169588</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>10.02128397458507</v>
+        <v>7.433224308069189</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>26.08212256903943</v>
+        <v>23.0299599218515</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>33.70966151102261</v>
+        <v>33.31119043591293</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>3.443452400853619</v>
+        <v>-2.17502523374263</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>18.4680300576646</v>
+        <v>18.06243857312283</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>33.21779099939649</v>
+        <v>34.5435425920049</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>7.603301655735965</v>
+        <v>2.473189819719121</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>33.47683183539485</v>
+        <v>36.20039637197425</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>10.71965076627946</v>
+        <v>1.329564591105715</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>13.60104878806035</v>
+        <v>5.561244942504533</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>16.02190081693714</v>
+        <v>14.18697093326664</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>6.959030497350899</v>
+        <v>-3.94713309879479</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>14.78177975269427</v>
+        <v>13.21762742278446</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>18.73940001502462</v>
+        <v>19.02339678688788</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>8.143083930085762</v>
+        <v>-1.329229128492322</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>23.30852874695195</v>
+        <v>23.22951039637576</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>27.01052860779124</v>
+        <v>28.79428066259587</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>24.65205523428861</v>
+        <v>23.80804936068842</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>26.80607514726078</v>
+        <v>26.30775236508376</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>30.50136393235428</v>
+        <v>31.09310999853522</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>12.0813067414704</v>
+        <v>2.630965142864476</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>17.61170564392585</v>
+        <v>14.8665725313833</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>23.1615197508822</v>
+        <v>26.07618924637082</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>9.085644392935002</v>
+        <v>5.638898884729652</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>22.48825814779937</v>
+        <v>20.22792505324838</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>31.69176447087556</v>
+        <v>33.67413739720806</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>3.832546826429883</v>
+        <v>-0.7839522190940009</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>15.56257690847336</v>
+        <v>14.17032977152247</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>31.50608729520764</v>
+        <v>31.6834151673188</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>7.159547336326781</v>
+        <v>1.905258377402436</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>28.17469651514838</v>
+        <v>29.64640249705285</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>24.20685782590399</v>
+        <v>24.98181059072432</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>21.69814247999638</v>
+        <v>18.86859567487378</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>36.43641550766677</v>
+        <v>35.04160091190626</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>42.36382006073092</v>
+        <v>40.51071850019729</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>9.751576988465592</v>
+        <v>4.921823636469021</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>17.65905520593956</v>
+        <v>14.48910179921777</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>24.49983462158781</v>
+        <v>24.2287852895344</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>16.72940011059248</v>
+        <v>14.33581285363343</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>25.02655437691348</v>
+        <v>20.24957728622669</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>31.70004750887652</v>
+        <v>29.42059311998641</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>3.770421152337665</v>
+        <v>-2.198892576320393</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>6.041304728859124</v>
+        <v>2.832551171693439</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>10.0254117413858</v>
+        <v>8.881726154782243</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>8.598108173979021</v>
+        <v>-1.553324125084202</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>17.85056816111971</v>
+        <v>18.38862180441886</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>27.8869013812609</v>
+        <v>30.03432154854386</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>22.36573464213063</v>
+        <v>20.64600411838888</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>37.24152091171644</v>
+        <v>38.04155939582469</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>43.26829224555065</v>
+        <v>45.71577030098085</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>10.23466902604373</v>
+        <v>4.108560719790429</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>19.38030852143319</v>
+        <v>16.8168320326695</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>25.42418316082735</v>
+        <v>27.6463470958635</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>52.30940359583918</v>
+        <v>53.89690669098536</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>43.87215735182463</v>
+        <v>44.85847826156219</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>54.87689731086024</v>
+        <v>57.51836288412616</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>58.93881248989995</v>
+        <v>63.09608774185768</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>15.21477051407978</v>
+        <v>15.2826751768983</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>50.86146781547104</v>
+        <v>51.1680869219668</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>57.30065200993226</v>
+        <v>59.19909791615155</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>23.01125541234537</v>
+        <v>20.64481731821274</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>37.20398971565712</v>
+        <v>38.14701346268865</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>40.96301748023929</v>
+        <v>43.94991697585329</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>6.172059811665488</v>
+        <v>4.067404254889095</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>32.50859987328494</v>
+        <v>32.15776089646119</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>39.6453300426903</v>
+        <v>38.4426388356724</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>13.6951066556387</v>
+        <v>10.23392164935608</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>52.79133565058469</v>
+        <v>53.73080493505077</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>58.85701720315888</v>
+        <v>63.93938222979718</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>61.37582504015821</v>
+        <v>67.56117510704712</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>67.5595005654896</v>
+        <v>75.98892744604331</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>70.56802262193253</v>
+        <v>81.23412413662473</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>27.53261596279624</v>
+        <v>26.83040156075521</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>66.26232563141497</v>
+        <v>68.5207337609362</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>68.79402728651891</v>
+        <v>75.67766599794768</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>53.65330523288654</v>
+        <v>55.25770052452369</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>34.11271690729993</v>
+        <v>36.35365503044052</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>44.13991651257867</v>
+        <v>46.56843181430639</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>56.97690519739762</v>
+        <v>57.87434838705374</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>8.517846237816951</v>
+        <v>4.847701198131176</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>43.97519900949746</v>
+        <v>44.25875969060482</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>54.54878456833193</v>
+        <v>55.54583106888516</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>14.29843148205121</v>
+        <v>13.61412263999182</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>31.24281353422431</v>
+        <v>33.49252488870403</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>38.53667446150266</v>
+        <v>42.2281487586883</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>4.285500803199142</v>
+        <v>-0.8251586324397131</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>28.38630039109575</v>
+        <v>30.07072488743859</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>41.18055225274144</v>
+        <v>41.1242941745209</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>10.31595586696955</v>
+        <v>6.529509578017496</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>48.3981829314146</v>
+        <v>53.14465777460212</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>60.98952652338642</v>
+        <v>67.4941306080856</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>56.97806797651942</v>
+        <v>64.7146826459151</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>63.24783036679918</v>
+        <v>71.6121527073843</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>70.23703762140607</v>
+        <v>82.3041698352624</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>17.80320071009954</v>
+        <v>16.44011189787563</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>60.51050332165246</v>
+        <v>64.79093528970138</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>67.70391330208665</v>
+        <v>76.29056004169968</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>49.91467786178345</v>
+        <v>49.80203228688293</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>23.75201262615562</v>
+        <v>22.86463546265082</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>32.51770134643029</v>
+        <v>33.21512620095724</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>45.90909471932494</v>
+        <v>46.90200894468679</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>8.721198245275527</v>
+        <v>3.817804833801528</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>36.62002853472126</v>
+        <v>35.89078646706474</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>49.89067874379144</v>
+        <v>50.63069496894613</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>12.65342727333118</v>
+        <v>10.15696509239306</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>30.18246822109167</v>
+        <v>31.25550911911157</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>40.83744459139</v>
+        <v>44.27985445506789</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>4.700898289605735</v>
+        <v>0.4856044966768422</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>26.21963755666435</v>
+        <v>26.80894838157383</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>39.64384069808764</v>
+        <v>41.59572622238707</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>8.591172272117653</v>
+        <v>4.36646051492286</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>44.14262610692992</v>
+        <v>45.92672815626556</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>60.29279119654194</v>
+        <v>64.40069610038789</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>48.89251868787747</v>
+        <v>51.89351395702483</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>59.25292756511681</v>
+        <v>63.60171635388328</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>69.79566173313086</v>
+        <v>79.33008217534257</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>14.45953736166098</v>
+        <v>11.34258743945244</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>55.03058027546603</v>
+        <v>55.9768632266351</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>65.57560836625865</v>
+        <v>72.03886507815452</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>12.18791355501347</v>
+        <v>13.19936805111509</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>19.35866390455447</v>
+        <v>19.97119849028194</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>33.13210288452429</v>
+        <v>32.25368378851222</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>1.276249582159075</v>
+        <v>-1.786604458019461</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>14.22098555128735</v>
+        <v>16.53774375479305</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>20.78958803830627</v>
+        <v>21.81923247419891</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>4.347771293314999</v>
+        <v>6.694618428791784</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>37.49730209048725</v>
+        <v>37.95470986370706</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>44.71938151066675</v>
+        <v>43.5514400911602</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>21.05819677368111</v>
+        <v>23.35994087301123</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>24.90613487810757</v>
+        <v>29.21750502457126</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>26.47847514366165</v>
+        <v>30.19889441133363</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>9.153922925766071</v>
+        <v>9.361114858256268</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>18.72099303012914</v>
+        <v>18.634824782707</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>32.58429958587527</v>
+        <v>30.63797536872255</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>12.89709520605277</v>
+        <v>15.3188094000028</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>26.15644730486317</v>
+        <v>25.87356032408644</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>30.8948879156891</v>
+        <v>30.87709960441511</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>-0.2704913153926185</v>
+        <v>-3.217870549470426</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>8.408779716956509</v>
+        <v>6.15244914650934</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>11.09260493168399</v>
+        <v>7.233816901542163</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>2.654026599025546</v>
+        <v>-3.020710338914803</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>23.65174976529613</v>
+        <v>21.85794357193927</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>19.24893982452408</v>
+        <v>17.1954652364116</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>33.88169217275112</v>
+        <v>33.927467514726</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>36.07208593994143</v>
+        <v>38.51460917436327</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>2.876280524968102</v>
+        <v>3.189556830822141</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>37.14461704075681</v>
+        <v>36.76270792074927</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>38.94757528021121</v>
+        <v>37.74134922269853</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>6.223853535414072</v>
+        <v>10.76772760551736</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>56.78136094531976</v>
+        <v>56.65972650851264</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>55.76537427027071</v>
+        <v>57.08941066283871</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>55.0677103088492</v>
+        <v>56.78228181072044</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>59.85079735941674</v>
+        <v>62.77218905452035</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>61.45358757722259</v>
+        <v>63.07478540740625</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>15.35559792347647</v>
+        <v>19.51389531114032</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>49.77008740362454</v>
+        <v>50.87578354392843</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>57.24853517093986</v>
+        <v>56.0332007403951</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>17.78417902844796</v>
+        <v>17.37917419924023</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>36.38411155986317</v>
+        <v>39.63844893086318</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>35.79046021850219</v>
+        <v>42.09785591274262</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>-0.09183539084835246</v>
+        <v>1.359279650570887</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>34.15933620296167</v>
+        <v>32.80510329873619</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>33.81215591907896</v>
+        <v>36.02162220949339</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>3.580151438698959</v>
+        <v>6.187572767361992</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>54.19805079277877</v>
+        <v>53.54307662596346</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>7.387876804584447</v>
+        <v>9.5001493974127</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>25.56050418225049</v>
+        <v>27.37182818738766</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>30.43467156621679</v>
+        <v>33.33270052643558</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>1.505206379905417</v>
+        <v>1.067536973559502</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>35.22585678959257</v>
+        <v>34.63322683987185</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>37.19801965190528</v>
+        <v>38.0899603105829</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>6.447712329412919</v>
+        <v>9.059445716490913</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>55.33514586893475</v>
+        <v>54.87076815784003</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>56.68639599094178</v>
+        <v>57.66135112673842</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>60.55951643046605</v>
+        <v>59.11601066404268</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>62.46637906372284</v>
+        <v>63.35481957434104</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>65.81699031275913</v>
+        <v>66.32491851756731</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>4.935033939948429</v>
+        <v>8.343794932006674</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>36.6641990108641</v>
+        <v>42.14568688731487</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>44.02806814800253</v>
+        <v>48.68762179190176</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>11.91455294521316</v>
+        <v>10.59941823403181</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>32.8307071644594</v>
+        <v>32.25174361652273</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>35.69653432205671</v>
+        <v>38.67432044895867</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>1.072689566101925</v>
+        <v>-2.020638638208226</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>30.01270628734577</v>
+        <v>28.16355705700043</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>38.31170415933175</v>
+        <v>37.78511846503055</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>4.942417393892306</v>
+        <v>3.162695550603207</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>48.71791758295203</v>
+        <v>49.59534206496724</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>4.558979332674426</v>
+        <v>3.849696887815114</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>17.72235287218989</v>
+        <v>19.55152482431812</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>29.27368606159716</v>
+        <v>32.89514102389439</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>1.226812173280308</v>
+        <v>-0.3805395883925264</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>25.69318519050462</v>
+        <v>29.54480354505298</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>39.74231912134709</v>
+        <v>39.23032710932021</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>2.746817626371026</v>
+        <v>6.011184077910674</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>47.87237205501997</v>
+        <v>48.13297003139029</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>56.61963040124714</v>
+        <v>57.28811203575394</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>50.50082366509056</v>
+        <v>49.40622660543391</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>54.95778402158103</v>
+        <v>53.52710003175628</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>61.35561982993922</v>
+        <v>59.0462657293157</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>3.993016603404367</v>
+        <v>5.861743509096332</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>33.71534084181831</v>
+        <v>34.78245681209857</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>46.88330289098471</v>
+        <v>48.34611086703509</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>7.634857308595176</v>
+        <v>6.12530509046395</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>28.04944679973257</v>
+        <v>25.29525447653033</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>33.49915184686696</v>
+        <v>36.93110662064867</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>0.2551614371225988</v>
+        <v>-3.529951685912941</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>23.3699611320837</v>
+        <v>18.58485740720445</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>35.26073635849377</v>
+        <v>32.70839653863317</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>2.722591776461794</v>
+        <v>-0.4015415667462179</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>39.37746665028867</v>
+        <v>37.33692864086326</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>24.56846380788469</v>
+        <v>27.27504618363686</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>22.21015907694305</v>
+        <v>20.88090920249181</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>35.63765788701007</v>
+        <v>35.48110429850291</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>40.60263053021492</v>
+        <v>36.88292887396673</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>7.676876774197371</v>
+        <v>2.733750112581919</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>17.91672144685241</v>
+        <v>14.67485656986759</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>23.97002739293096</v>
+        <v>23.04215626415579</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>10.4258376070949</v>
+        <v>11.71663379557261</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>21.56180691552377</v>
+        <v>19.92848170481652</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>32.61275222604755</v>
+        <v>31.71666149323696</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>0.07416501949605703</v>
+        <v>-5.059252496646877</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>5.946311117613348</v>
+        <v>4.128817301916438</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>12.48805773670898</v>
+        <v>12.62713422112511</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>3.716129411321411</v>
+        <v>-4.112790580866125</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>21.01683008591247</v>
+        <v>23.09603234579225</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>40.50915302668494</v>
+        <v>37.59805961036972</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>24.87495668451854</v>
+        <v>23.96524395539829</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>45.20235488706061</v>
+        <v>41.50463553650068</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>52.96005739573448</v>
+        <v>50.80196083711255</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>6.110762177423961</v>
+        <v>-0.8096478629725148</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>18.65522113190913</v>
+        <v>17.16933668842491</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>32.17666739330053</v>
+        <v>30.79181947996534</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>57.97639569648316</v>
+        <v>60.74421441362416</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>57.37659925628348</v>
+        <v>55.00266508970994</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>65.85264323486632</v>
+        <v>65.66056039619644</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>62.38202021290678</v>
+        <v>66.33369312652101</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>15.38034165230217</v>
+        <v>15.9818347024763</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>59.74775805026829</v>
+        <v>59.69475638777542</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>62.14553059677635</v>
+        <v>63.46946222894737</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>18.37129152444451</v>
+        <v>18.97968971157825</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>39.17690024588367</v>
+        <v>41.79167563960943</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>41.72869208403213</v>
+        <v>46.50605849524673</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>1.091653030042572</v>
+        <v>1.844718254236035</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>41.25204627561992</v>
+        <v>39.58872392004157</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>41.93679475061107</v>
+        <v>42.46645987413438</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>4.825558909041593</v>
+        <v>6.638157013822138</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>62.68956987106762</v>
+        <v>62.64948613221929</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>66.14827002298291</v>
+        <v>70.28881891736748</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>74.06964556096372</v>
+        <v>75.14404765545706</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>77.36234523467385</v>
+        <v>83.34384275222141</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>82.32209039978565</v>
+        <v>89.65261872581431</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>18.56558349594333</v>
+        <v>21.03081180991782</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>72.79437463980716</v>
+        <v>74.03837323244957</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>76.11304156905999</v>
+        <v>79.20633352738284</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>61.20483136529847</v>
+        <v>62.79034074230643</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>49.45164413472416</v>
+        <v>47.59603616840003</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>57.05743625813805</v>
+        <v>55.46344297302083</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>62.25628573852912</v>
+        <v>62.68832707183951</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>8.579475185101959</v>
+        <v>5.869233565731893</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>52.80838908019195</v>
+        <v>53.21697896759753</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>59.28943733011552</v>
+        <v>60.58440504903977</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>10.86477793558494</v>
+        <v>11.68846893256745</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>34.77373311593595</v>
+        <v>36.51324953999512</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>41.67115679197173</v>
+        <v>44.40010948562036</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>0.7445498939901434</v>
+        <v>-3.844394074537881</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>35.48028658860034</v>
+        <v>36.39467834716325</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>44.97457135299135</v>
+        <v>44.05893717909083</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>5.391532729735999</v>
+        <v>2.231928413968387</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>57.58327638799306</v>
+        <v>60.9644695582733</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>71.03818184664144</v>
+        <v>72.83450638256062</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>68.73384175343352</v>
+        <v>71.89974693253544</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>75.1349588673086</v>
+        <v>78.25607903733143</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>85.76438945351518</v>
+        <v>91.01493671467355</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>7.995111148319957</v>
+        <v>9.590293451178869</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>67.56547438561347</v>
+        <v>69.67994109654123</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>76.28789332921812</v>
+        <v>79.1628906378273</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>56.63028866912828</v>
+        <v>54.70240267777934</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>28.82675719590499</v>
+        <v>27.23987917584654</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>36.10792340490557</v>
+        <v>36.75664093728528</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>45.29406721534745</v>
+        <v>46.21453091308899</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>5.586358150418381</v>
+        <v>2.535552650302854</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>39.96452677843386</v>
+        <v>40.16590514811009</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>53.65516099828736</v>
+        <v>53.38534319390848</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>7.264026667463007</v>
+        <v>5.436390005950607</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>31.06701354760744</v>
+        <v>30.54090838331421</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>42.29382528411045</v>
+        <v>45.33376576154973</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>-0.1018180052265834</v>
+        <v>-4.104885410862785</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>28.73996991887482</v>
+        <v>29.07795756800393</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>43.52252496612022</v>
+        <v>44.75186476754391</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>1.770044220841914</v>
+        <v>-1.407454681941104</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>46.53643289111598</v>
+        <v>49.84375949038979</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>68.58153286352285</v>
+        <v>69.88526129708032</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>51.662526477336</v>
+        <v>56.14781699888454</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>63.39294800863834</v>
+        <v>67.9239577713129</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>83.09118863770938</v>
+        <v>86.01103802448878</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>4.346764040283556</v>
+        <v>4.621594795566423</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>57.74126538667178</v>
+        <v>58.89250012988968</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>75.47389608725069</v>
+        <v>76.26617065931771</v>
       </c>
     </row>
   </sheetData>
